--- a/wake_model/validation/Cross Validation Results.xlsx
+++ b/wake_model/validation/Cross Validation Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ning1/Documents/FLOW Lab/VAWTWakeModel/wake_model/Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ning1/Documents/FLOW Lab/VAWTWakeModel/wake_model/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12497,25 +12497,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12796,8 +12796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1004" workbookViewId="0">
-      <selection activeCell="B1028" sqref="B1028"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12813,35 +12813,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4115</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4117</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>4116</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4119</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4118</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4121</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>4120</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>4114</v>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
         <v>3015</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(B3,D3,F3)</f>
+        <f t="shared" ref="H3:H66" si="0">AVERAGE(B3,D3,F3)</f>
         <v>815.85868793933332</v>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
         <v>2950</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(B4,D4,F4)</f>
+        <f t="shared" si="0"/>
         <v>826.83944873000007</v>
       </c>
     </row>
@@ -12922,7 +12922,7 @@
         <v>2444</v>
       </c>
       <c r="H5" s="1">
-        <f>AVERAGE(B5,D5,F5)</f>
+        <f t="shared" si="0"/>
         <v>837.47454478033342</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -12952,7 +12952,7 @@
         <v>2189</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(B6,D6,F6)</f>
+        <f t="shared" si="0"/>
         <v>844.76489210349996</v>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
         <v>2987</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(B7,D7,F7)</f>
+        <f t="shared" si="0"/>
         <v>863.81352852800001</v>
       </c>
     </row>
@@ -13006,7 +13006,7 @@
         <v>2446</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(B8,D8,F8)</f>
+        <f t="shared" si="0"/>
         <v>885.45123130866659</v>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
         <v>2711</v>
       </c>
       <c r="H9">
-        <f>AVERAGE(B9,D9,F9)</f>
+        <f t="shared" si="0"/>
         <v>890.54486614233338</v>
       </c>
     </row>
@@ -13060,7 +13060,7 @@
         <v>2250</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(B10,D10,F10)</f>
+        <f t="shared" si="0"/>
         <v>894.67833004100009</v>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
         <v>2953</v>
       </c>
       <c r="H11">
-        <f>AVERAGE(B11,D11,F11)</f>
+        <f t="shared" si="0"/>
         <v>894.76513644033332</v>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
         <v>3033</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(B12,D12,F12)</f>
+        <f t="shared" si="0"/>
         <v>897.75693506500011</v>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
         <v>2188</v>
       </c>
       <c r="H13">
-        <f>AVERAGE(B13,D13,F13)</f>
+        <f t="shared" si="0"/>
         <v>898.43520098033332</v>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>2955</v>
       </c>
       <c r="H14">
-        <f>AVERAGE(B14,D14,F14)</f>
+        <f t="shared" si="0"/>
         <v>902.78749499666662</v>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
         <v>2975</v>
       </c>
       <c r="H15">
-        <f>AVERAGE(B15,D15,F15)</f>
+        <f t="shared" si="0"/>
         <v>903.81078215549996</v>
       </c>
     </row>
@@ -13222,7 +13222,7 @@
         <v>2702</v>
       </c>
       <c r="H16">
-        <f>AVERAGE(B16,D16,F16)</f>
+        <f t="shared" si="0"/>
         <v>905.79777988966669</v>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
         <v>2713</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(B17,D17,F17)</f>
+        <f t="shared" si="0"/>
         <v>908.31259169433326</v>
       </c>
     </row>
@@ -13276,7 +13276,7 @@
         <v>2970</v>
       </c>
       <c r="H18">
-        <f>AVERAGE(B18,D18,F18)</f>
+        <f t="shared" si="0"/>
         <v>908.78851768549998</v>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
         <v>2958</v>
       </c>
       <c r="H19">
-        <f>AVERAGE(B19,D19,F19)</f>
+        <f t="shared" si="0"/>
         <v>912.2086133900001</v>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
         <v>2539</v>
       </c>
       <c r="H20">
-        <f>AVERAGE(B20,D20,F20)</f>
+        <f t="shared" si="0"/>
         <v>912.93640753600005</v>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
         <v>2497</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(B21,D21,F21)</f>
+        <f t="shared" si="0"/>
         <v>914.45970281799998</v>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
         <v>2692</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(B22,D22,F22)</f>
+        <f t="shared" si="0"/>
         <v>919.85161696633338</v>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
         <v>3016</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(B23,D23,F23)</f>
+        <f t="shared" si="0"/>
         <v>922.52003323166662</v>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
         <v>2766</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(B24,D24,F24)</f>
+        <f t="shared" si="0"/>
         <v>923.37750470266667</v>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
         <v>2190</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(B25,D25,F25)</f>
+        <f t="shared" si="0"/>
         <v>925.79348074300003</v>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
         <v>2768</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(B26,D26,F26)</f>
+        <f t="shared" si="0"/>
         <v>927.8433690236667</v>
       </c>
     </row>
@@ -13519,7 +13519,7 @@
         <v>3013</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(B27,D27,F27)</f>
+        <f t="shared" si="0"/>
         <v>930.32685249533336</v>
       </c>
     </row>
@@ -13546,7 +13546,7 @@
         <v>2957</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(B28,D28,F28)</f>
+        <f t="shared" si="0"/>
         <v>930.75806188266654</v>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
         <v>2694</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(B29,D29,F29)</f>
+        <f t="shared" si="0"/>
         <v>932.41993383833335</v>
       </c>
     </row>
@@ -13600,7 +13600,7 @@
         <v>3011</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(B30,D30,F30)</f>
+        <f t="shared" si="0"/>
         <v>933.94743251466662</v>
       </c>
     </row>
@@ -13627,7 +13627,7 @@
         <v>2542</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(B31,D31,F31)</f>
+        <f t="shared" si="0"/>
         <v>938.72569668999995</v>
       </c>
     </row>
@@ -13654,7 +13654,7 @@
         <v>2502</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(B32,D32,F32)</f>
+        <f t="shared" si="0"/>
         <v>938.80675521650005</v>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
         <v>3019</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(B33,D33,F33)</f>
+        <f t="shared" si="0"/>
         <v>940.43588254300005</v>
       </c>
     </row>
@@ -13708,7 +13708,7 @@
         <v>3008</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(B34,D34,F34)</f>
+        <f t="shared" si="0"/>
         <v>942.00688936050005</v>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
         <v>2756</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(B35,D35,F35)</f>
+        <f t="shared" si="0"/>
         <v>944.67135291733337</v>
       </c>
     </row>
@@ -13762,7 +13762,7 @@
         <v>2696</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(B36,D36,F36)</f>
+        <f t="shared" si="0"/>
         <v>947.76336582349995</v>
       </c>
     </row>
@@ -13789,7 +13789,7 @@
         <v>2252</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(B37,D37,F37)</f>
+        <f t="shared" si="0"/>
         <v>948.50336023933335</v>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
         <v>2241</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(B38,D38,F38)</f>
+        <f t="shared" si="0"/>
         <v>950.95807254299996</v>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
         <v>2988</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(B39,D39,F39)</f>
+        <f t="shared" si="0"/>
         <v>951.2217097296666</v>
       </c>
     </row>
@@ -13870,7 +13870,7 @@
         <v>3043</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(B40,D40,F40)</f>
+        <f t="shared" si="0"/>
         <v>951.85434124533333</v>
       </c>
     </row>
@@ -13897,7 +13897,7 @@
         <v>2716</v>
       </c>
       <c r="H41">
-        <f>AVERAGE(B41,D41,F41)</f>
+        <f t="shared" si="0"/>
         <v>952.27987289300006</v>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
         <v>2703</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(B42,D42,F42)</f>
+        <f t="shared" si="0"/>
         <v>952.69780687749994</v>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
         <v>2952</v>
       </c>
       <c r="H43">
-        <f>AVERAGE(B43,D43,F43)</f>
+        <f t="shared" si="0"/>
         <v>952.96097730366671</v>
       </c>
     </row>
@@ -13978,7 +13978,7 @@
         <v>2438</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(B44,D44,F44)</f>
+        <f t="shared" si="0"/>
         <v>953.29605379900011</v>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
         <v>2772</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(B45,D45,F45)</f>
+        <f t="shared" si="0"/>
         <v>954.16988113766672</v>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
         <v>2710</v>
       </c>
       <c r="H46">
-        <f>AVERAGE(B46,D46,F46)</f>
+        <f t="shared" si="0"/>
         <v>954.27770369333336</v>
       </c>
     </row>
@@ -14059,7 +14059,7 @@
         <v>3020</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(B47,D47,F47)</f>
+        <f t="shared" si="0"/>
         <v>954.590690182</v>
       </c>
     </row>
@@ -14086,7 +14086,7 @@
         <v>2192</v>
       </c>
       <c r="H48">
-        <f>AVERAGE(B48,D48,F48)</f>
+        <f t="shared" si="0"/>
         <v>959.00579790599988</v>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
         <v>2946</v>
       </c>
       <c r="H49">
-        <f>AVERAGE(B49,D49,F49)</f>
+        <f t="shared" si="0"/>
         <v>959.81099334400005</v>
       </c>
     </row>
@@ -14140,7 +14140,7 @@
         <v>3035</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(B50,D50,F50)</f>
+        <f t="shared" si="0"/>
         <v>961.10185217633341</v>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
         <v>2786</v>
       </c>
       <c r="H51">
-        <f>AVERAGE(B51,D51,F51)</f>
+        <f t="shared" si="0"/>
         <v>964.05285034666667</v>
       </c>
     </row>
@@ -14194,7 +14194,7 @@
         <v>2982</v>
       </c>
       <c r="H52">
-        <f>AVERAGE(B52,D52,F52)</f>
+        <f t="shared" si="0"/>
         <v>966.54830245433334</v>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
         <v>2508</v>
       </c>
       <c r="H53">
-        <f>AVERAGE(B53,D53,F53)</f>
+        <f t="shared" si="0"/>
         <v>971.25563291433343</v>
       </c>
     </row>
@@ -14248,7 +14248,7 @@
         <v>2779</v>
       </c>
       <c r="H54">
-        <f>AVERAGE(B54,D54,F54)</f>
+        <f t="shared" si="0"/>
         <v>973.21720673133348</v>
       </c>
     </row>
@@ -14275,7 +14275,7 @@
         <v>3041</v>
       </c>
       <c r="H55">
-        <f>AVERAGE(B55,D55,F55)</f>
+        <f t="shared" si="0"/>
         <v>974.37246174066661</v>
       </c>
     </row>
@@ -14302,7 +14302,7 @@
         <v>2973</v>
       </c>
       <c r="H56">
-        <f>AVERAGE(B56,D56,F56)</f>
+        <f t="shared" si="0"/>
         <v>975.64173232899998</v>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
         <v>2969</v>
       </c>
       <c r="H57">
-        <f>AVERAGE(B57,D57,F57)</f>
+        <f t="shared" si="0"/>
         <v>977.82298247066672</v>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
         <v>2700</v>
       </c>
       <c r="H58">
-        <f>AVERAGE(B58,D58,F58)</f>
+        <f t="shared" si="0"/>
         <v>980.49141982833328</v>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
         <v>2191</v>
       </c>
       <c r="H59">
-        <f>AVERAGE(B59,D59,F59)</f>
+        <f t="shared" si="0"/>
         <v>989.10338620250002</v>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
         <v>2960</v>
       </c>
       <c r="H60">
-        <f>AVERAGE(B60,D60,F60)</f>
+        <f t="shared" si="0"/>
         <v>992.06569229700006</v>
       </c>
     </row>
@@ -14437,7 +14437,7 @@
         <v>2949</v>
       </c>
       <c r="H61">
-        <f>AVERAGE(B61,D61,F61)</f>
+        <f t="shared" si="0"/>
         <v>992.25813002233326</v>
       </c>
     </row>
@@ -14464,7 +14464,7 @@
         <v>2461</v>
       </c>
       <c r="H62">
-        <f>AVERAGE(B62,D62,F62)</f>
+        <f t="shared" si="0"/>
         <v>995.71608339349996</v>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
         <v>3017</v>
       </c>
       <c r="H63">
-        <f>AVERAGE(B63,D63,F63)</f>
+        <f t="shared" si="0"/>
         <v>996.74949715300011</v>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
         <v>2961</v>
       </c>
       <c r="H64">
-        <f>AVERAGE(B64,D64,F64)</f>
+        <f t="shared" si="0"/>
         <v>997.35944658799997</v>
       </c>
     </row>
@@ -14545,7 +14545,7 @@
         <v>3040</v>
       </c>
       <c r="H65">
-        <f>AVERAGE(B65,D65,F65)</f>
+        <f t="shared" si="0"/>
         <v>1000.4275716136666</v>
       </c>
     </row>
@@ -14572,7 +14572,7 @@
         <v>3044</v>
       </c>
       <c r="H66">
-        <f>AVERAGE(B66,D66,F66)</f>
+        <f t="shared" si="0"/>
         <v>1001.7066541013334</v>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
         <v>2538</v>
       </c>
       <c r="H67">
-        <f>AVERAGE(B67,D67,F67)</f>
+        <f t="shared" ref="H67:H130" si="1">AVERAGE(B67,D67,F67)</f>
         <v>1004.1244765663332</v>
       </c>
     </row>
@@ -14626,7 +14626,7 @@
         <v>2442</v>
       </c>
       <c r="H68">
-        <f>AVERAGE(B68,D68,F68)</f>
+        <f t="shared" si="1"/>
         <v>1005.1200655869999</v>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
         <v>2986</v>
       </c>
       <c r="H69">
-        <f>AVERAGE(B69,D69,F69)</f>
+        <f t="shared" si="1"/>
         <v>1007.393917547</v>
       </c>
     </row>
@@ -14680,7 +14680,7 @@
         <v>2448</v>
       </c>
       <c r="H70">
-        <f>AVERAGE(B70,D70,F70)</f>
+        <f t="shared" si="1"/>
         <v>1007.6031765263334</v>
       </c>
     </row>
@@ -14707,7 +14707,7 @@
         <v>3007</v>
       </c>
       <c r="H71">
-        <f>AVERAGE(B71,D71,F71)</f>
+        <f t="shared" si="1"/>
         <v>1007.7801590839999</v>
       </c>
     </row>
@@ -14734,7 +14734,7 @@
         <v>3045</v>
       </c>
       <c r="H72">
-        <f>AVERAGE(B72,D72,F72)</f>
+        <f t="shared" si="1"/>
         <v>1008.7594057746668</v>
       </c>
     </row>
@@ -14761,7 +14761,7 @@
         <v>2242</v>
       </c>
       <c r="H73">
-        <f>AVERAGE(B73,D73,F73)</f>
+        <f t="shared" si="1"/>
         <v>1009.0504784945</v>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
         <v>2186</v>
       </c>
       <c r="H74">
-        <f>AVERAGE(B74,D74,F74)</f>
+        <f t="shared" si="1"/>
         <v>1010.284600702</v>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
         <v>2534</v>
       </c>
       <c r="H75">
-        <f>AVERAGE(B75,D75,F75)</f>
+        <f t="shared" si="1"/>
         <v>1010.7222709836666</v>
       </c>
     </row>
@@ -14842,7 +14842,7 @@
         <v>2714</v>
       </c>
       <c r="H76">
-        <f>AVERAGE(B76,D76,F76)</f>
+        <f t="shared" si="1"/>
         <v>1011.648082937</v>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
         <v>3021</v>
       </c>
       <c r="H77">
-        <f>AVERAGE(B77,D77,F77)</f>
+        <f t="shared" si="1"/>
         <v>1012.2085429960001</v>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
         <v>3052</v>
       </c>
       <c r="H78">
-        <f>AVERAGE(B78,D78,F78)</f>
+        <f t="shared" si="1"/>
         <v>1012.4125137873334</v>
       </c>
     </row>
@@ -14923,7 +14923,7 @@
         <v>2971</v>
       </c>
       <c r="H79">
-        <f>AVERAGE(B79,D79,F79)</f>
+        <f t="shared" si="1"/>
         <v>1012.7280855519999</v>
       </c>
     </row>
@@ -14950,7 +14950,7 @@
         <v>2762</v>
       </c>
       <c r="H80">
-        <f>AVERAGE(B80,D80,F80)</f>
+        <f t="shared" si="1"/>
         <v>1013.2590025173334</v>
       </c>
     </row>
@@ -14977,7 +14977,7 @@
         <v>2983</v>
       </c>
       <c r="H81">
-        <f>AVERAGE(B81,D81,F81)</f>
+        <f t="shared" si="1"/>
         <v>1013.9896475656666</v>
       </c>
     </row>
@@ -15004,7 +15004,7 @@
         <v>2984</v>
       </c>
       <c r="H82">
-        <f>AVERAGE(B82,D82,F82)</f>
+        <f t="shared" si="1"/>
         <v>1015.4468791053333</v>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
         <v>2712</v>
       </c>
       <c r="H83">
-        <f>AVERAGE(B83,D83,F83)</f>
+        <f t="shared" si="1"/>
         <v>1015.7397554253333</v>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
         <v>2284</v>
       </c>
       <c r="H84">
-        <f>AVERAGE(B84,D84,F84)</f>
+        <f t="shared" si="1"/>
         <v>1015.9413987573333</v>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
         <v>2948</v>
       </c>
       <c r="H85">
-        <f>AVERAGE(B85,D85,F85)</f>
+        <f t="shared" si="1"/>
         <v>1016.2972870500001</v>
       </c>
     </row>
@@ -15112,7 +15112,7 @@
         <v>2778</v>
       </c>
       <c r="H86">
-        <f>AVERAGE(B86,D86,F86)</f>
+        <f t="shared" si="1"/>
         <v>1017.596742096</v>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
         <v>2443</v>
       </c>
       <c r="H87">
-        <f>AVERAGE(B87,D87,F87)</f>
+        <f t="shared" si="1"/>
         <v>1017.8136426240002</v>
       </c>
     </row>
@@ -15166,7 +15166,7 @@
         <v>2704</v>
       </c>
       <c r="H88">
-        <f>AVERAGE(B88,D88,F88)</f>
+        <f t="shared" si="1"/>
         <v>1018.0975889476667</v>
       </c>
     </row>
@@ -15193,7 +15193,7 @@
         <v>2447</v>
       </c>
       <c r="H89">
-        <f>AVERAGE(B89,D89,F89)</f>
+        <f t="shared" si="1"/>
         <v>1018.7998650183334</v>
       </c>
     </row>
@@ -15220,7 +15220,7 @@
         <v>3006</v>
       </c>
       <c r="H90">
-        <f>AVERAGE(B90,D90,F90)</f>
+        <f t="shared" si="1"/>
         <v>1019.027173593</v>
       </c>
     </row>
@@ -15247,7 +15247,7 @@
         <v>3009</v>
       </c>
       <c r="H91">
-        <f>AVERAGE(B91,D91,F91)</f>
+        <f t="shared" si="1"/>
         <v>1020.366550438</v>
       </c>
     </row>
@@ -15274,7 +15274,7 @@
         <v>2498</v>
       </c>
       <c r="H92">
-        <f>AVERAGE(B92,D92,F92)</f>
+        <f t="shared" si="1"/>
         <v>1022.2326628226666</v>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
         <v>3024</v>
       </c>
       <c r="H93">
-        <f>AVERAGE(B93,D93,F93)</f>
+        <f t="shared" si="1"/>
         <v>1022.2849983453334</v>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
         <v>3032</v>
       </c>
       <c r="H94">
-        <f>AVERAGE(B94,D94,F94)</f>
+        <f t="shared" si="1"/>
         <v>1026.3732695563333</v>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
         <v>2754</v>
       </c>
       <c r="H95">
-        <f>AVERAGE(B95,D95,F95)</f>
+        <f t="shared" si="1"/>
         <v>1026.4138995113333</v>
       </c>
     </row>
@@ -15382,7 +15382,7 @@
         <v>2698</v>
       </c>
       <c r="H96">
-        <f>AVERAGE(B96,D96,F96)</f>
+        <f t="shared" si="1"/>
         <v>1026.4802385863334</v>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
         <v>2763</v>
       </c>
       <c r="H97">
-        <f>AVERAGE(B97,D97,F97)</f>
+        <f t="shared" si="1"/>
         <v>1030.7827824770002</v>
       </c>
     </row>
@@ -15436,7 +15436,7 @@
         <v>2985</v>
       </c>
       <c r="H98">
-        <f>AVERAGE(B98,D98,F98)</f>
+        <f t="shared" si="1"/>
         <v>1031.5060558810001</v>
       </c>
     </row>
@@ -15463,7 +15463,7 @@
         <v>2995</v>
       </c>
       <c r="H99">
-        <f>AVERAGE(B99,D99,F99)</f>
+        <f t="shared" si="1"/>
         <v>1032.8751031429999</v>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
         <v>2211</v>
       </c>
       <c r="H100">
-        <f>AVERAGE(B100,D100,F100)</f>
+        <f t="shared" si="1"/>
         <v>1033.5384577866669</v>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
         <v>3031</v>
       </c>
       <c r="H101">
-        <f>AVERAGE(B101,D101,F101)</f>
+        <f t="shared" si="1"/>
         <v>1034.0657720383333</v>
       </c>
     </row>
@@ -15544,7 +15544,7 @@
         <v>2256</v>
       </c>
       <c r="H102">
-        <f>AVERAGE(B102,D102,F102)</f>
+        <f t="shared" si="1"/>
         <v>1035.7727244875</v>
       </c>
     </row>
@@ -15571,7 +15571,7 @@
         <v>2509</v>
       </c>
       <c r="H103">
-        <f>AVERAGE(B103,D103,F103)</f>
+        <f t="shared" si="1"/>
         <v>1037.3838187199999</v>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
         <v>2690</v>
       </c>
       <c r="H104">
-        <f>AVERAGE(B104,D104,F104)</f>
+        <f t="shared" si="1"/>
         <v>1038.2588212656667</v>
       </c>
     </row>
@@ -15625,7 +15625,7 @@
         <v>2506</v>
       </c>
       <c r="H105">
-        <f>AVERAGE(B105,D105,F105)</f>
+        <f t="shared" si="1"/>
         <v>1038.27481414</v>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
         <v>2187</v>
       </c>
       <c r="H106">
-        <f>AVERAGE(B106,D106,F106)</f>
+        <f t="shared" si="1"/>
         <v>1038.59020695</v>
       </c>
     </row>
@@ -15679,7 +15679,7 @@
         <v>2537</v>
       </c>
       <c r="H107">
-        <f>AVERAGE(B107,D107,F107)</f>
+        <f t="shared" si="1"/>
         <v>1039.7387128546668</v>
       </c>
     </row>
@@ -15706,7 +15706,7 @@
         <v>3025</v>
       </c>
       <c r="H108">
-        <f>AVERAGE(B108,D108,F108)</f>
+        <f t="shared" si="1"/>
         <v>1040.0640015353333</v>
       </c>
     </row>
@@ -15733,7 +15733,7 @@
         <v>2796</v>
       </c>
       <c r="H109">
-        <f>AVERAGE(B109,D109,F109)</f>
+        <f t="shared" si="1"/>
         <v>1040.7387543253333</v>
       </c>
     </row>
@@ -15760,7 +15760,7 @@
         <v>2770</v>
       </c>
       <c r="H110">
-        <f>AVERAGE(B110,D110,F110)</f>
+        <f t="shared" si="1"/>
         <v>1041.7602275653333</v>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
         <v>2791</v>
       </c>
       <c r="H111">
-        <f>AVERAGE(B111,D111,F111)</f>
+        <f t="shared" si="1"/>
         <v>1043.2025413246668</v>
       </c>
     </row>
@@ -15814,7 +15814,7 @@
         <v>2253</v>
       </c>
       <c r="H112">
-        <f>AVERAGE(B112,D112,F112)</f>
+        <f t="shared" si="1"/>
         <v>1045.0079237126665</v>
       </c>
     </row>
@@ -15841,7 +15841,7 @@
         <v>2708</v>
       </c>
       <c r="H113">
-        <f>AVERAGE(B113,D113,F113)</f>
+        <f t="shared" si="1"/>
         <v>1045.5133940296666</v>
       </c>
     </row>
@@ -15868,7 +15868,7 @@
         <v>2535</v>
       </c>
       <c r="H114">
-        <f>AVERAGE(B114,D114,F114)</f>
+        <f t="shared" si="1"/>
         <v>1047.2637013696667</v>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
         <v>2944</v>
       </c>
       <c r="H115">
-        <f>AVERAGE(B115,D115,F115)</f>
+        <f t="shared" si="1"/>
         <v>1047.6185519423332</v>
       </c>
     </row>
@@ -15922,7 +15922,7 @@
         <v>2996</v>
       </c>
       <c r="H116">
-        <f>AVERAGE(B116,D116,F116)</f>
+        <f t="shared" si="1"/>
         <v>1047.7842954403334</v>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
         <v>2207</v>
       </c>
       <c r="H117">
-        <f>AVERAGE(B117,D117,F117)</f>
+        <f t="shared" si="1"/>
         <v>1048.3236534195</v>
       </c>
     </row>
@@ -15976,7 +15976,7 @@
         <v>2760</v>
       </c>
       <c r="H118">
-        <f>AVERAGE(B118,D118,F118)</f>
+        <f t="shared" si="1"/>
         <v>1048.7276265116666</v>
       </c>
     </row>
@@ -16003,7 +16003,7 @@
         <v>2216</v>
       </c>
       <c r="H119">
-        <f>AVERAGE(B119,D119,F119)</f>
+        <f t="shared" si="1"/>
         <v>1049.6671968293333</v>
       </c>
     </row>
@@ -16030,7 +16030,7 @@
         <v>2286</v>
       </c>
       <c r="H120">
-        <f>AVERAGE(B120,D120,F120)</f>
+        <f t="shared" si="1"/>
         <v>1050.814098863</v>
       </c>
     </row>
@@ -16057,7 +16057,7 @@
         <v>2474</v>
       </c>
       <c r="H121">
-        <f>AVERAGE(B121,D121,F121)</f>
+        <f t="shared" si="1"/>
         <v>1052.2537497186665</v>
       </c>
     </row>
@@ -16084,7 +16084,7 @@
         <v>2244</v>
       </c>
       <c r="H122">
-        <f>AVERAGE(B122,D122,F122)</f>
+        <f t="shared" si="1"/>
         <v>1052.9292171276666</v>
       </c>
     </row>
@@ -16111,7 +16111,7 @@
         <v>2965</v>
       </c>
       <c r="H123">
-        <f>AVERAGE(B123,D123,F123)</f>
+        <f t="shared" si="1"/>
         <v>1053.086878886</v>
       </c>
     </row>
@@ -16138,7 +16138,7 @@
         <v>2512</v>
       </c>
       <c r="H124">
-        <f>AVERAGE(B124,D124,F124)</f>
+        <f t="shared" si="1"/>
         <v>1056.6382933443333</v>
       </c>
     </row>
@@ -16165,7 +16165,7 @@
         <v>2738</v>
       </c>
       <c r="H125">
-        <f>AVERAGE(B125,D125,F125)</f>
+        <f t="shared" si="1"/>
         <v>1056.7107023803333</v>
       </c>
     </row>
@@ -16192,7 +16192,7 @@
         <v>2715</v>
       </c>
       <c r="H126">
-        <f>AVERAGE(B126,D126,F126)</f>
+        <f t="shared" si="1"/>
         <v>1056.8781954986669</v>
       </c>
     </row>
@@ -16219,7 +16219,7 @@
         <v>3047</v>
       </c>
       <c r="H127">
-        <f>AVERAGE(B127,D127,F127)</f>
+        <f t="shared" si="1"/>
         <v>1056.9082315200001</v>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
         <v>2457</v>
       </c>
       <c r="H128">
-        <f>AVERAGE(B128,D128,F128)</f>
+        <f t="shared" si="1"/>
         <v>1060.5448639163333</v>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
         <v>3030</v>
       </c>
       <c r="H129">
-        <f>AVERAGE(B129,D129,F129)</f>
+        <f t="shared" si="1"/>
         <v>1061.2259440599998</v>
       </c>
     </row>
@@ -16300,7 +16300,7 @@
         <v>3071</v>
       </c>
       <c r="H130">
-        <f>AVERAGE(B130,D130,F130)</f>
+        <f t="shared" si="1"/>
         <v>1063.3524733203333</v>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
         <v>2966</v>
       </c>
       <c r="H131">
-        <f>AVERAGE(B131,D131,F131)</f>
+        <f t="shared" ref="H131:H194" si="2">AVERAGE(B131,D131,F131)</f>
         <v>1063.4861536133333</v>
       </c>
     </row>
@@ -16354,7 +16354,7 @@
         <v>3028</v>
       </c>
       <c r="H132">
-        <f>AVERAGE(B132,D132,F132)</f>
+        <f t="shared" si="2"/>
         <v>1063.4913707566666</v>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
         <v>2705</v>
       </c>
       <c r="H133">
-        <f>AVERAGE(B133,D133,F133)</f>
+        <f t="shared" si="2"/>
         <v>1063.9830708816664</v>
       </c>
     </row>
@@ -16408,7 +16408,7 @@
         <v>3018</v>
       </c>
       <c r="H134">
-        <f>AVERAGE(B134,D134,F134)</f>
+        <f t="shared" si="2"/>
         <v>1065.5999678339999</v>
       </c>
     </row>
@@ -16435,7 +16435,7 @@
         <v>3048</v>
       </c>
       <c r="H135">
-        <f>AVERAGE(B135,D135,F135)</f>
+        <f t="shared" si="2"/>
         <v>1067.2623745196665</v>
       </c>
     </row>
@@ -16462,7 +16462,7 @@
         <v>2747</v>
       </c>
       <c r="H136">
-        <f>AVERAGE(B136,D136,F136)</f>
+        <f t="shared" si="2"/>
         <v>1067.7054351233335</v>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
         <v>2727</v>
       </c>
       <c r="H137">
-        <f>AVERAGE(B137,D137,F137)</f>
+        <f t="shared" si="2"/>
         <v>1068.4932633430001</v>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
         <v>3042</v>
       </c>
       <c r="H138">
-        <f>AVERAGE(B138,D138,F138)</f>
+        <f t="shared" si="2"/>
         <v>1069.3563831150002</v>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
         <v>2283</v>
       </c>
       <c r="H139">
-        <f>AVERAGE(B139,D139,F139)</f>
+        <f t="shared" si="2"/>
         <v>1069.4297379366667</v>
       </c>
     </row>
@@ -16570,7 +16570,7 @@
         <v>2699</v>
       </c>
       <c r="H140">
-        <f>AVERAGE(B140,D140,F140)</f>
+        <f t="shared" si="2"/>
         <v>1069.7132384033332</v>
       </c>
     </row>
@@ -16597,7 +16597,7 @@
         <v>2697</v>
       </c>
       <c r="H141">
-        <f>AVERAGE(B141,D141,F141)</f>
+        <f t="shared" si="2"/>
         <v>1070.1030929340002</v>
       </c>
     </row>
@@ -16624,7 +16624,7 @@
         <v>2520</v>
       </c>
       <c r="H142">
-        <f>AVERAGE(B142,D142,F142)</f>
+        <f t="shared" si="2"/>
         <v>1070.8630754209998</v>
       </c>
     </row>
@@ -16651,7 +16651,7 @@
         <v>2755</v>
       </c>
       <c r="H143">
-        <f>AVERAGE(B143,D143,F143)</f>
+        <f t="shared" si="2"/>
         <v>1071.5140055203335</v>
       </c>
     </row>
@@ -16678,7 +16678,7 @@
         <v>3050</v>
       </c>
       <c r="H144">
-        <f>AVERAGE(B144,D144,F144)</f>
+        <f t="shared" si="2"/>
         <v>1071.5320611033333</v>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
         <v>2480</v>
       </c>
       <c r="H145">
-        <f>AVERAGE(B145,D145,F145)</f>
+        <f t="shared" si="2"/>
         <v>1072.9783917866664</v>
       </c>
     </row>
@@ -16732,7 +16732,7 @@
         <v>2709</v>
       </c>
       <c r="H146">
-        <f>AVERAGE(B146,D146,F146)</f>
+        <f t="shared" si="2"/>
         <v>1073.4278944346668</v>
       </c>
     </row>
@@ -16759,7 +16759,7 @@
         <v>3046</v>
       </c>
       <c r="H147">
-        <f>AVERAGE(B147,D147,F147)</f>
+        <f t="shared" si="2"/>
         <v>1074.0879750906668</v>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
         <v>3029</v>
       </c>
       <c r="H148">
-        <f>AVERAGE(B148,D148,F148)</f>
+        <f t="shared" si="2"/>
         <v>1074.1903064400001</v>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
         <v>2956</v>
       </c>
       <c r="H149">
-        <f>AVERAGE(B149,D149,F149)</f>
+        <f t="shared" si="2"/>
         <v>1074.2519742510001</v>
       </c>
     </row>
@@ -16840,7 +16840,7 @@
         <v>2277</v>
       </c>
       <c r="H150">
-        <f>AVERAGE(B150,D150,F150)</f>
+        <f t="shared" si="2"/>
         <v>1075.5461299139999</v>
       </c>
     </row>
@@ -16867,7 +16867,7 @@
         <v>3005</v>
       </c>
       <c r="H151">
-        <f>AVERAGE(B151,D151,F151)</f>
+        <f t="shared" si="2"/>
         <v>1075.5852729443334</v>
       </c>
     </row>
@@ -16894,7 +16894,7 @@
         <v>2785</v>
       </c>
       <c r="H152">
-        <f>AVERAGE(B152,D152,F152)</f>
+        <f t="shared" si="2"/>
         <v>1076.8304810166667</v>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
         <v>2240</v>
       </c>
       <c r="H153">
-        <f>AVERAGE(B153,D153,F153)</f>
+        <f t="shared" si="2"/>
         <v>1077.6599295099998</v>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
         <v>2706</v>
       </c>
       <c r="H154">
-        <f>AVERAGE(B154,D154,F154)</f>
+        <f t="shared" si="2"/>
         <v>1082.701795378</v>
       </c>
     </row>
@@ -16975,7 +16975,7 @@
         <v>2271</v>
       </c>
       <c r="H155">
-        <f>AVERAGE(B155,D155,F155)</f>
+        <f t="shared" si="2"/>
         <v>1083.2292804589999</v>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
         <v>2734</v>
       </c>
       <c r="H156">
-        <f>AVERAGE(B156,D156,F156)</f>
+        <f t="shared" si="2"/>
         <v>1083.4507296996665</v>
       </c>
     </row>
@@ -17029,7 +17029,7 @@
         <v>2558</v>
       </c>
       <c r="H157">
-        <f>AVERAGE(B157,D157,F157)</f>
+        <f t="shared" si="2"/>
         <v>1084.6926451256668</v>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
         <v>2972</v>
       </c>
       <c r="H158">
-        <f>AVERAGE(B158,D158,F158)</f>
+        <f t="shared" si="2"/>
         <v>1086.1458979095</v>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
         <v>3012</v>
       </c>
       <c r="H159">
-        <f>AVERAGE(B159,D159,F159)</f>
+        <f t="shared" si="2"/>
         <v>1086.1949046999998</v>
       </c>
     </row>
@@ -17110,7 +17110,7 @@
         <v>2739</v>
       </c>
       <c r="H160">
-        <f>AVERAGE(B160,D160,F160)</f>
+        <f t="shared" si="2"/>
         <v>1086.8999982900002</v>
       </c>
     </row>
@@ -17137,7 +17137,7 @@
         <v>2735</v>
       </c>
       <c r="H161">
-        <f>AVERAGE(B161,D161,F161)</f>
+        <f t="shared" si="2"/>
         <v>1087.2215731946667</v>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
         <v>2488</v>
       </c>
       <c r="H162">
-        <f>AVERAGE(B162,D162,F162)</f>
+        <f t="shared" si="2"/>
         <v>1087.726116611</v>
       </c>
     </row>
@@ -17191,7 +17191,7 @@
         <v>2464</v>
       </c>
       <c r="H163">
-        <f>AVERAGE(B163,D163,F163)</f>
+        <f t="shared" si="2"/>
         <v>1089.4509117550001</v>
       </c>
     </row>
@@ -17218,7 +17218,7 @@
         <v>3036</v>
       </c>
       <c r="H164">
-        <f>AVERAGE(B164,D164,F164)</f>
+        <f t="shared" si="2"/>
         <v>1089.6662346423334</v>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
         <v>2701</v>
       </c>
       <c r="H165">
-        <f>AVERAGE(B165,D165,F165)</f>
+        <f t="shared" si="2"/>
         <v>1091.2137734149999</v>
       </c>
     </row>
@@ -17272,7 +17272,7 @@
         <v>2767</v>
       </c>
       <c r="H166">
-        <f>AVERAGE(B166,D166,F166)</f>
+        <f t="shared" si="2"/>
         <v>1091.8170055746666</v>
       </c>
     </row>
@@ -17299,7 +17299,7 @@
         <v>2510</v>
       </c>
       <c r="H167">
-        <f>AVERAGE(B167,D167,F167)</f>
+        <f t="shared" si="2"/>
         <v>1091.935392851</v>
       </c>
     </row>
@@ -17326,7 +17326,7 @@
         <v>2978</v>
       </c>
       <c r="H168">
-        <f>AVERAGE(B168,D168,F168)</f>
+        <f t="shared" si="2"/>
         <v>1092.9768049689999</v>
       </c>
     </row>
@@ -17353,7 +17353,7 @@
         <v>2245</v>
       </c>
       <c r="H169">
-        <f>AVERAGE(B169,D169,F169)</f>
+        <f t="shared" si="2"/>
         <v>1092.9930885030001</v>
       </c>
     </row>
@@ -17380,7 +17380,7 @@
         <v>3023</v>
       </c>
       <c r="H170">
-        <f>AVERAGE(B170,D170,F170)</f>
+        <f t="shared" si="2"/>
         <v>1094.165264346</v>
       </c>
     </row>
@@ -17407,7 +17407,7 @@
         <v>3001</v>
       </c>
       <c r="H171">
-        <f>AVERAGE(B171,D171,F171)</f>
+        <f t="shared" si="2"/>
         <v>1094.6913895949999</v>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
         <v>2546</v>
       </c>
       <c r="H172">
-        <f>AVERAGE(B172,D172,F172)</f>
+        <f t="shared" si="2"/>
         <v>1094.8645918536665</v>
       </c>
     </row>
@@ -17461,7 +17461,7 @@
         <v>2947</v>
       </c>
       <c r="H173">
-        <f>AVERAGE(B173,D173,F173)</f>
+        <f t="shared" si="2"/>
         <v>1094.9692837236666</v>
       </c>
     </row>
@@ -17488,7 +17488,7 @@
         <v>2243</v>
       </c>
       <c r="H174">
-        <f>AVERAGE(B174,D174,F174)</f>
+        <f t="shared" si="2"/>
         <v>1095.9085238743332</v>
       </c>
     </row>
@@ -17515,7 +17515,7 @@
         <v>2435</v>
       </c>
       <c r="H175">
-        <f>AVERAGE(B175,D175,F175)</f>
+        <f t="shared" si="2"/>
         <v>1096.3983414214999</v>
       </c>
     </row>
@@ -17542,7 +17542,7 @@
         <v>2251</v>
       </c>
       <c r="H176">
-        <f>AVERAGE(B176,D176,F176)</f>
+        <f t="shared" si="2"/>
         <v>1096.8020073746666</v>
       </c>
     </row>
@@ -17569,7 +17569,7 @@
         <v>3010</v>
       </c>
       <c r="H177">
-        <f>AVERAGE(B177,D177,F177)</f>
+        <f t="shared" si="2"/>
         <v>1099.4821620696666</v>
       </c>
     </row>
@@ -17596,7 +17596,7 @@
         <v>2194</v>
       </c>
       <c r="H178">
-        <f>AVERAGE(B178,D178,F178)</f>
+        <f t="shared" si="2"/>
         <v>1101.7972488833332</v>
       </c>
     </row>
@@ -17623,7 +17623,7 @@
         <v>2473</v>
       </c>
       <c r="H179">
-        <f>AVERAGE(B179,D179,F179)</f>
+        <f t="shared" si="2"/>
         <v>1103.69769937</v>
       </c>
     </row>
@@ -17650,7 +17650,7 @@
         <v>2721</v>
       </c>
       <c r="H180">
-        <f>AVERAGE(B180,D180,F180)</f>
+        <f t="shared" si="2"/>
         <v>1104.6047802533333</v>
       </c>
     </row>
@@ -17677,7 +17677,7 @@
         <v>2304</v>
       </c>
       <c r="H181">
-        <f>AVERAGE(B181,D181,F181)</f>
+        <f t="shared" si="2"/>
         <v>1104.9205957283332</v>
       </c>
     </row>
@@ -17704,7 +17704,7 @@
         <v>3004</v>
       </c>
       <c r="H182">
-        <f>AVERAGE(B182,D182,F182)</f>
+        <f t="shared" si="2"/>
         <v>1105.6204110633332</v>
       </c>
     </row>
@@ -17731,7 +17731,7 @@
         <v>3027</v>
       </c>
       <c r="H183">
-        <f>AVERAGE(B183,D183,F183)</f>
+        <f t="shared" si="2"/>
         <v>1105.9671330493331</v>
       </c>
     </row>
@@ -17758,7 +17758,7 @@
         <v>2977</v>
       </c>
       <c r="H184">
-        <f>AVERAGE(B184,D184,F184)</f>
+        <f t="shared" si="2"/>
         <v>1106.5852057916666</v>
       </c>
     </row>
@@ -17785,7 +17785,7 @@
         <v>2781</v>
       </c>
       <c r="H185">
-        <f>AVERAGE(B185,D185,F185)</f>
+        <f t="shared" si="2"/>
         <v>1107.481996794</v>
       </c>
     </row>
@@ -17812,7 +17812,7 @@
         <v>2945</v>
       </c>
       <c r="H186">
-        <f>AVERAGE(B186,D186,F186)</f>
+        <f t="shared" si="2"/>
         <v>1107.7102718495</v>
       </c>
     </row>
@@ -17839,7 +17839,7 @@
         <v>3057</v>
       </c>
       <c r="H187">
-        <f>AVERAGE(B187,D187,F187)</f>
+        <f t="shared" si="2"/>
         <v>1108.4113036036667</v>
       </c>
     </row>
@@ -17866,7 +17866,7 @@
         <v>3034</v>
       </c>
       <c r="H188">
-        <f>AVERAGE(B188,D188,F188)</f>
+        <f t="shared" si="2"/>
         <v>1108.5316649690001</v>
       </c>
       <c r="I188" t="s">
@@ -17896,7 +17896,7 @@
         <v>3002</v>
       </c>
       <c r="H189">
-        <f>AVERAGE(B189,D189,F189)</f>
+        <f t="shared" si="2"/>
         <v>1108.7715719706669</v>
       </c>
     </row>
@@ -17923,7 +17923,7 @@
         <v>2440</v>
       </c>
       <c r="H190">
-        <f>AVERAGE(B190,D190,F190)</f>
+        <f t="shared" si="2"/>
         <v>1109.0839538959999</v>
       </c>
     </row>
@@ -17950,7 +17950,7 @@
         <v>2991</v>
       </c>
       <c r="H191">
-        <f>AVERAGE(B191,D191,F191)</f>
+        <f t="shared" si="2"/>
         <v>1109.2575836516664</v>
       </c>
     </row>
@@ -17977,7 +17977,7 @@
         <v>2484</v>
       </c>
       <c r="H192">
-        <f>AVERAGE(B192,D192,F192)</f>
+        <f t="shared" si="2"/>
         <v>1110.3479065000001</v>
       </c>
     </row>
@@ -18004,7 +18004,7 @@
         <v>2193</v>
       </c>
       <c r="H193">
-        <f>AVERAGE(B193,D193,F193)</f>
+        <f t="shared" si="2"/>
         <v>1112.751245295</v>
       </c>
     </row>
@@ -18031,7 +18031,7 @@
         <v>2552</v>
       </c>
       <c r="H194">
-        <f>AVERAGE(B194,D194,F194)</f>
+        <f t="shared" si="2"/>
         <v>1113.0754425733332</v>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
         <v>2954</v>
       </c>
       <c r="H195">
-        <f>AVERAGE(B195,D195,F195)</f>
+        <f t="shared" ref="H195:H258" si="3">AVERAGE(B195,D195,F195)</f>
         <v>1115.66841821</v>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
         <v>3063</v>
       </c>
       <c r="H196">
-        <f>AVERAGE(B196,D196,F196)</f>
+        <f t="shared" si="3"/>
         <v>1117.1810687999998</v>
       </c>
     </row>
@@ -18112,7 +18112,7 @@
         <v>2951</v>
       </c>
       <c r="H197">
-        <f>AVERAGE(B197,D197,F197)</f>
+        <f t="shared" si="3"/>
         <v>1117.2404788753333</v>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
         <v>2482</v>
       </c>
       <c r="H198">
-        <f>AVERAGE(B198,D198,F198)</f>
+        <f t="shared" si="3"/>
         <v>1117.8807015203333</v>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
         <v>3039</v>
       </c>
       <c r="H199">
-        <f>AVERAGE(B199,D199,F199)</f>
+        <f t="shared" si="3"/>
         <v>1118.3870840449999</v>
       </c>
     </row>
@@ -18193,7 +18193,7 @@
         <v>2780</v>
       </c>
       <c r="H200">
-        <f>AVERAGE(B200,D200,F200)</f>
+        <f t="shared" si="3"/>
         <v>1118.8629238609999</v>
       </c>
     </row>
@@ -18220,7 +18220,7 @@
         <v>2503</v>
       </c>
       <c r="H201">
-        <f>AVERAGE(B201,D201,F201)</f>
+        <f t="shared" si="3"/>
         <v>1119.3737479829999</v>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
         <v>2979</v>
       </c>
       <c r="H202">
-        <f>AVERAGE(B202,D202,F202)</f>
+        <f t="shared" si="3"/>
         <v>1120.1902662153334</v>
       </c>
     </row>
@@ -18274,7 +18274,7 @@
         <v>2269</v>
       </c>
       <c r="H203">
-        <f>AVERAGE(B203,D203,F203)</f>
+        <f t="shared" si="3"/>
         <v>1121.9469536826666</v>
       </c>
     </row>
@@ -18301,7 +18301,7 @@
         <v>2789</v>
       </c>
       <c r="H204">
-        <f>AVERAGE(B204,D204,F204)</f>
+        <f t="shared" si="3"/>
         <v>1122.1058844033334</v>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
         <v>2507</v>
       </c>
       <c r="H205">
-        <f>AVERAGE(B205,D205,F205)</f>
+        <f t="shared" si="3"/>
         <v>1122.2539477766666</v>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
         <v>3059</v>
       </c>
       <c r="H206">
-        <f>AVERAGE(B206,D206,F206)</f>
+        <f t="shared" si="3"/>
         <v>1122.7540857566667</v>
       </c>
     </row>
@@ -18382,7 +18382,7 @@
         <v>3003</v>
       </c>
       <c r="H207">
-        <f>AVERAGE(B207,D207,F207)</f>
+        <f t="shared" si="3"/>
         <v>1124.2236309566667</v>
       </c>
     </row>
@@ -18409,7 +18409,7 @@
         <v>2691</v>
       </c>
       <c r="H208">
-        <f>AVERAGE(B208,D208,F208)</f>
+        <f t="shared" si="3"/>
         <v>1124.555249835</v>
       </c>
     </row>
@@ -18436,7 +18436,7 @@
         <v>2994</v>
       </c>
       <c r="H209">
-        <f>AVERAGE(B209,D209,F209)</f>
+        <f t="shared" si="3"/>
         <v>1124.5935221333332</v>
       </c>
     </row>
@@ -18463,7 +18463,7 @@
         <v>3026</v>
       </c>
       <c r="H210">
-        <f>AVERAGE(B210,D210,F210)</f>
+        <f t="shared" si="3"/>
         <v>1124.9668656633332</v>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
         <v>2458</v>
       </c>
       <c r="H211">
-        <f>AVERAGE(B211,D211,F211)</f>
+        <f t="shared" si="3"/>
         <v>1125.1230650299999</v>
       </c>
     </row>
@@ -18517,7 +18517,7 @@
         <v>2776</v>
       </c>
       <c r="H212">
-        <f>AVERAGE(B212,D212,F212)</f>
+        <f t="shared" si="3"/>
         <v>1125.6082357633334</v>
       </c>
     </row>
@@ -18544,7 +18544,7 @@
         <v>3054</v>
       </c>
       <c r="H213">
-        <f>AVERAGE(B213,D213,F213)</f>
+        <f t="shared" si="3"/>
         <v>1126.5384761766668</v>
       </c>
     </row>
@@ -18571,7 +18571,7 @@
         <v>2992</v>
       </c>
       <c r="H214">
-        <f>AVERAGE(B214,D214,F214)</f>
+        <f t="shared" si="3"/>
         <v>1128.97653797</v>
       </c>
     </row>
@@ -18598,7 +18598,7 @@
         <v>2980</v>
       </c>
       <c r="H215">
-        <f>AVERAGE(B215,D215,F215)</f>
+        <f t="shared" si="3"/>
         <v>1129.3203466866667</v>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
         <v>2989</v>
       </c>
       <c r="H216">
-        <f>AVERAGE(B216,D216,F216)</f>
+        <f t="shared" si="3"/>
         <v>1129.7123437910002</v>
       </c>
     </row>
@@ -18652,7 +18652,7 @@
         <v>2203</v>
       </c>
       <c r="H217">
-        <f>AVERAGE(B217,D217,F217)</f>
+        <f t="shared" si="3"/>
         <v>1131.4245265453333</v>
       </c>
     </row>
@@ -18679,7 +18679,7 @@
         <v>2797</v>
       </c>
       <c r="H218">
-        <f>AVERAGE(B218,D218,F218)</f>
+        <f t="shared" si="3"/>
         <v>1132.6249156333333</v>
       </c>
     </row>
@@ -18706,7 +18706,7 @@
         <v>2544</v>
       </c>
       <c r="H219">
-        <f>AVERAGE(B219,D219,F219)</f>
+        <f t="shared" si="3"/>
         <v>1136.1005729356668</v>
       </c>
     </row>
@@ -18733,7 +18733,7 @@
         <v>2505</v>
       </c>
       <c r="H220">
-        <f>AVERAGE(B220,D220,F220)</f>
+        <f t="shared" si="3"/>
         <v>1137.6222531873334</v>
       </c>
     </row>
@@ -18760,7 +18760,7 @@
         <v>2753</v>
       </c>
       <c r="H221">
-        <f>AVERAGE(B221,D221,F221)</f>
+        <f t="shared" si="3"/>
         <v>1138.2048798076667</v>
       </c>
     </row>
@@ -18787,7 +18787,7 @@
         <v>2492</v>
       </c>
       <c r="H222">
-        <f>AVERAGE(B222,D222,F222)</f>
+        <f t="shared" si="3"/>
         <v>1138.8083693566666</v>
       </c>
     </row>
@@ -18814,7 +18814,7 @@
         <v>2436</v>
       </c>
       <c r="H223">
-        <f>AVERAGE(B223,D223,F223)</f>
+        <f t="shared" si="3"/>
         <v>1138.90005028</v>
       </c>
     </row>
@@ -18841,7 +18841,7 @@
         <v>2278</v>
       </c>
       <c r="H224">
-        <f>AVERAGE(B224,D224,F224)</f>
+        <f t="shared" si="3"/>
         <v>1139.3216864466667</v>
       </c>
     </row>
@@ -18868,7 +18868,7 @@
         <v>2801</v>
       </c>
       <c r="H225">
-        <f>AVERAGE(B225,D225,F225)</f>
+        <f t="shared" si="3"/>
         <v>1140.85977009</v>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
         <v>2450</v>
       </c>
       <c r="H226">
-        <f>AVERAGE(B226,D226,F226)</f>
+        <f t="shared" si="3"/>
         <v>1141.2210837129999</v>
       </c>
     </row>
@@ -18922,7 +18922,7 @@
         <v>2486</v>
       </c>
       <c r="H227">
-        <f>AVERAGE(B227,D227,F227)</f>
+        <f t="shared" si="3"/>
         <v>1141.9455202466668</v>
       </c>
     </row>
@@ -18949,7 +18949,7 @@
         <v>2726</v>
       </c>
       <c r="H228">
-        <f>AVERAGE(B228,D228,F228)</f>
+        <f t="shared" si="3"/>
         <v>1142.5246013476665</v>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
         <v>2198</v>
       </c>
       <c r="H229">
-        <f>AVERAGE(B229,D229,F229)</f>
+        <f t="shared" si="3"/>
         <v>1145.3462326399999</v>
       </c>
     </row>
@@ -19003,7 +19003,7 @@
         <v>3022</v>
       </c>
       <c r="H230">
-        <f>AVERAGE(B230,D230,F230)</f>
+        <f t="shared" si="3"/>
         <v>1146.5062651166668</v>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
         <v>2993</v>
       </c>
       <c r="H231">
-        <f>AVERAGE(B231,D231,F231)</f>
+        <f t="shared" si="3"/>
         <v>1146.8257550870001</v>
       </c>
     </row>
@@ -19057,7 +19057,7 @@
         <v>3056</v>
       </c>
       <c r="H232">
-        <f>AVERAGE(B232,D232,F232)</f>
+        <f t="shared" si="3"/>
         <v>1147.0756886366664</v>
       </c>
     </row>
@@ -19084,7 +19084,7 @@
         <v>2764</v>
       </c>
       <c r="H233">
-        <f>AVERAGE(B233,D233,F233)</f>
+        <f t="shared" si="3"/>
         <v>1147.9158803026667</v>
       </c>
     </row>
@@ -19111,7 +19111,7 @@
         <v>2273</v>
       </c>
       <c r="H234">
-        <f>AVERAGE(B234,D234,F234)</f>
+        <f t="shared" si="3"/>
         <v>1148.08824994</v>
       </c>
     </row>
@@ -19138,7 +19138,7 @@
         <v>2206</v>
       </c>
       <c r="H235">
-        <f>AVERAGE(B235,D235,F235)</f>
+        <f t="shared" si="3"/>
         <v>1149.7264461550001</v>
       </c>
     </row>
@@ -19165,7 +19165,7 @@
         <v>2462</v>
       </c>
       <c r="H236">
-        <f>AVERAGE(B236,D236,F236)</f>
+        <f t="shared" si="3"/>
         <v>1150.5903723793333</v>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
         <v>3068</v>
       </c>
       <c r="H237">
-        <f>AVERAGE(B237,D237,F237)</f>
+        <f t="shared" si="3"/>
         <v>1151.6258793803333</v>
       </c>
     </row>
@@ -19219,7 +19219,7 @@
         <v>2804</v>
       </c>
       <c r="H238">
-        <f>AVERAGE(B238,D238,F238)</f>
+        <f t="shared" si="3"/>
         <v>1152.6558548119999</v>
       </c>
     </row>
@@ -19246,7 +19246,7 @@
         <v>2255</v>
       </c>
       <c r="H239">
-        <f>AVERAGE(B239,D239,F239)</f>
+        <f t="shared" si="3"/>
         <v>1152.810339572</v>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
         <v>2233</v>
       </c>
       <c r="H240">
-        <f>AVERAGE(B240,D240,F240)</f>
+        <f t="shared" si="3"/>
         <v>1153.6737045733335</v>
       </c>
     </row>
@@ -19300,7 +19300,7 @@
         <v>2774</v>
       </c>
       <c r="H241">
-        <f>AVERAGE(B241,D241,F241)</f>
+        <f t="shared" si="3"/>
         <v>1153.9939083066668</v>
       </c>
     </row>
@@ -19327,7 +19327,7 @@
         <v>2999</v>
       </c>
       <c r="H242">
-        <f>AVERAGE(B242,D242,F242)</f>
+        <f t="shared" si="3"/>
         <v>1156.6425988753333</v>
       </c>
     </row>
@@ -19354,7 +19354,7 @@
         <v>2718</v>
       </c>
       <c r="H243">
-        <f>AVERAGE(B243,D243,F243)</f>
+        <f t="shared" si="3"/>
         <v>1157.22870816</v>
       </c>
     </row>
@@ -19381,7 +19381,7 @@
         <v>2990</v>
       </c>
       <c r="H244">
-        <f>AVERAGE(B244,D244,F244)</f>
+        <f t="shared" si="3"/>
         <v>1157.627141512</v>
       </c>
     </row>
@@ -19408,7 +19408,7 @@
         <v>2511</v>
       </c>
       <c r="H245">
-        <f>AVERAGE(B245,D245,F245)</f>
+        <f t="shared" si="3"/>
         <v>1158.7758813433334</v>
       </c>
     </row>
@@ -19435,7 +19435,7 @@
         <v>2470</v>
       </c>
       <c r="H246">
-        <f>AVERAGE(B246,D246,F246)</f>
+        <f t="shared" si="3"/>
         <v>1159.364674077</v>
       </c>
     </row>
@@ -19462,7 +19462,7 @@
         <v>2527</v>
       </c>
       <c r="H247">
-        <f>AVERAGE(B247,D247,F247)</f>
+        <f t="shared" si="3"/>
         <v>1159.8766637633332</v>
       </c>
     </row>
@@ -19489,7 +19489,7 @@
         <v>2439</v>
       </c>
       <c r="H248">
-        <f>AVERAGE(B248,D248,F248)</f>
+        <f t="shared" si="3"/>
         <v>1161.107713957</v>
       </c>
     </row>
@@ -19516,7 +19516,7 @@
         <v>2199</v>
       </c>
       <c r="H249">
-        <f>AVERAGE(B249,D249,F249)</f>
+        <f t="shared" si="3"/>
         <v>1162.5852107000001</v>
       </c>
     </row>
@@ -19543,7 +19543,7 @@
         <v>2707</v>
       </c>
       <c r="H250">
-        <f>AVERAGE(B250,D250,F250)</f>
+        <f t="shared" si="3"/>
         <v>1163.9269587343335</v>
       </c>
     </row>
@@ -19570,7 +19570,7 @@
         <v>2499</v>
       </c>
       <c r="H251">
-        <f>AVERAGE(B251,D251,F251)</f>
+        <f t="shared" si="3"/>
         <v>1164.5293148455</v>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
         <v>2441</v>
       </c>
       <c r="H252">
-        <f>AVERAGE(B252,D252,F252)</f>
+        <f t="shared" si="3"/>
         <v>1164.837097525</v>
       </c>
     </row>
@@ -19624,7 +19624,7 @@
         <v>2445</v>
       </c>
       <c r="H253">
-        <f>AVERAGE(B253,D253,F253)</f>
+        <f t="shared" si="3"/>
         <v>1165.7809614156668</v>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
         <v>2540</v>
       </c>
       <c r="H254">
-        <f>AVERAGE(B254,D254,F254)</f>
+        <f t="shared" si="3"/>
         <v>1167.9626769116667</v>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
         <v>2476</v>
       </c>
       <c r="H255">
-        <f>AVERAGE(B255,D255,F255)</f>
+        <f t="shared" si="3"/>
         <v>1168.4956406766667</v>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
         <v>3061</v>
       </c>
       <c r="H256">
-        <f>AVERAGE(B256,D256,F256)</f>
+        <f t="shared" si="3"/>
         <v>1168.5665836766666</v>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
         <v>2468</v>
       </c>
       <c r="H257">
-        <f>AVERAGE(B257,D257,F257)</f>
+        <f t="shared" si="3"/>
         <v>1168.7903895866666</v>
       </c>
     </row>
@@ -19759,7 +19759,7 @@
         <v>2792</v>
       </c>
       <c r="H258">
-        <f>AVERAGE(B258,D258,F258)</f>
+        <f t="shared" si="3"/>
         <v>1169.5483357946666</v>
       </c>
     </row>
@@ -19786,7 +19786,7 @@
         <v>2254</v>
       </c>
       <c r="H259">
-        <f>AVERAGE(B259,D259,F259)</f>
+        <f t="shared" ref="H259:H322" si="4">AVERAGE(B259,D259,F259)</f>
         <v>1169.5883475640001</v>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
         <v>2184</v>
       </c>
       <c r="H260">
-        <f>AVERAGE(B260,D260,F260)</f>
+        <f t="shared" si="4"/>
         <v>1169.7477417593334</v>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
         <v>2477</v>
       </c>
       <c r="H261">
-        <f>AVERAGE(B261,D261,F261)</f>
+        <f t="shared" si="4"/>
         <v>1171.6809974990001</v>
       </c>
     </row>
@@ -19867,7 +19867,7 @@
         <v>2449</v>
       </c>
       <c r="H262">
-        <f>AVERAGE(B262,D262,F262)</f>
+        <f t="shared" si="4"/>
         <v>1172.1235557513335</v>
       </c>
     </row>
@@ -19894,7 +19894,7 @@
         <v>3038</v>
       </c>
       <c r="H263">
-        <f>AVERAGE(B263,D263,F263)</f>
+        <f t="shared" si="4"/>
         <v>1172.7408310800001</v>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
         <v>2773</v>
       </c>
       <c r="H264">
-        <f>AVERAGE(B264,D264,F264)</f>
+        <f t="shared" si="4"/>
         <v>1172.9726342866668</v>
       </c>
     </row>
@@ -19948,7 +19948,7 @@
         <v>2788</v>
       </c>
       <c r="H265">
-        <f>AVERAGE(B265,D265,F265)</f>
+        <f t="shared" si="4"/>
         <v>1175.1419603666666</v>
       </c>
     </row>
@@ -19975,7 +19975,7 @@
         <v>2465</v>
       </c>
       <c r="H266">
-        <f>AVERAGE(B266,D266,F266)</f>
+        <f t="shared" si="4"/>
         <v>1175.4155063866667</v>
       </c>
     </row>
@@ -20002,7 +20002,7 @@
         <v>2202</v>
       </c>
       <c r="H267">
-        <f>AVERAGE(B267,D267,F267)</f>
+        <f t="shared" si="4"/>
         <v>1176.1257205696668</v>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
         <v>2758</v>
       </c>
       <c r="H268">
-        <f>AVERAGE(B268,D268,F268)</f>
+        <f t="shared" si="4"/>
         <v>1176.6068427130001</v>
       </c>
     </row>
@@ -20056,7 +20056,7 @@
         <v>2695</v>
       </c>
       <c r="H269">
-        <f>AVERAGE(B269,D269,F269)</f>
+        <f t="shared" si="4"/>
         <v>1177.7403900700001</v>
       </c>
     </row>
@@ -20083,7 +20083,7 @@
         <v>2180</v>
       </c>
       <c r="H270">
-        <f>AVERAGE(B270,D270,F270)</f>
+        <f t="shared" si="4"/>
         <v>1178.2338302533333</v>
       </c>
     </row>
@@ -20110,7 +20110,7 @@
         <v>2720</v>
       </c>
       <c r="H271">
-        <f>AVERAGE(B271,D271,F271)</f>
+        <f t="shared" si="4"/>
         <v>1179.2478259466668</v>
       </c>
     </row>
@@ -20137,7 +20137,7 @@
         <v>2178</v>
       </c>
       <c r="H272">
-        <f>AVERAGE(B272,D272,F272)</f>
+        <f t="shared" si="4"/>
         <v>1179.7467302799998</v>
       </c>
     </row>
@@ -20164,7 +20164,7 @@
         <v>2541</v>
       </c>
       <c r="H273">
-        <f>AVERAGE(B273,D273,F273)</f>
+        <f t="shared" si="4"/>
         <v>1180.2072538100001</v>
       </c>
     </row>
@@ -20191,7 +20191,7 @@
         <v>2968</v>
       </c>
       <c r="H274">
-        <f>AVERAGE(B274,D274,F274)</f>
+        <f t="shared" si="4"/>
         <v>1180.3760769600001</v>
       </c>
     </row>
@@ -20218,7 +20218,7 @@
         <v>2744</v>
       </c>
       <c r="H275">
-        <f>AVERAGE(B275,D275,F275)</f>
+        <f t="shared" si="4"/>
         <v>1181.8506536766665</v>
       </c>
     </row>
@@ -20245,7 +20245,7 @@
         <v>2550</v>
       </c>
       <c r="H276">
-        <f>AVERAGE(B276,D276,F276)</f>
+        <f t="shared" si="4"/>
         <v>1182.8210957166668</v>
       </c>
     </row>
@@ -20272,7 +20272,7 @@
         <v>2730</v>
       </c>
       <c r="H277">
-        <f>AVERAGE(B277,D277,F277)</f>
+        <f t="shared" si="4"/>
         <v>1183.917607784</v>
       </c>
     </row>
@@ -20299,7 +20299,7 @@
         <v>2974</v>
       </c>
       <c r="H278">
-        <f>AVERAGE(B278,D278,F278)</f>
+        <f t="shared" si="4"/>
         <v>1184.7529498733334</v>
       </c>
     </row>
@@ -20326,7 +20326,7 @@
         <v>2205</v>
       </c>
       <c r="H279">
-        <f>AVERAGE(B279,D279,F279)</f>
+        <f t="shared" si="4"/>
         <v>1184.7597606049999</v>
       </c>
     </row>
@@ -20353,7 +20353,7 @@
         <v>2529</v>
       </c>
       <c r="H280">
-        <f>AVERAGE(B280,D280,F280)</f>
+        <f t="shared" si="4"/>
         <v>1185.3165395200001</v>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
         <v>2693</v>
       </c>
       <c r="H281">
-        <f>AVERAGE(B281,D281,F281)</f>
+        <f t="shared" si="4"/>
         <v>1185.8635624163333</v>
       </c>
     </row>
@@ -20407,7 +20407,7 @@
         <v>3014</v>
       </c>
       <c r="H282">
-        <f>AVERAGE(B282,D282,F282)</f>
+        <f t="shared" si="4"/>
         <v>1185.970711083</v>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
         <v>2212</v>
       </c>
       <c r="H283">
-        <f>AVERAGE(B283,D283,F283)</f>
+        <f t="shared" si="4"/>
         <v>1186.7948816433334</v>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
         <v>2210</v>
       </c>
       <c r="H284">
-        <f>AVERAGE(B284,D284,F284)</f>
+        <f t="shared" si="4"/>
         <v>1186.8896979233334</v>
       </c>
     </row>
@@ -20488,7 +20488,7 @@
         <v>2737</v>
       </c>
       <c r="H285">
-        <f>AVERAGE(B285,D285,F285)</f>
+        <f t="shared" si="4"/>
         <v>1187.3902490200001</v>
       </c>
     </row>
@@ -20515,7 +20515,7 @@
         <v>2729</v>
       </c>
       <c r="H286">
-        <f>AVERAGE(B286,D286,F286)</f>
+        <f t="shared" si="4"/>
         <v>1187.7387303433334</v>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
         <v>2513</v>
       </c>
       <c r="H287">
-        <f>AVERAGE(B287,D287,F287)</f>
+        <f t="shared" si="4"/>
         <v>1188.1190906633333</v>
       </c>
     </row>
@@ -20569,7 +20569,7 @@
         <v>3067</v>
       </c>
       <c r="H288">
-        <f>AVERAGE(B288,D288,F288)</f>
+        <f t="shared" si="4"/>
         <v>1188.6976901233334</v>
       </c>
     </row>
@@ -20596,7 +20596,7 @@
         <v>2967</v>
       </c>
       <c r="H289">
-        <f>AVERAGE(B289,D289,F289)</f>
+        <f t="shared" si="4"/>
         <v>1190.0588955200001</v>
       </c>
     </row>
@@ -20623,7 +20623,7 @@
         <v>2554</v>
       </c>
       <c r="H290">
-        <f>AVERAGE(B290,D290,F290)</f>
+        <f t="shared" si="4"/>
         <v>1190.3738347400001</v>
       </c>
     </row>
@@ -20650,7 +20650,7 @@
         <v>2784</v>
       </c>
       <c r="H291">
-        <f>AVERAGE(B291,D291,F291)</f>
+        <f t="shared" si="4"/>
         <v>1191.5542844216668</v>
       </c>
     </row>
@@ -20677,7 +20677,7 @@
         <v>2218</v>
       </c>
       <c r="H292">
-        <f>AVERAGE(B292,D292,F292)</f>
+        <f t="shared" si="4"/>
         <v>1193.5908085933333</v>
       </c>
     </row>
@@ -20704,7 +20704,7 @@
         <v>2249</v>
       </c>
       <c r="H293">
-        <f>AVERAGE(B293,D293,F293)</f>
+        <f t="shared" si="4"/>
         <v>1194.0064617566668</v>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
         <v>3055</v>
       </c>
       <c r="H294">
-        <f>AVERAGE(B294,D294,F294)</f>
+        <f t="shared" si="4"/>
         <v>1194.4071112333334</v>
       </c>
     </row>
@@ -20758,7 +20758,7 @@
         <v>2717</v>
       </c>
       <c r="H295">
-        <f>AVERAGE(B295,D295,F295)</f>
+        <f t="shared" si="4"/>
         <v>1194.9114260883332</v>
       </c>
     </row>
@@ -20785,7 +20785,7 @@
         <v>2777</v>
       </c>
       <c r="H296">
-        <f>AVERAGE(B296,D296,F296)</f>
+        <f t="shared" si="4"/>
         <v>1197.0286649780001</v>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
         <v>2531</v>
       </c>
       <c r="H297">
-        <f>AVERAGE(B297,D297,F297)</f>
+        <f t="shared" si="4"/>
         <v>1198.6763331909999</v>
       </c>
     </row>
@@ -20839,7 +20839,7 @@
         <v>2740</v>
       </c>
       <c r="H298">
-        <f>AVERAGE(B298,D298,F298)</f>
+        <f t="shared" si="4"/>
         <v>1198.9783779833333</v>
       </c>
     </row>
@@ -20866,7 +20866,7 @@
         <v>2276</v>
       </c>
       <c r="H299">
-        <f>AVERAGE(B299,D299,F299)</f>
+        <f t="shared" si="4"/>
         <v>1199.1938208900001</v>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
         <v>2759</v>
       </c>
       <c r="H300">
-        <f>AVERAGE(B300,D300,F300)</f>
+        <f t="shared" si="4"/>
         <v>1200.9038441509999</v>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
         <v>3069</v>
       </c>
       <c r="H301">
-        <f>AVERAGE(B301,D301,F301)</f>
+        <f t="shared" si="4"/>
         <v>1200.9760198900001</v>
       </c>
     </row>
@@ -20947,7 +20947,7 @@
         <v>2771</v>
       </c>
       <c r="H302">
-        <f>AVERAGE(B302,D302,F302)</f>
+        <f t="shared" si="4"/>
         <v>1203.4709715166666</v>
       </c>
     </row>
@@ -20974,7 +20974,7 @@
         <v>2300</v>
       </c>
       <c r="H303">
-        <f>AVERAGE(B303,D303,F303)</f>
+        <f t="shared" si="4"/>
         <v>1204.21900164</v>
       </c>
     </row>
@@ -21001,7 +21001,7 @@
         <v>2746</v>
       </c>
       <c r="H304">
-        <f>AVERAGE(B304,D304,F304)</f>
+        <f t="shared" si="4"/>
         <v>1204.6478836599999</v>
       </c>
     </row>
@@ -21028,7 +21028,7 @@
         <v>2272</v>
       </c>
       <c r="H305">
-        <f>AVERAGE(B305,D305,F305)</f>
+        <f t="shared" si="4"/>
         <v>1204.6532840433335</v>
       </c>
     </row>
@@ -21055,7 +21055,7 @@
         <v>2522</v>
       </c>
       <c r="H306">
-        <f>AVERAGE(B306,D306,F306)</f>
+        <f t="shared" si="4"/>
         <v>1205.7427206866666</v>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
         <v>2453</v>
       </c>
       <c r="H307">
-        <f>AVERAGE(B307,D307,F307)</f>
+        <f t="shared" si="4"/>
         <v>1205.8017640866665</v>
       </c>
     </row>
@@ -21109,7 +21109,7 @@
         <v>2219</v>
       </c>
       <c r="H308">
-        <f>AVERAGE(B308,D308,F308)</f>
+        <f t="shared" si="4"/>
         <v>1207.2876197533333</v>
       </c>
     </row>
@@ -21136,7 +21136,7 @@
         <v>2213</v>
       </c>
       <c r="H309">
-        <f>AVERAGE(B309,D309,F309)</f>
+        <f t="shared" si="4"/>
         <v>1207.2935812266667</v>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
         <v>2454</v>
       </c>
       <c r="H310">
-        <f>AVERAGE(B310,D310,F310)</f>
+        <f t="shared" si="4"/>
         <v>1207.6733998633333</v>
       </c>
     </row>
@@ -21190,7 +21190,7 @@
         <v>2782</v>
       </c>
       <c r="H311">
-        <f>AVERAGE(B311,D311,F311)</f>
+        <f t="shared" si="4"/>
         <v>1208.0505101833332</v>
       </c>
     </row>
@@ -21217,7 +21217,7 @@
         <v>2543</v>
       </c>
       <c r="H312">
-        <f>AVERAGE(B312,D312,F312)</f>
+        <f t="shared" si="4"/>
         <v>1208.9562189440001</v>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
         <v>2761</v>
       </c>
       <c r="H313">
-        <f>AVERAGE(B313,D313,F313)</f>
+        <f t="shared" si="4"/>
         <v>1209.141604076</v>
       </c>
     </row>
@@ -21271,7 +21271,7 @@
         <v>3064</v>
       </c>
       <c r="H314">
-        <f>AVERAGE(B314,D314,F314)</f>
+        <f t="shared" si="4"/>
         <v>1209.5033057733333</v>
       </c>
     </row>
@@ -21298,7 +21298,7 @@
         <v>3000</v>
       </c>
       <c r="H315">
-        <f>AVERAGE(B315,D315,F315)</f>
+        <f t="shared" si="4"/>
         <v>1209.8927308323334</v>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
         <v>2752</v>
       </c>
       <c r="H316">
-        <f>AVERAGE(B316,D316,F316)</f>
+        <f t="shared" si="4"/>
         <v>1209.9146223666667</v>
       </c>
     </row>
@@ -21352,7 +21352,7 @@
         <v>2964</v>
       </c>
       <c r="H317">
-        <f>AVERAGE(B317,D317,F317)</f>
+        <f t="shared" si="4"/>
         <v>1211.4811352866666</v>
       </c>
     </row>
@@ -21379,7 +21379,7 @@
         <v>2257</v>
       </c>
       <c r="H318">
-        <f>AVERAGE(B318,D318,F318)</f>
+        <f t="shared" si="4"/>
         <v>1212.1539221066666</v>
       </c>
     </row>
@@ -21406,7 +21406,7 @@
         <v>2722</v>
       </c>
       <c r="H319">
-        <f>AVERAGE(B319,D319,F319)</f>
+        <f t="shared" si="4"/>
         <v>1215.8699422133334</v>
       </c>
     </row>
@@ -21433,7 +21433,7 @@
         <v>2803</v>
       </c>
       <c r="H320">
-        <f>AVERAGE(B320,D320,F320)</f>
+        <f t="shared" si="4"/>
         <v>1216.6959064800001</v>
       </c>
     </row>
@@ -21460,7 +21460,7 @@
         <v>2749</v>
       </c>
       <c r="H321">
-        <f>AVERAGE(B321,D321,F321)</f>
+        <f t="shared" si="4"/>
         <v>1217.5299564300001</v>
       </c>
     </row>
@@ -21487,7 +21487,7 @@
         <v>3065</v>
       </c>
       <c r="H322">
-        <f>AVERAGE(B322,D322,F322)</f>
+        <f t="shared" si="4"/>
         <v>1218.5712403966666</v>
       </c>
     </row>
@@ -21514,7 +21514,7 @@
         <v>2471</v>
       </c>
       <c r="H323">
-        <f>AVERAGE(B323,D323,F323)</f>
+        <f t="shared" ref="H323:H386" si="5">AVERAGE(B323,D323,F323)</f>
         <v>1218.59335027</v>
       </c>
     </row>
@@ -21541,7 +21541,7 @@
         <v>2521</v>
       </c>
       <c r="H324">
-        <f>AVERAGE(B324,D324,F324)</f>
+        <f t="shared" si="5"/>
         <v>1221.1853287000001</v>
       </c>
     </row>
@@ -21568,7 +21568,7 @@
         <v>2751</v>
       </c>
       <c r="H325">
-        <f>AVERAGE(B325,D325,F325)</f>
+        <f t="shared" si="5"/>
         <v>1221.3174043933334</v>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
         <v>2179</v>
       </c>
       <c r="H326">
-        <f>AVERAGE(B326,D326,F326)</f>
+        <f t="shared" si="5"/>
         <v>1221.3743723223333</v>
       </c>
     </row>
@@ -21622,7 +21622,7 @@
         <v>2220</v>
       </c>
       <c r="H327">
-        <f>AVERAGE(B327,D327,F327)</f>
+        <f t="shared" si="5"/>
         <v>1221.5835103299999</v>
       </c>
     </row>
@@ -21649,7 +21649,7 @@
         <v>2291</v>
       </c>
       <c r="H328">
-        <f>AVERAGE(B328,D328,F328)</f>
+        <f t="shared" si="5"/>
         <v>1225.2267335033332</v>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
         <v>2209</v>
       </c>
       <c r="H329">
-        <f>AVERAGE(B329,D329,F329)</f>
+        <f t="shared" si="5"/>
         <v>1225.3201343066667</v>
       </c>
     </row>
@@ -21703,7 +21703,7 @@
         <v>2491</v>
       </c>
       <c r="H330">
-        <f>AVERAGE(B330,D330,F330)</f>
+        <f t="shared" si="5"/>
         <v>1226.7015500143334</v>
       </c>
     </row>
@@ -21730,7 +21730,7 @@
         <v>2976</v>
       </c>
       <c r="H331">
-        <f>AVERAGE(B331,D331,F331)</f>
+        <f t="shared" si="5"/>
         <v>1227.2175918033333</v>
       </c>
     </row>
@@ -21757,7 +21757,7 @@
         <v>2805</v>
       </c>
       <c r="H332">
-        <f>AVERAGE(B332,D332,F332)</f>
+        <f t="shared" si="5"/>
         <v>1228.05433268</v>
       </c>
     </row>
@@ -21784,7 +21784,7 @@
         <v>2258</v>
       </c>
       <c r="H333">
-        <f>AVERAGE(B333,D333,F333)</f>
+        <f t="shared" si="5"/>
         <v>1228.8083647833332</v>
       </c>
     </row>
@@ -21811,7 +21811,7 @@
         <v>2757</v>
       </c>
       <c r="H334">
-        <f>AVERAGE(B334,D334,F334)</f>
+        <f t="shared" si="5"/>
         <v>1229.53100277</v>
       </c>
     </row>
@@ -21838,7 +21838,7 @@
         <v>2725</v>
       </c>
       <c r="H335">
-        <f>AVERAGE(B335,D335,F335)</f>
+        <f t="shared" si="5"/>
         <v>1230.9304947200001</v>
       </c>
     </row>
@@ -21865,7 +21865,7 @@
         <v>2560</v>
       </c>
       <c r="H336">
-        <f>AVERAGE(B336,D336,F336)</f>
+        <f t="shared" si="5"/>
         <v>1232.9042719033332</v>
       </c>
     </row>
@@ -21892,7 +21892,7 @@
         <v>2452</v>
       </c>
       <c r="H337">
-        <f>AVERAGE(B337,D337,F337)</f>
+        <f t="shared" si="5"/>
         <v>1233.16945261</v>
       </c>
     </row>
@@ -21919,7 +21919,7 @@
         <v>2748</v>
       </c>
       <c r="H338">
-        <f>AVERAGE(B338,D338,F338)</f>
+        <f t="shared" si="5"/>
         <v>1233.79071039</v>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
         <v>2195</v>
       </c>
       <c r="H339">
-        <f>AVERAGE(B339,D339,F339)</f>
+        <f t="shared" si="5"/>
         <v>1234.3682713033334</v>
       </c>
     </row>
@@ -21973,7 +21973,7 @@
         <v>2463</v>
       </c>
       <c r="H340">
-        <f>AVERAGE(B340,D340,F340)</f>
+        <f t="shared" si="5"/>
         <v>1235.2035137349999</v>
       </c>
     </row>
@@ -22000,7 +22000,7 @@
         <v>2228</v>
       </c>
       <c r="H341">
-        <f>AVERAGE(B341,D341,F341)</f>
+        <f t="shared" si="5"/>
         <v>1237.2342795933334</v>
       </c>
     </row>
@@ -22027,7 +22027,7 @@
         <v>2741</v>
       </c>
       <c r="H342">
-        <f>AVERAGE(B342,D342,F342)</f>
+        <f t="shared" si="5"/>
         <v>1239.5097794700002</v>
       </c>
     </row>
@@ -22054,7 +22054,7 @@
         <v>2485</v>
       </c>
       <c r="H343">
-        <f>AVERAGE(B343,D343,F343)</f>
+        <f t="shared" si="5"/>
         <v>1239.8358933766667</v>
       </c>
     </row>
@@ -22081,7 +22081,7 @@
         <v>3037</v>
       </c>
       <c r="H344">
-        <f>AVERAGE(B344,D344,F344)</f>
+        <f t="shared" si="5"/>
         <v>1240.0110656940001</v>
       </c>
     </row>
@@ -22108,7 +22108,7 @@
         <v>2437</v>
       </c>
       <c r="H345">
-        <f>AVERAGE(B345,D345,F345)</f>
+        <f t="shared" si="5"/>
         <v>1240.0785905150001</v>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
         <v>2481</v>
       </c>
       <c r="H346">
-        <f>AVERAGE(B346,D346,F346)</f>
+        <f t="shared" si="5"/>
         <v>1240.6238628566666</v>
       </c>
     </row>
@@ -22162,7 +22162,7 @@
         <v>2227</v>
       </c>
       <c r="H347">
-        <f>AVERAGE(B347,D347,F347)</f>
+        <f t="shared" si="5"/>
         <v>1241.1068709133333</v>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
         <v>2790</v>
       </c>
       <c r="H348">
-        <f>AVERAGE(B348,D348,F348)</f>
+        <f t="shared" si="5"/>
         <v>1241.1636721799998</v>
       </c>
     </row>
@@ -22216,7 +22216,7 @@
         <v>3073</v>
       </c>
       <c r="H349">
-        <f>AVERAGE(B349,D349,F349)</f>
+        <f t="shared" si="5"/>
         <v>1241.4549443766666</v>
       </c>
     </row>
@@ -22243,7 +22243,7 @@
         <v>2532</v>
       </c>
       <c r="H350">
-        <f>AVERAGE(B350,D350,F350)</f>
+        <f t="shared" si="5"/>
         <v>1241.5629052333334</v>
       </c>
     </row>
@@ -22270,7 +22270,7 @@
         <v>2221</v>
       </c>
       <c r="H351">
-        <f>AVERAGE(B351,D351,F351)</f>
+        <f t="shared" si="5"/>
         <v>1242.3599335500001</v>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
         <v>2483</v>
       </c>
       <c r="H352">
-        <f>AVERAGE(B352,D352,F352)</f>
+        <f t="shared" si="5"/>
         <v>1242.83385451</v>
       </c>
     </row>
@@ -22324,7 +22324,7 @@
         <v>2802</v>
       </c>
       <c r="H353">
-        <f>AVERAGE(B353,D353,F353)</f>
+        <f t="shared" si="5"/>
         <v>1243.36190721</v>
       </c>
     </row>
@@ -22351,7 +22351,7 @@
         <v>2247</v>
       </c>
       <c r="H354">
-        <f>AVERAGE(B354,D354,F354)</f>
+        <f t="shared" si="5"/>
         <v>1246.1765037863333</v>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
         <v>2469</v>
       </c>
       <c r="H355">
-        <f>AVERAGE(B355,D355,F355)</f>
+        <f t="shared" si="5"/>
         <v>1246.2583388366668</v>
       </c>
     </row>
@@ -22405,7 +22405,7 @@
         <v>2812</v>
       </c>
       <c r="H356">
-        <f>AVERAGE(B356,D356,F356)</f>
+        <f t="shared" si="5"/>
         <v>1247.0227994166669</v>
       </c>
     </row>
@@ -22432,7 +22432,7 @@
         <v>2183</v>
       </c>
       <c r="H357">
-        <f>AVERAGE(B357,D357,F357)</f>
+        <f t="shared" si="5"/>
         <v>1247.1880179100001</v>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
         <v>2280</v>
       </c>
       <c r="H358">
-        <f>AVERAGE(B358,D358,F358)</f>
+        <f t="shared" si="5"/>
         <v>1248.0745864766666</v>
       </c>
     </row>
@@ -22486,7 +22486,7 @@
         <v>2736</v>
       </c>
       <c r="H359">
-        <f>AVERAGE(B359,D359,F359)</f>
+        <f t="shared" si="5"/>
         <v>1249.6619433066669</v>
       </c>
     </row>
@@ -22513,7 +22513,7 @@
         <v>2689</v>
       </c>
       <c r="H360">
-        <f>AVERAGE(B360,D360,F360)</f>
+        <f t="shared" si="5"/>
         <v>1251.239722282</v>
       </c>
     </row>
@@ -22540,7 +22540,7 @@
         <v>2524</v>
       </c>
       <c r="H361">
-        <f>AVERAGE(B361,D361,F361)</f>
+        <f t="shared" si="5"/>
         <v>1252.6758323500001</v>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
         <v>2500</v>
       </c>
       <c r="H362">
-        <f>AVERAGE(B362,D362,F362)</f>
+        <f t="shared" si="5"/>
         <v>1252.713388718</v>
       </c>
     </row>
@@ -22594,7 +22594,7 @@
         <v>2806</v>
       </c>
       <c r="H363">
-        <f>AVERAGE(B363,D363,F363)</f>
+        <f t="shared" si="5"/>
         <v>1252.8457112333333</v>
       </c>
     </row>
@@ -22621,7 +22621,7 @@
         <v>2533</v>
       </c>
       <c r="H364">
-        <f>AVERAGE(B364,D364,F364)</f>
+        <f t="shared" si="5"/>
         <v>1254.1262301266668</v>
       </c>
     </row>
@@ -22648,7 +22648,7 @@
         <v>2451</v>
       </c>
       <c r="H365">
-        <f>AVERAGE(B365,D365,F365)</f>
+        <f t="shared" si="5"/>
         <v>1255.1556433553333</v>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
         <v>2235</v>
       </c>
       <c r="H366">
-        <f>AVERAGE(B366,D366,F366)</f>
+        <f t="shared" si="5"/>
         <v>1259.7447306133333</v>
       </c>
     </row>
@@ -22702,7 +22702,7 @@
         <v>2478</v>
       </c>
       <c r="H367">
-        <f>AVERAGE(B367,D367,F367)</f>
+        <f t="shared" si="5"/>
         <v>1261.2042903116669</v>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
         <v>2262</v>
       </c>
       <c r="H368">
-        <f>AVERAGE(B368,D368,F368)</f>
+        <f t="shared" si="5"/>
         <v>1262.1720457466665</v>
       </c>
     </row>
@@ -22756,7 +22756,7 @@
         <v>2495</v>
       </c>
       <c r="H369">
-        <f>AVERAGE(B369,D369,F369)</f>
+        <f t="shared" si="5"/>
         <v>1264.0848325999998</v>
       </c>
     </row>
@@ -22783,7 +22783,7 @@
         <v>2815</v>
       </c>
       <c r="H370">
-        <f>AVERAGE(B370,D370,F370)</f>
+        <f t="shared" si="5"/>
         <v>1265.01424729</v>
       </c>
     </row>
@@ -22810,7 +22810,7 @@
         <v>2475</v>
       </c>
       <c r="H371">
-        <f>AVERAGE(B371,D371,F371)</f>
+        <f t="shared" si="5"/>
         <v>1266.0807099733333</v>
       </c>
     </row>
@@ -22837,7 +22837,7 @@
         <v>2809</v>
       </c>
       <c r="H372">
-        <f>AVERAGE(B372,D372,F372)</f>
+        <f t="shared" si="5"/>
         <v>1269.2722231300002</v>
       </c>
     </row>
@@ -22864,7 +22864,7 @@
         <v>2467</v>
       </c>
       <c r="H373">
-        <f>AVERAGE(B373,D373,F373)</f>
+        <f t="shared" si="5"/>
         <v>1270.2475964800001</v>
       </c>
     </row>
@@ -22891,7 +22891,7 @@
         <v>2264</v>
       </c>
       <c r="H374">
-        <f>AVERAGE(B374,D374,F374)</f>
+        <f t="shared" si="5"/>
         <v>1271.66580176</v>
       </c>
     </row>
@@ -22918,7 +22918,7 @@
         <v>2296</v>
       </c>
       <c r="H375">
-        <f>AVERAGE(B375,D375,F375)</f>
+        <f t="shared" si="5"/>
         <v>1273.2011853466668</v>
       </c>
     </row>
@@ -22945,7 +22945,7 @@
         <v>2959</v>
       </c>
       <c r="H376">
-        <f>AVERAGE(B376,D376,F376)</f>
+        <f t="shared" si="5"/>
         <v>1273.2040586749999</v>
       </c>
     </row>
@@ -22972,7 +22972,7 @@
         <v>2231</v>
       </c>
       <c r="H377">
-        <f>AVERAGE(B377,D377,F377)</f>
+        <f t="shared" si="5"/>
         <v>1273.24830503</v>
       </c>
     </row>
@@ -22999,7 +22999,7 @@
         <v>2731</v>
       </c>
       <c r="H378">
-        <f>AVERAGE(B378,D378,F378)</f>
+        <f t="shared" si="5"/>
         <v>1275.1333829066666</v>
       </c>
     </row>
@@ -23026,7 +23026,7 @@
         <v>2479</v>
       </c>
       <c r="H379">
-        <f>AVERAGE(B379,D379,F379)</f>
+        <f t="shared" si="5"/>
         <v>1277.1962947833333</v>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
         <v>3051</v>
       </c>
       <c r="H380">
-        <f>AVERAGE(B380,D380,F380)</f>
+        <f t="shared" si="5"/>
         <v>1277.2780565100002</v>
       </c>
     </row>
@@ -23080,7 +23080,7 @@
         <v>2963</v>
       </c>
       <c r="H381">
-        <f>AVERAGE(B381,D381,F381)</f>
+        <f t="shared" si="5"/>
         <v>1277.9626144133333</v>
       </c>
     </row>
@@ -23107,7 +23107,7 @@
         <v>2217</v>
       </c>
       <c r="H382">
-        <f>AVERAGE(B382,D382,F382)</f>
+        <f t="shared" si="5"/>
         <v>1279.2699778633335</v>
       </c>
     </row>
@@ -23134,7 +23134,7 @@
         <v>2733</v>
       </c>
       <c r="H383">
-        <f>AVERAGE(B383,D383,F383)</f>
+        <f t="shared" si="5"/>
         <v>1279.4983180199999</v>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
         <v>2742</v>
       </c>
       <c r="H384">
-        <f>AVERAGE(B384,D384,F384)</f>
+        <f t="shared" si="5"/>
         <v>1280.3224971066666</v>
       </c>
     </row>
@@ -23188,7 +23188,7 @@
         <v>2769</v>
       </c>
       <c r="H385">
-        <f>AVERAGE(B385,D385,F385)</f>
+        <f t="shared" si="5"/>
         <v>1282.9273037166665</v>
       </c>
     </row>
@@ -23215,7 +23215,7 @@
         <v>2814</v>
       </c>
       <c r="H386">
-        <f>AVERAGE(B386,D386,F386)</f>
+        <f t="shared" si="5"/>
         <v>1283.2877017533333</v>
       </c>
     </row>
@@ -23242,7 +23242,7 @@
         <v>2290</v>
       </c>
       <c r="H387">
-        <f>AVERAGE(B387,D387,F387)</f>
+        <f t="shared" ref="H387:H450" si="6">AVERAGE(B387,D387,F387)</f>
         <v>1285.3331462166668</v>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
         <v>2559</v>
       </c>
       <c r="H388">
-        <f>AVERAGE(B388,D388,F388)</f>
+        <f t="shared" si="6"/>
         <v>1286.9102739433331</v>
       </c>
     </row>
@@ -23296,7 +23296,7 @@
         <v>2517</v>
       </c>
       <c r="H389">
-        <f>AVERAGE(B389,D389,F389)</f>
+        <f t="shared" si="6"/>
         <v>1288.9020061066667</v>
       </c>
     </row>
@@ -23323,7 +23323,7 @@
         <v>2181</v>
       </c>
       <c r="H390">
-        <f>AVERAGE(B390,D390,F390)</f>
+        <f t="shared" si="6"/>
         <v>1290.3632855420001</v>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
         <v>2229</v>
       </c>
       <c r="H391">
-        <f>AVERAGE(B391,D391,F391)</f>
+        <f t="shared" si="6"/>
         <v>1290.9974057566667</v>
       </c>
     </row>
@@ -23377,7 +23377,7 @@
         <v>2259</v>
       </c>
       <c r="H392">
-        <f>AVERAGE(B392,D392,F392)</f>
+        <f t="shared" si="6"/>
         <v>1291.2760037533333</v>
       </c>
     </row>
@@ -23404,7 +23404,7 @@
         <v>2732</v>
       </c>
       <c r="H393">
-        <f>AVERAGE(B393,D393,F393)</f>
+        <f t="shared" si="6"/>
         <v>1292.4571053266668</v>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
         <v>2185</v>
       </c>
       <c r="H394">
-        <f>AVERAGE(B394,D394,F394)</f>
+        <f t="shared" si="6"/>
         <v>1292.93379785</v>
       </c>
     </row>
@@ -23458,7 +23458,7 @@
         <v>2728</v>
       </c>
       <c r="H395">
-        <f>AVERAGE(B395,D395,F395)</f>
+        <f t="shared" si="6"/>
         <v>1295.7452101266667</v>
       </c>
     </row>
@@ -23485,7 +23485,7 @@
         <v>3072</v>
       </c>
       <c r="H396">
-        <f>AVERAGE(B396,D396,F396)</f>
+        <f t="shared" si="6"/>
         <v>1297.4231291733333</v>
       </c>
     </row>
@@ -23512,7 +23512,7 @@
         <v>2997</v>
       </c>
       <c r="H397">
-        <f>AVERAGE(B397,D397,F397)</f>
+        <f t="shared" si="6"/>
         <v>1297.6876248866668</v>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
         <v>2293</v>
       </c>
       <c r="H398">
-        <f>AVERAGE(B398,D398,F398)</f>
+        <f t="shared" si="6"/>
         <v>1297.8405628543333</v>
       </c>
     </row>
@@ -23566,7 +23566,7 @@
         <v>2519</v>
       </c>
       <c r="H399">
-        <f>AVERAGE(B399,D399,F399)</f>
+        <f t="shared" si="6"/>
         <v>1299.4434514966667</v>
       </c>
     </row>
@@ -23593,7 +23593,7 @@
         <v>2765</v>
       </c>
       <c r="H400">
-        <f>AVERAGE(B400,D400,F400)</f>
+        <f t="shared" si="6"/>
         <v>1301.4993006003335</v>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
         <v>2494</v>
       </c>
       <c r="H401">
-        <f>AVERAGE(B401,D401,F401)</f>
+        <f t="shared" si="6"/>
         <v>1303.6776407066666</v>
       </c>
     </row>
@@ -23647,7 +23647,7 @@
         <v>2547</v>
       </c>
       <c r="H402">
-        <f>AVERAGE(B402,D402,F402)</f>
+        <f t="shared" si="6"/>
         <v>1305.2761623033332</v>
       </c>
     </row>
@@ -23674,7 +23674,7 @@
         <v>2807</v>
       </c>
       <c r="H403">
-        <f>AVERAGE(B403,D403,F403)</f>
+        <f t="shared" si="6"/>
         <v>1306.3478482433336</v>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
         <v>2270</v>
       </c>
       <c r="H404">
-        <f>AVERAGE(B404,D404,F404)</f>
+        <f t="shared" si="6"/>
         <v>1307.66432169</v>
       </c>
     </row>
@@ -23728,7 +23728,7 @@
         <v>2808</v>
       </c>
       <c r="H405">
-        <f>AVERAGE(B405,D405,F405)</f>
+        <f t="shared" si="6"/>
         <v>1307.9072546699999</v>
       </c>
     </row>
@@ -23755,7 +23755,7 @@
         <v>2783</v>
       </c>
       <c r="H406">
-        <f>AVERAGE(B406,D406,F406)</f>
+        <f t="shared" si="6"/>
         <v>1308.7452108999998</v>
       </c>
     </row>
@@ -23782,7 +23782,7 @@
         <v>2455</v>
       </c>
       <c r="H407">
-        <f>AVERAGE(B407,D407,F407)</f>
+        <f t="shared" si="6"/>
         <v>1309.5709064666669</v>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
         <v>2798</v>
       </c>
       <c r="H408">
-        <f>AVERAGE(B408,D408,F408)</f>
+        <f t="shared" si="6"/>
         <v>1310.1886510533334</v>
       </c>
     </row>
@@ -23836,7 +23836,7 @@
         <v>2292</v>
       </c>
       <c r="H409">
-        <f>AVERAGE(B409,D409,F409)</f>
+        <f t="shared" si="6"/>
         <v>1310.3418493400002</v>
       </c>
     </row>
@@ -23863,7 +23863,7 @@
         <v>2556</v>
       </c>
       <c r="H410">
-        <f>AVERAGE(B410,D410,F410)</f>
+        <f t="shared" si="6"/>
         <v>1310.5420355966667</v>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
         <v>2489</v>
       </c>
       <c r="H411">
-        <f>AVERAGE(B411,D411,F411)</f>
+        <f t="shared" si="6"/>
         <v>1311.7859091253333</v>
       </c>
     </row>
@@ -23917,7 +23917,7 @@
         <v>2302</v>
       </c>
       <c r="H412">
-        <f>AVERAGE(B412,D412,F412)</f>
+        <f t="shared" si="6"/>
         <v>1312.4308719133335</v>
       </c>
     </row>
@@ -23944,7 +23944,7 @@
         <v>2295</v>
       </c>
       <c r="H413">
-        <f>AVERAGE(B413,D413,F413)</f>
+        <f t="shared" si="6"/>
         <v>1312.8167701566665</v>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
         <v>2998</v>
       </c>
       <c r="H414">
-        <f>AVERAGE(B414,D414,F414)</f>
+        <f t="shared" si="6"/>
         <v>1314.1738387833332</v>
       </c>
     </row>
@@ -23998,7 +23998,7 @@
         <v>2555</v>
       </c>
       <c r="H415">
-        <f>AVERAGE(B415,D415,F415)</f>
+        <f t="shared" si="6"/>
         <v>1317.4539211499998</v>
       </c>
     </row>
@@ -24025,7 +24025,7 @@
         <v>2528</v>
       </c>
       <c r="H416">
-        <f>AVERAGE(B416,D416,F416)</f>
+        <f t="shared" si="6"/>
         <v>1317.7048743400001</v>
       </c>
     </row>
@@ -24052,7 +24052,7 @@
         <v>2515</v>
       </c>
       <c r="H417">
-        <f>AVERAGE(B417,D417,F417)</f>
+        <f t="shared" si="6"/>
         <v>1317.9990873169997</v>
       </c>
     </row>
@@ -24079,7 +24079,7 @@
         <v>3066</v>
       </c>
       <c r="H418">
-        <f>AVERAGE(B418,D418,F418)</f>
+        <f t="shared" si="6"/>
         <v>1319.2705378199998</v>
       </c>
     </row>
@@ -24106,7 +24106,7 @@
         <v>2518</v>
       </c>
       <c r="H419">
-        <f>AVERAGE(B419,D419,F419)</f>
+        <f t="shared" si="6"/>
         <v>1320.2938653366666</v>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
         <v>2813</v>
       </c>
       <c r="H420">
-        <f>AVERAGE(B420,D420,F420)</f>
+        <f t="shared" si="6"/>
         <v>1320.7706707233335</v>
       </c>
     </row>
@@ -24160,7 +24160,7 @@
         <v>2274</v>
       </c>
       <c r="H421">
-        <f>AVERAGE(B421,D421,F421)</f>
+        <f t="shared" si="6"/>
         <v>1323.8803317600002</v>
       </c>
     </row>
@@ -24187,7 +24187,7 @@
         <v>2196</v>
       </c>
       <c r="H422">
-        <f>AVERAGE(B422,D422,F422)</f>
+        <f t="shared" si="6"/>
         <v>1325.7281566133333</v>
       </c>
     </row>
@@ -24214,7 +24214,7 @@
         <v>3062</v>
       </c>
       <c r="H423">
-        <f>AVERAGE(B423,D423,F423)</f>
+        <f t="shared" si="6"/>
         <v>1325.9739897700001</v>
       </c>
     </row>
@@ -24241,7 +24241,7 @@
         <v>2268</v>
       </c>
       <c r="H424">
-        <f>AVERAGE(B424,D424,F424)</f>
+        <f t="shared" si="6"/>
         <v>1326.2414547600001</v>
       </c>
     </row>
@@ -24268,7 +24268,7 @@
         <v>2208</v>
       </c>
       <c r="H425">
-        <f>AVERAGE(B425,D425,F425)</f>
+        <f t="shared" si="6"/>
         <v>1326.8660897949999</v>
       </c>
     </row>
@@ -24295,7 +24295,7 @@
         <v>2234</v>
       </c>
       <c r="H426">
-        <f>AVERAGE(B426,D426,F426)</f>
+        <f t="shared" si="6"/>
         <v>1328.3752039933333</v>
       </c>
     </row>
@@ -24322,7 +24322,7 @@
         <v>2501</v>
       </c>
       <c r="H427">
-        <f>AVERAGE(B427,D427,F427)</f>
+        <f t="shared" si="6"/>
         <v>1332.7764948533334</v>
       </c>
     </row>
@@ -24349,7 +24349,7 @@
         <v>2267</v>
       </c>
       <c r="H428">
-        <f>AVERAGE(B428,D428,F428)</f>
+        <f t="shared" si="6"/>
         <v>1332.9064338133333</v>
       </c>
     </row>
@@ -24376,7 +24376,7 @@
         <v>2289</v>
       </c>
       <c r="H429">
-        <f>AVERAGE(B429,D429,F429)</f>
+        <f t="shared" si="6"/>
         <v>1333.1992351900001</v>
       </c>
     </row>
@@ -24403,7 +24403,7 @@
         <v>2962</v>
       </c>
       <c r="H430">
-        <f>AVERAGE(B430,D430,F430)</f>
+        <f t="shared" si="6"/>
         <v>1334.2925339400001</v>
       </c>
     </row>
@@ -24430,7 +24430,7 @@
         <v>2490</v>
       </c>
       <c r="H431">
-        <f>AVERAGE(B431,D431,F431)</f>
+        <f t="shared" si="6"/>
         <v>1335.2390571570002</v>
       </c>
     </row>
@@ -24457,7 +24457,7 @@
         <v>2182</v>
       </c>
       <c r="H432">
-        <f>AVERAGE(B432,D432,F432)</f>
+        <f t="shared" si="6"/>
         <v>1336.030856227</v>
       </c>
     </row>
@@ -24484,7 +24484,7 @@
         <v>2201</v>
       </c>
       <c r="H433">
-        <f>AVERAGE(B433,D433,F433)</f>
+        <f t="shared" si="6"/>
         <v>1336.76776795</v>
       </c>
     </row>
@@ -24511,7 +24511,7 @@
         <v>2246</v>
       </c>
       <c r="H434">
-        <f>AVERAGE(B434,D434,F434)</f>
+        <f t="shared" si="6"/>
         <v>1341.1115334633334</v>
       </c>
     </row>
@@ -24538,7 +24538,7 @@
         <v>2434</v>
       </c>
       <c r="H435">
-        <f>AVERAGE(B435,D435,F435)</f>
+        <f t="shared" si="6"/>
         <v>1341.5162610609998</v>
       </c>
     </row>
@@ -24565,7 +24565,7 @@
         <v>3070</v>
       </c>
       <c r="H436">
-        <f>AVERAGE(B436,D436,F436)</f>
+        <f t="shared" si="6"/>
         <v>1343.4612186699999</v>
       </c>
     </row>
@@ -24592,7 +24592,7 @@
         <v>2719</v>
       </c>
       <c r="H437">
-        <f>AVERAGE(B437,D437,F437)</f>
+        <f t="shared" si="6"/>
         <v>1343.9478986466665</v>
       </c>
     </row>
@@ -24619,7 +24619,7 @@
         <v>3053</v>
       </c>
       <c r="H438">
-        <f>AVERAGE(B438,D438,F438)</f>
+        <f t="shared" si="6"/>
         <v>1344.2846729833334</v>
       </c>
     </row>
@@ -24646,7 +24646,7 @@
         <v>2724</v>
       </c>
       <c r="H439">
-        <f>AVERAGE(B439,D439,F439)</f>
+        <f t="shared" si="6"/>
         <v>1344.3110960986667</v>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
         <v>2237</v>
       </c>
       <c r="H440">
-        <f>AVERAGE(B440,D440,F440)</f>
+        <f t="shared" si="6"/>
         <v>1345.8662612566668</v>
       </c>
     </row>
@@ -24700,7 +24700,7 @@
         <v>2288</v>
       </c>
       <c r="H441">
-        <f>AVERAGE(B441,D441,F441)</f>
+        <f t="shared" si="6"/>
         <v>1346.5255997366667</v>
       </c>
     </row>
@@ -24727,7 +24727,7 @@
         <v>2303</v>
       </c>
       <c r="H442">
-        <f>AVERAGE(B442,D442,F442)</f>
+        <f t="shared" si="6"/>
         <v>1348.1466960199998</v>
       </c>
     </row>
@@ -24754,7 +24754,7 @@
         <v>2275</v>
       </c>
       <c r="H443">
-        <f>AVERAGE(B443,D443,F443)</f>
+        <f t="shared" si="6"/>
         <v>1352.4218601800001</v>
       </c>
     </row>
@@ -24781,7 +24781,7 @@
         <v>2787</v>
       </c>
       <c r="H444">
-        <f>AVERAGE(B444,D444,F444)</f>
+        <f t="shared" si="6"/>
         <v>1353.62506001</v>
       </c>
     </row>
@@ -24808,7 +24808,7 @@
         <v>2795</v>
       </c>
       <c r="H445">
-        <f>AVERAGE(B445,D445,F445)</f>
+        <f t="shared" si="6"/>
         <v>1356.2130743766668</v>
       </c>
     </row>
@@ -24835,7 +24835,7 @@
         <v>2810</v>
       </c>
       <c r="H446">
-        <f>AVERAGE(B446,D446,F446)</f>
+        <f t="shared" si="6"/>
         <v>1356.7288096933332</v>
       </c>
     </row>
@@ -24862,7 +24862,7 @@
         <v>2548</v>
       </c>
       <c r="H447">
-        <f>AVERAGE(B447,D447,F447)</f>
+        <f t="shared" si="6"/>
         <v>1356.9298524566668</v>
       </c>
     </row>
@@ -24889,7 +24889,7 @@
         <v>2793</v>
       </c>
       <c r="H448">
-        <f>AVERAGE(B448,D448,F448)</f>
+        <f t="shared" si="6"/>
         <v>1359.0625363166666</v>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
         <v>2214</v>
       </c>
       <c r="H449">
-        <f>AVERAGE(B449,D449,F449)</f>
+        <f t="shared" si="6"/>
         <v>1359.4482170643334</v>
       </c>
     </row>
@@ -24943,7 +24943,7 @@
         <v>2800</v>
       </c>
       <c r="H450">
-        <f>AVERAGE(B450,D450,F450)</f>
+        <f t="shared" si="6"/>
         <v>1364.7447841000001</v>
       </c>
     </row>
@@ -24970,7 +24970,7 @@
         <v>3058</v>
       </c>
       <c r="H451">
-        <f>AVERAGE(B451,D451,F451)</f>
+        <f t="shared" ref="H451:H514" si="7">AVERAGE(B451,D451,F451)</f>
         <v>1366.1159601666666</v>
       </c>
     </row>
@@ -24997,7 +24997,7 @@
         <v>2526</v>
       </c>
       <c r="H452">
-        <f>AVERAGE(B452,D452,F452)</f>
+        <f t="shared" si="7"/>
         <v>1368.6902209966668</v>
       </c>
     </row>
@@ -25024,7 +25024,7 @@
         <v>2204</v>
       </c>
       <c r="H453">
-        <f>AVERAGE(B453,D453,F453)</f>
+        <f t="shared" si="7"/>
         <v>1369.3670773599999</v>
       </c>
     </row>
@@ -25051,7 +25051,7 @@
         <v>2557</v>
       </c>
       <c r="H454">
-        <f>AVERAGE(B454,D454,F454)</f>
+        <f t="shared" si="7"/>
         <v>1370.2468589466669</v>
       </c>
     </row>
@@ -25078,7 +25078,7 @@
         <v>2222</v>
       </c>
       <c r="H455">
-        <f>AVERAGE(B455,D455,F455)</f>
+        <f t="shared" si="7"/>
         <v>1376.1599064516668</v>
       </c>
     </row>
@@ -25105,7 +25105,7 @@
         <v>2493</v>
       </c>
       <c r="H456">
-        <f>AVERAGE(B456,D456,F456)</f>
+        <f t="shared" si="7"/>
         <v>1376.2099535933332</v>
       </c>
     </row>
@@ -25132,7 +25132,7 @@
         <v>2225</v>
       </c>
       <c r="H457">
-        <f>AVERAGE(B457,D457,F457)</f>
+        <f t="shared" si="7"/>
         <v>1376.4313888899999</v>
       </c>
     </row>
@@ -25159,7 +25159,7 @@
         <v>2433</v>
       </c>
       <c r="H458">
-        <f>AVERAGE(B458,D458,F458)</f>
+        <f t="shared" si="7"/>
         <v>1382.53174685</v>
       </c>
     </row>
@@ -25186,7 +25186,7 @@
         <v>2516</v>
       </c>
       <c r="H459">
-        <f>AVERAGE(B459,D459,F459)</f>
+        <f t="shared" si="7"/>
         <v>1382.76794477</v>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
         <v>2297</v>
       </c>
       <c r="H460">
-        <f>AVERAGE(B460,D460,F460)</f>
+        <f t="shared" si="7"/>
         <v>1382.8714492633335</v>
       </c>
     </row>
@@ -25240,7 +25240,7 @@
         <v>2799</v>
       </c>
       <c r="H461">
-        <f>AVERAGE(B461,D461,F461)</f>
+        <f t="shared" si="7"/>
         <v>1383.4392329100001</v>
       </c>
     </row>
@@ -25267,7 +25267,7 @@
         <v>2200</v>
       </c>
       <c r="H462">
-        <f>AVERAGE(B462,D462,F462)</f>
+        <f t="shared" si="7"/>
         <v>1385.1555585383333</v>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
         <v>2775</v>
       </c>
       <c r="H463">
-        <f>AVERAGE(B463,D463,F463)</f>
+        <f t="shared" si="7"/>
         <v>1386.9239823966666</v>
       </c>
     </row>
@@ -25321,7 +25321,7 @@
         <v>2525</v>
       </c>
       <c r="H464">
-        <f>AVERAGE(B464,D464,F464)</f>
+        <f t="shared" si="7"/>
         <v>1387.20627956</v>
       </c>
     </row>
@@ -25348,7 +25348,7 @@
         <v>2232</v>
       </c>
       <c r="H465">
-        <f>AVERAGE(B465,D465,F465)</f>
+        <f t="shared" si="7"/>
         <v>1388.1418306466667</v>
       </c>
     </row>
@@ -25375,7 +25375,7 @@
         <v>2266</v>
       </c>
       <c r="H466">
-        <f>AVERAGE(B466,D466,F466)</f>
+        <f t="shared" si="7"/>
         <v>1390.8949395400002</v>
       </c>
     </row>
@@ -25402,7 +25402,7 @@
         <v>2549</v>
       </c>
       <c r="H467">
-        <f>AVERAGE(B467,D467,F467)</f>
+        <f t="shared" si="7"/>
         <v>1391.4146824299999</v>
       </c>
     </row>
@@ -25429,7 +25429,7 @@
         <v>2750</v>
       </c>
       <c r="H468">
-        <f>AVERAGE(B468,D468,F468)</f>
+        <f t="shared" si="7"/>
         <v>1392.6575350599999</v>
       </c>
     </row>
@@ -25456,7 +25456,7 @@
         <v>2239</v>
       </c>
       <c r="H469">
-        <f>AVERAGE(B469,D469,F469)</f>
+        <f t="shared" si="7"/>
         <v>1394.1184171633333</v>
       </c>
     </row>
@@ -25483,7 +25483,7 @@
         <v>2536</v>
       </c>
       <c r="H470">
-        <f>AVERAGE(B470,D470,F470)</f>
+        <f t="shared" si="7"/>
         <v>1396.1235538133333</v>
       </c>
     </row>
@@ -25510,7 +25510,7 @@
         <v>2545</v>
       </c>
       <c r="H471">
-        <f>AVERAGE(B471,D471,F471)</f>
+        <f t="shared" si="7"/>
         <v>1397.7332568766667</v>
       </c>
     </row>
@@ -25537,7 +25537,7 @@
         <v>2811</v>
       </c>
       <c r="H472">
-        <f>AVERAGE(B472,D472,F472)</f>
+        <f t="shared" si="7"/>
         <v>1398.5779937666666</v>
       </c>
     </row>
@@ -25564,7 +25564,7 @@
         <v>2523</v>
       </c>
       <c r="H473">
-        <f>AVERAGE(B473,D473,F473)</f>
+        <f t="shared" si="7"/>
         <v>1400.73598148</v>
       </c>
     </row>
@@ -25591,7 +25591,7 @@
         <v>2459</v>
       </c>
       <c r="H474">
-        <f>AVERAGE(B474,D474,F474)</f>
+        <f t="shared" si="7"/>
         <v>1407.7815538866664</v>
       </c>
     </row>
@@ -25618,7 +25618,7 @@
         <v>2238</v>
       </c>
       <c r="H475">
-        <f>AVERAGE(B475,D475,F475)</f>
+        <f t="shared" si="7"/>
         <v>1408.5270073833333</v>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
         <v>2285</v>
       </c>
       <c r="H476">
-        <f>AVERAGE(B476,D476,F476)</f>
+        <f t="shared" si="7"/>
         <v>1414.6714131333331</v>
       </c>
     </row>
@@ -25672,7 +25672,7 @@
         <v>2299</v>
       </c>
       <c r="H477">
-        <f>AVERAGE(B477,D477,F477)</f>
+        <f t="shared" si="7"/>
         <v>1415.0249456433332</v>
       </c>
     </row>
@@ -25699,7 +25699,7 @@
         <v>2294</v>
       </c>
       <c r="H478">
-        <f>AVERAGE(B478,D478,F478)</f>
+        <f t="shared" si="7"/>
         <v>1415.6500390666667</v>
       </c>
     </row>
@@ -25726,7 +25726,7 @@
         <v>2496</v>
       </c>
       <c r="H479">
-        <f>AVERAGE(B479,D479,F479)</f>
+        <f t="shared" si="7"/>
         <v>1420.1709921233332</v>
       </c>
     </row>
@@ -25753,7 +25753,7 @@
         <v>2745</v>
       </c>
       <c r="H480">
-        <f>AVERAGE(B480,D480,F480)</f>
+        <f t="shared" si="7"/>
         <v>1423.8832562666666</v>
       </c>
     </row>
@@ -25780,7 +25780,7 @@
         <v>2236</v>
       </c>
       <c r="H481">
-        <f>AVERAGE(B481,D481,F481)</f>
+        <f t="shared" si="7"/>
         <v>1424.0909428733332</v>
       </c>
     </row>
@@ -25807,7 +25807,7 @@
         <v>3060</v>
       </c>
       <c r="H482">
-        <f>AVERAGE(B482,D482,F482)</f>
+        <f t="shared" si="7"/>
         <v>1425.5984932800002</v>
       </c>
     </row>
@@ -25834,7 +25834,7 @@
         <v>2301</v>
       </c>
       <c r="H483">
-        <f>AVERAGE(B483,D483,F483)</f>
+        <f t="shared" si="7"/>
         <v>1433.3630243799998</v>
       </c>
     </row>
@@ -25861,7 +25861,7 @@
         <v>2460</v>
       </c>
       <c r="H484">
-        <f>AVERAGE(B484,D484,F484)</f>
+        <f t="shared" si="7"/>
         <v>1433.9223104</v>
       </c>
     </row>
@@ -25888,7 +25888,7 @@
         <v>2279</v>
       </c>
       <c r="H485">
-        <f>AVERAGE(B485,D485,F485)</f>
+        <f t="shared" si="7"/>
         <v>1435.1599310333331</v>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
         <v>2230</v>
       </c>
       <c r="H486">
-        <f>AVERAGE(B486,D486,F486)</f>
+        <f t="shared" si="7"/>
         <v>1460.2867927433333</v>
       </c>
     </row>
@@ -25942,7 +25942,7 @@
         <v>2197</v>
       </c>
       <c r="H487">
-        <f>AVERAGE(B487,D487,F487)</f>
+        <f t="shared" si="7"/>
         <v>1474.8870873966664</v>
       </c>
     </row>
@@ -25969,7 +25969,7 @@
         <v>2298</v>
       </c>
       <c r="H488">
-        <f>AVERAGE(B488,D488,F488)</f>
+        <f t="shared" si="7"/>
         <v>1478.4988027833333</v>
       </c>
     </row>
@@ -25996,7 +25996,7 @@
         <v>2287</v>
       </c>
       <c r="H489">
-        <f>AVERAGE(B489,D489,F489)</f>
+        <f t="shared" si="7"/>
         <v>1483.8241640066669</v>
       </c>
     </row>
@@ -26023,7 +26023,7 @@
         <v>2514</v>
       </c>
       <c r="H490">
-        <f>AVERAGE(B490,D490,F490)</f>
+        <f t="shared" si="7"/>
         <v>1484.4864332166665</v>
       </c>
     </row>
@@ -26050,7 +26050,7 @@
         <v>2456</v>
       </c>
       <c r="H491">
-        <f>AVERAGE(B491,D491,F491)</f>
+        <f t="shared" si="7"/>
         <v>1489.1681337999999</v>
       </c>
     </row>
@@ -26077,7 +26077,7 @@
         <v>2487</v>
       </c>
       <c r="H492">
-        <f>AVERAGE(B492,D492,F492)</f>
+        <f t="shared" si="7"/>
         <v>1497.44746872</v>
       </c>
     </row>
@@ -26104,7 +26104,7 @@
         <v>2281</v>
       </c>
       <c r="H493">
-        <f>AVERAGE(B493,D493,F493)</f>
+        <f t="shared" si="7"/>
         <v>1528.0397017866665</v>
       </c>
     </row>
@@ -26131,7 +26131,7 @@
         <v>2282</v>
       </c>
       <c r="H494">
-        <f>AVERAGE(B494,D494,F494)</f>
+        <f t="shared" si="7"/>
         <v>1532.8430163133335</v>
       </c>
     </row>
@@ -26158,7 +26158,7 @@
         <v>2723</v>
       </c>
       <c r="H495">
-        <f>AVERAGE(B495,D495,F495)</f>
+        <f t="shared" si="7"/>
         <v>1538.1487716633335</v>
       </c>
     </row>
@@ -26185,7 +26185,7 @@
         <v>2215</v>
       </c>
       <c r="H496">
-        <f>AVERAGE(B496,D496,F496)</f>
+        <f t="shared" si="7"/>
         <v>1547.0228020699999</v>
       </c>
     </row>
@@ -26212,7 +26212,7 @@
         <v>2551</v>
       </c>
       <c r="H497">
-        <f>AVERAGE(B497,D497,F497)</f>
+        <f t="shared" si="7"/>
         <v>1553.0927718433334</v>
       </c>
     </row>
@@ -26239,7 +26239,7 @@
         <v>2472</v>
       </c>
       <c r="H498">
-        <f>AVERAGE(B498,D498,F498)</f>
+        <f t="shared" si="7"/>
         <v>1554.1927330933333</v>
       </c>
     </row>
@@ -26266,7 +26266,7 @@
         <v>2261</v>
       </c>
       <c r="H499">
-        <f>AVERAGE(B499,D499,F499)</f>
+        <f t="shared" si="7"/>
         <v>1593.7953149966668</v>
       </c>
     </row>
@@ -26293,7 +26293,7 @@
         <v>2226</v>
       </c>
       <c r="H500">
-        <f>AVERAGE(B500,D500,F500)</f>
+        <f t="shared" si="7"/>
         <v>1625.4779673966666</v>
       </c>
     </row>
@@ -26320,7 +26320,7 @@
         <v>2794</v>
       </c>
       <c r="H501">
-        <f>AVERAGE(B501,D501,F501)</f>
+        <f t="shared" si="7"/>
         <v>1643.5104698166667</v>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
         <v>2553</v>
       </c>
       <c r="H502">
-        <f>AVERAGE(B502,D502,F502)</f>
+        <f t="shared" si="7"/>
         <v>1656.4493091699999</v>
       </c>
     </row>
@@ -26374,7 +26374,7 @@
         <v>2085</v>
       </c>
       <c r="H503">
-        <f>AVERAGE(B503,D503,F503)</f>
+        <f t="shared" si="7"/>
         <v>1694.7566456600002</v>
       </c>
     </row>
@@ -26401,7 +26401,7 @@
         <v>2573</v>
       </c>
       <c r="H504">
-        <f>AVERAGE(B504,D504,F504)</f>
+        <f t="shared" si="7"/>
         <v>1709.54176805</v>
       </c>
     </row>
@@ -26428,7 +26428,7 @@
         <v>2150</v>
       </c>
       <c r="H505">
-        <f>AVERAGE(B505,D505,F505)</f>
+        <f t="shared" si="7"/>
         <v>1846.6239925633333</v>
       </c>
     </row>
@@ -26455,7 +26455,7 @@
         <v>2265</v>
       </c>
       <c r="H506">
-        <f>AVERAGE(B506,D506,F506)</f>
+        <f t="shared" si="7"/>
         <v>1887.2567580866664</v>
       </c>
     </row>
@@ -26482,7 +26482,7 @@
         <v>2635</v>
       </c>
       <c r="H507">
-        <f>AVERAGE(B507,D507,F507)</f>
+        <f t="shared" si="7"/>
         <v>1887.7897502199999</v>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
         <v>2343</v>
       </c>
       <c r="H508">
-        <f>AVERAGE(B508,D508,F508)</f>
+        <f t="shared" si="7"/>
         <v>1939.8139065433334</v>
       </c>
     </row>
@@ -26536,7 +26536,7 @@
         <v>2852</v>
       </c>
       <c r="H509">
-        <f>AVERAGE(B509,D509,F509)</f>
+        <f t="shared" si="7"/>
         <v>1967.9324848533333</v>
       </c>
     </row>
@@ -26563,7 +26563,7 @@
         <v>2636</v>
       </c>
       <c r="H510">
-        <f>AVERAGE(B510,D510,F510)</f>
+        <f t="shared" si="7"/>
         <v>1971.37248133</v>
       </c>
     </row>
@@ -26590,7 +26590,7 @@
         <v>2589</v>
       </c>
       <c r="H511">
-        <f>AVERAGE(B511,D511,F511)</f>
+        <f t="shared" si="7"/>
         <v>1991.97570707</v>
       </c>
     </row>
@@ -26617,7 +26617,7 @@
         <v>2064</v>
       </c>
       <c r="H512">
-        <f>AVERAGE(B512,D512,F512)</f>
+        <f t="shared" si="7"/>
         <v>2098.73499077</v>
       </c>
     </row>
@@ -26644,7 +26644,7 @@
         <v>2139</v>
       </c>
       <c r="H513">
-        <f>AVERAGE(B513,D513,F513)</f>
+        <f t="shared" si="7"/>
         <v>2146.0773316550003</v>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
         <v>2565</v>
       </c>
       <c r="H514">
-        <f>AVERAGE(B514,D514,F514)</f>
+        <f t="shared" si="7"/>
         <v>2228.4108161666668</v>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
         <v>2364</v>
       </c>
       <c r="H515">
-        <f>AVERAGE(B515,D515,F515)</f>
+        <f t="shared" ref="H515:H578" si="8">AVERAGE(B515,D515,F515)</f>
         <v>2317.8082055766668</v>
       </c>
     </row>
@@ -26725,7 +26725,7 @@
         <v>2849</v>
       </c>
       <c r="H516">
-        <f>AVERAGE(B516,D516,F516)</f>
+        <f t="shared" si="8"/>
         <v>2327.1942902266669</v>
       </c>
     </row>
@@ -26752,7 +26752,7 @@
         <v>2341</v>
       </c>
       <c r="H517">
-        <f>AVERAGE(B517,D517,F517)</f>
+        <f t="shared" si="8"/>
         <v>2358.9908246866667</v>
       </c>
     </row>
@@ -26779,7 +26779,7 @@
         <v>2147</v>
       </c>
       <c r="H518">
-        <f>AVERAGE(B518,D518,F518)</f>
+        <f t="shared" si="8"/>
         <v>2367.076459453333</v>
       </c>
     </row>
@@ -26806,7 +26806,7 @@
         <v>2884</v>
       </c>
       <c r="H519">
-        <f>AVERAGE(B519,D519,F519)</f>
+        <f t="shared" si="8"/>
         <v>2424.17895516</v>
       </c>
     </row>
@@ -26833,7 +26833,7 @@
         <v>2345</v>
       </c>
       <c r="H520">
-        <f>AVERAGE(B520,D520,F520)</f>
+        <f t="shared" si="8"/>
         <v>2449.7202297666663</v>
       </c>
     </row>
@@ -26860,7 +26860,7 @@
         <v>2597</v>
       </c>
       <c r="H521">
-        <f>AVERAGE(B521,D521,F521)</f>
+        <f t="shared" si="8"/>
         <v>2450.5465340766668</v>
       </c>
     </row>
@@ -26887,7 +26887,7 @@
         <v>2578</v>
       </c>
       <c r="H522">
-        <f>AVERAGE(B522,D522,F522)</f>
+        <f t="shared" si="8"/>
         <v>2469.6072834900001</v>
       </c>
     </row>
@@ -26914,7 +26914,7 @@
         <v>2627</v>
       </c>
       <c r="H523">
-        <f>AVERAGE(B523,D523,F523)</f>
+        <f t="shared" si="8"/>
         <v>2568.9429693933339</v>
       </c>
     </row>
@@ -26941,7 +26941,7 @@
         <v>2594</v>
       </c>
       <c r="H524">
-        <f>AVERAGE(B524,D524,F524)</f>
+        <f t="shared" si="8"/>
         <v>2594.7921965966666</v>
       </c>
     </row>
@@ -26968,7 +26968,7 @@
         <v>2847</v>
       </c>
       <c r="H525">
-        <f>AVERAGE(B525,D525,F525)</f>
+        <f t="shared" si="8"/>
         <v>2623.6080420150001</v>
       </c>
     </row>
@@ -26995,7 +26995,7 @@
         <v>2602</v>
       </c>
       <c r="H526">
-        <f>AVERAGE(B526,D526,F526)</f>
+        <f t="shared" si="8"/>
         <v>2643.1779361939998</v>
       </c>
     </row>
@@ -27022,7 +27022,7 @@
         <v>2373</v>
       </c>
       <c r="H527">
-        <f>AVERAGE(B527,D527,F527)</f>
+        <f t="shared" si="8"/>
         <v>2663.7942837299997</v>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
         <v>2416</v>
       </c>
       <c r="H528">
-        <f>AVERAGE(B528,D528,F528)</f>
+        <f t="shared" si="8"/>
         <v>2734.8477477233332</v>
       </c>
     </row>
@@ -27076,7 +27076,7 @@
         <v>2061</v>
       </c>
       <c r="H529">
-        <f>AVERAGE(B529,D529,F529)</f>
+        <f t="shared" si="8"/>
         <v>2735.5453848300003</v>
       </c>
     </row>
@@ -27103,7 +27103,7 @@
         <v>2595</v>
       </c>
       <c r="H530">
-        <f>AVERAGE(B530,D530,F530)</f>
+        <f t="shared" si="8"/>
         <v>2737.5131936100001</v>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
         <v>2824</v>
       </c>
       <c r="H531">
-        <f>AVERAGE(B531,D531,F531)</f>
+        <f t="shared" si="8"/>
         <v>2742.216543905</v>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
         <v>2095</v>
       </c>
       <c r="H532">
-        <f>AVERAGE(B532,D532,F532)</f>
+        <f t="shared" si="8"/>
         <v>2745.6541892233331</v>
       </c>
     </row>
@@ -27184,7 +27184,7 @@
         <v>2342</v>
       </c>
       <c r="H533">
-        <f>AVERAGE(B533,D533,F533)</f>
+        <f t="shared" si="8"/>
         <v>2765.0089869233339</v>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
         <v>2599</v>
       </c>
       <c r="H534">
-        <f>AVERAGE(B534,D534,F534)</f>
+        <f t="shared" si="8"/>
         <v>2772.739765126667</v>
       </c>
     </row>
@@ -27238,7 +27238,7 @@
         <v>2322</v>
       </c>
       <c r="H535">
-        <f>AVERAGE(B535,D535,F535)</f>
+        <f t="shared" si="8"/>
         <v>2785.6182455566668</v>
       </c>
     </row>
@@ -27265,7 +27265,7 @@
         <v>2383</v>
       </c>
       <c r="H536">
-        <f>AVERAGE(B536,D536,F536)</f>
+        <f t="shared" si="8"/>
         <v>2797.4029370699996</v>
       </c>
     </row>
@@ -27292,7 +27292,7 @@
         <v>2394</v>
       </c>
       <c r="H537">
-        <f>AVERAGE(B537,D537,F537)</f>
+        <f t="shared" si="8"/>
         <v>2806.8743815100001</v>
       </c>
     </row>
@@ -27319,7 +27319,7 @@
         <v>2819</v>
       </c>
       <c r="H538">
-        <f>AVERAGE(B538,D538,F538)</f>
+        <f t="shared" si="8"/>
         <v>2826.63712523</v>
       </c>
     </row>
@@ -27346,7 +27346,7 @@
         <v>2901</v>
       </c>
       <c r="H539">
-        <f>AVERAGE(B539,D539,F539)</f>
+        <f t="shared" si="8"/>
         <v>2863.9862910199995</v>
       </c>
     </row>
@@ -27373,7 +27373,7 @@
         <v>2572</v>
       </c>
       <c r="H540">
-        <f>AVERAGE(B540,D540,F540)</f>
+        <f t="shared" si="8"/>
         <v>2874.4436239850002</v>
       </c>
     </row>
@@ -27400,7 +27400,7 @@
         <v>2368</v>
       </c>
       <c r="H541">
-        <f>AVERAGE(B541,D541,F541)</f>
+        <f t="shared" si="8"/>
         <v>2897.8982156666666</v>
       </c>
     </row>
@@ -27427,7 +27427,7 @@
         <v>2830</v>
       </c>
       <c r="H542">
-        <f>AVERAGE(B542,D542,F542)</f>
+        <f t="shared" si="8"/>
         <v>2961.8608537800001</v>
       </c>
     </row>
@@ -27454,7 +27454,7 @@
         <v>2586</v>
       </c>
       <c r="H543">
-        <f>AVERAGE(B543,D543,F543)</f>
+        <f t="shared" si="8"/>
         <v>2988.3165463300002</v>
       </c>
     </row>
@@ -27481,7 +27481,7 @@
         <v>2562</v>
       </c>
       <c r="H544">
-        <f>AVERAGE(B544,D544,F544)</f>
+        <f t="shared" si="8"/>
         <v>3019.2933092933331</v>
       </c>
     </row>
@@ -27508,7 +27508,7 @@
         <v>2086</v>
       </c>
       <c r="H545">
-        <f>AVERAGE(B545,D545,F545)</f>
+        <f t="shared" si="8"/>
         <v>3036.3571185000001</v>
       </c>
     </row>
@@ -27535,7 +27535,7 @@
         <v>2917</v>
       </c>
       <c r="H546">
-        <f>AVERAGE(B546,D546,F546)</f>
+        <f t="shared" si="8"/>
         <v>3039.284578143333</v>
       </c>
     </row>
@@ -27562,7 +27562,7 @@
         <v>2317</v>
       </c>
       <c r="H547">
-        <f>AVERAGE(B547,D547,F547)</f>
+        <f t="shared" si="8"/>
         <v>3050.5369850699999</v>
       </c>
     </row>
@@ -27589,7 +27589,7 @@
         <v>2092</v>
       </c>
       <c r="H548">
-        <f>AVERAGE(B548,D548,F548)</f>
+        <f t="shared" si="8"/>
         <v>3079.8119716933338</v>
       </c>
     </row>
@@ -27616,7 +27616,7 @@
         <v>2924</v>
       </c>
       <c r="H549">
-        <f>AVERAGE(B549,D549,F549)</f>
+        <f t="shared" si="8"/>
         <v>3080.6403472733332</v>
       </c>
     </row>
@@ -27643,7 +27643,7 @@
         <v>2339</v>
       </c>
       <c r="H550">
-        <f>AVERAGE(B550,D550,F550)</f>
+        <f t="shared" si="8"/>
         <v>3090.5685502633332</v>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
         <v>2653</v>
       </c>
       <c r="H551">
-        <f>AVERAGE(B551,D551,F551)</f>
+        <f t="shared" si="8"/>
         <v>3110.601206206667</v>
       </c>
     </row>
@@ -27697,7 +27697,7 @@
         <v>2881</v>
       </c>
       <c r="H552">
-        <f>AVERAGE(B552,D552,F552)</f>
+        <f t="shared" si="8"/>
         <v>3117.2724063199998</v>
       </c>
     </row>
@@ -27724,7 +27724,7 @@
         <v>2860</v>
       </c>
       <c r="H553">
-        <f>AVERAGE(B553,D553,F553)</f>
+        <f t="shared" si="8"/>
         <v>3140.7361681133334</v>
       </c>
     </row>
@@ -27751,7 +27751,7 @@
         <v>2106</v>
       </c>
       <c r="H554">
-        <f>AVERAGE(B554,D554,F554)</f>
+        <f t="shared" si="8"/>
         <v>3164.8532375700001</v>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
         <v>2386</v>
       </c>
       <c r="H555">
-        <f>AVERAGE(B555,D555,F555)</f>
+        <f t="shared" si="8"/>
         <v>3172.770252873333</v>
       </c>
     </row>
@@ -27805,7 +27805,7 @@
         <v>2141</v>
       </c>
       <c r="H556">
-        <f>AVERAGE(B556,D556,F556)</f>
+        <f t="shared" si="8"/>
         <v>3186.5981720200002</v>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
         <v>2307</v>
       </c>
       <c r="H557">
-        <f>AVERAGE(B557,D557,F557)</f>
+        <f t="shared" si="8"/>
         <v>3186.9869021766667</v>
       </c>
     </row>
@@ -27859,7 +27859,7 @@
         <v>2308</v>
       </c>
       <c r="H558">
-        <f>AVERAGE(B558,D558,F558)</f>
+        <f t="shared" si="8"/>
         <v>3194.5988252000002</v>
       </c>
     </row>
@@ -27886,7 +27886,7 @@
         <v>2564</v>
       </c>
       <c r="H559">
-        <f>AVERAGE(B559,D559,F559)</f>
+        <f t="shared" si="8"/>
         <v>3198.393733776667</v>
       </c>
     </row>
@@ -27913,7 +27913,7 @@
         <v>2837</v>
       </c>
       <c r="H560">
-        <f>AVERAGE(B560,D560,F560)</f>
+        <f t="shared" si="8"/>
         <v>3230.3057871999999</v>
       </c>
     </row>
@@ -27940,7 +27940,7 @@
         <v>2377</v>
       </c>
       <c r="H561">
-        <f>AVERAGE(B561,D561,F561)</f>
+        <f t="shared" si="8"/>
         <v>3238.87860219</v>
       </c>
     </row>
@@ -27967,7 +27967,7 @@
         <v>2410</v>
       </c>
       <c r="H562">
-        <f>AVERAGE(B562,D562,F562)</f>
+        <f t="shared" si="8"/>
         <v>3255.3444227099994</v>
       </c>
     </row>
@@ -27994,7 +27994,7 @@
         <v>2570</v>
       </c>
       <c r="H563">
-        <f>AVERAGE(B563,D563,F563)</f>
+        <f t="shared" si="8"/>
         <v>3257.46326692</v>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
         <v>2365</v>
       </c>
       <c r="H564">
-        <f>AVERAGE(B564,D564,F564)</f>
+        <f t="shared" si="8"/>
         <v>3274.1387607033334</v>
       </c>
     </row>
@@ -28048,7 +28048,7 @@
         <v>2593</v>
       </c>
       <c r="H565">
-        <f>AVERAGE(B565,D565,F565)</f>
+        <f t="shared" si="8"/>
         <v>3298.8005012166668</v>
       </c>
     </row>
@@ -28075,7 +28075,7 @@
         <v>2408</v>
       </c>
       <c r="H566">
-        <f>AVERAGE(B566,D566,F566)</f>
+        <f t="shared" si="8"/>
         <v>3306.0149189133335</v>
       </c>
     </row>
@@ -28102,7 +28102,7 @@
         <v>2897</v>
       </c>
       <c r="H567">
-        <f>AVERAGE(B567,D567,F567)</f>
+        <f t="shared" si="8"/>
         <v>3310.2552977099999</v>
       </c>
     </row>
@@ -28129,7 +28129,7 @@
         <v>2352</v>
       </c>
       <c r="H568">
-        <f>AVERAGE(B568,D568,F568)</f>
+        <f t="shared" si="8"/>
         <v>3320.2881247133332</v>
       </c>
     </row>
@@ -28156,7 +28156,7 @@
         <v>2838</v>
       </c>
       <c r="H569">
-        <f>AVERAGE(B569,D569,F569)</f>
+        <f t="shared" si="8"/>
         <v>3325.3547141166669</v>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
         <v>2358</v>
       </c>
       <c r="H570">
-        <f>AVERAGE(B570,D570,F570)</f>
+        <f t="shared" si="8"/>
         <v>3344.6629759333332</v>
       </c>
     </row>
@@ -28210,7 +28210,7 @@
         <v>2666</v>
       </c>
       <c r="H571">
-        <f>AVERAGE(B571,D571,F571)</f>
+        <f t="shared" si="8"/>
         <v>3357.5841459999997</v>
       </c>
     </row>
@@ -28237,7 +28237,7 @@
         <v>2380</v>
       </c>
       <c r="H572">
-        <f>AVERAGE(B572,D572,F572)</f>
+        <f t="shared" si="8"/>
         <v>3358.2809863049997</v>
       </c>
     </row>
@@ -28264,7 +28264,7 @@
         <v>2080</v>
       </c>
       <c r="H573">
-        <f>AVERAGE(B573,D573,F573)</f>
+        <f t="shared" si="8"/>
         <v>3360.468167293333</v>
       </c>
     </row>
@@ -28291,7 +28291,7 @@
         <v>2314</v>
       </c>
       <c r="H574">
-        <f>AVERAGE(B574,D574,F574)</f>
+        <f t="shared" si="8"/>
         <v>3374.181790915</v>
       </c>
     </row>
@@ -28318,7 +28318,7 @@
         <v>2821</v>
       </c>
       <c r="H575">
-        <f>AVERAGE(B575,D575,F575)</f>
+        <f t="shared" si="8"/>
         <v>3394.6686527499996</v>
       </c>
     </row>
@@ -28345,7 +28345,7 @@
         <v>2374</v>
       </c>
       <c r="H576">
-        <f>AVERAGE(B576,D576,F576)</f>
+        <f t="shared" si="8"/>
         <v>3401.3507690566662</v>
       </c>
     </row>
@@ -28372,7 +28372,7 @@
         <v>2402</v>
       </c>
       <c r="H577">
-        <f>AVERAGE(B577,D577,F577)</f>
+        <f t="shared" si="8"/>
         <v>3425.5525615566671</v>
       </c>
     </row>
@@ -28399,7 +28399,7 @@
         <v>2683</v>
       </c>
       <c r="H578">
-        <f>AVERAGE(B578,D578,F578)</f>
+        <f t="shared" si="8"/>
         <v>3430.7747578766666</v>
       </c>
     </row>
@@ -28426,7 +28426,7 @@
         <v>2136</v>
       </c>
       <c r="H579">
-        <f>AVERAGE(B579,D579,F579)</f>
+        <f t="shared" ref="H579:H642" si="9">AVERAGE(B579,D579,F579)</f>
         <v>3433.3279868099999</v>
       </c>
     </row>
@@ -28453,7 +28453,7 @@
         <v>2151</v>
       </c>
       <c r="H580">
-        <f>AVERAGE(B580,D580,F580)</f>
+        <f t="shared" si="9"/>
         <v>3454.8774679666662</v>
       </c>
     </row>
@@ -28480,7 +28480,7 @@
         <v>2404</v>
       </c>
       <c r="H581">
-        <f>AVERAGE(B581,D581,F581)</f>
+        <f t="shared" si="9"/>
         <v>3473.3616046633338</v>
       </c>
     </row>
@@ -28507,7 +28507,7 @@
         <v>2312</v>
       </c>
       <c r="H582">
-        <f>AVERAGE(B582,D582,F582)</f>
+        <f t="shared" si="9"/>
         <v>3476.1785784399999</v>
       </c>
     </row>
@@ -28534,7 +28534,7 @@
         <v>2107</v>
       </c>
       <c r="H583">
-        <f>AVERAGE(B583,D583,F583)</f>
+        <f t="shared" si="9"/>
         <v>3513.8042562400005</v>
       </c>
     </row>
@@ -28561,7 +28561,7 @@
         <v>2898</v>
       </c>
       <c r="H584">
-        <f>AVERAGE(B584,D584,F584)</f>
+        <f t="shared" si="9"/>
         <v>3526.0336320266665</v>
       </c>
     </row>
@@ -28588,7 +28588,7 @@
         <v>2406</v>
       </c>
       <c r="H585">
-        <f>AVERAGE(B585,D585,F585)</f>
+        <f t="shared" si="9"/>
         <v>3547.7293964096666</v>
       </c>
     </row>
@@ -28615,7 +28615,7 @@
         <v>2631</v>
       </c>
       <c r="H586">
-        <f>AVERAGE(B586,D586,F586)</f>
+        <f t="shared" si="9"/>
         <v>3551.55936931</v>
       </c>
     </row>
@@ -28642,7 +28642,7 @@
         <v>2834</v>
       </c>
       <c r="H587">
-        <f>AVERAGE(B587,D587,F587)</f>
+        <f t="shared" si="9"/>
         <v>3560.6993385366663</v>
       </c>
     </row>
@@ -28669,7 +28669,7 @@
         <v>2335</v>
       </c>
       <c r="H588">
-        <f>AVERAGE(B588,D588,F588)</f>
+        <f t="shared" si="9"/>
         <v>3579.10369124</v>
       </c>
     </row>
@@ -28696,7 +28696,7 @@
         <v>2637</v>
       </c>
       <c r="H589">
-        <f>AVERAGE(B589,D589,F589)</f>
+        <f t="shared" si="9"/>
         <v>3582.9766401249999</v>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
         <v>2611</v>
       </c>
       <c r="H590">
-        <f>AVERAGE(B590,D590,F590)</f>
+        <f t="shared" si="9"/>
         <v>3589.7218781500001</v>
       </c>
     </row>
@@ -28750,7 +28750,7 @@
         <v>2639</v>
       </c>
       <c r="H591">
-        <f>AVERAGE(B591,D591,F591)</f>
+        <f t="shared" si="9"/>
         <v>3603.7344723149999</v>
       </c>
     </row>
@@ -28777,7 +28777,7 @@
         <v>2348</v>
       </c>
       <c r="H592">
-        <f>AVERAGE(B592,D592,F592)</f>
+        <f t="shared" si="9"/>
         <v>3616.9439075566665</v>
       </c>
     </row>
@@ -28804,7 +28804,7 @@
         <v>2384</v>
       </c>
       <c r="H593">
-        <f>AVERAGE(B593,D593,F593)</f>
+        <f t="shared" si="9"/>
         <v>3620.9068784733336</v>
       </c>
     </row>
@@ -28831,7 +28831,7 @@
         <v>2861</v>
       </c>
       <c r="H594">
-        <f>AVERAGE(B594,D594,F594)</f>
+        <f t="shared" si="9"/>
         <v>3628.0602313733339</v>
       </c>
     </row>
@@ -28858,7 +28858,7 @@
         <v>2619</v>
       </c>
       <c r="H595">
-        <f>AVERAGE(B595,D595,F595)</f>
+        <f t="shared" si="9"/>
         <v>3637.2205068166672</v>
       </c>
     </row>
@@ -28885,7 +28885,7 @@
         <v>2638</v>
       </c>
       <c r="H596">
-        <f>AVERAGE(B596,D596,F596)</f>
+        <f t="shared" si="9"/>
         <v>3643.4242272733331</v>
       </c>
     </row>
@@ -28912,7 +28912,7 @@
         <v>2324</v>
       </c>
       <c r="H597">
-        <f>AVERAGE(B597,D597,F597)</f>
+        <f t="shared" si="9"/>
         <v>3664.0030524733338</v>
       </c>
     </row>
@@ -28939,7 +28939,7 @@
         <v>2413</v>
       </c>
       <c r="H598">
-        <f>AVERAGE(B598,D598,F598)</f>
+        <f t="shared" si="9"/>
         <v>3666.83811556</v>
       </c>
     </row>
@@ -28966,7 +28966,7 @@
         <v>2651</v>
       </c>
       <c r="H599">
-        <f>AVERAGE(B599,D599,F599)</f>
+        <f t="shared" si="9"/>
         <v>3668.44057552</v>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
         <v>2081</v>
       </c>
       <c r="H600">
-        <f>AVERAGE(B600,D600,F600)</f>
+        <f t="shared" si="9"/>
         <v>3670.1079420933333</v>
       </c>
     </row>
@@ -29020,7 +29020,7 @@
         <v>2108</v>
       </c>
       <c r="H601">
-        <f>AVERAGE(B601,D601,F601)</f>
+        <f t="shared" si="9"/>
         <v>3677.9289496899996</v>
       </c>
     </row>
@@ -29047,7 +29047,7 @@
         <v>2379</v>
       </c>
       <c r="H602">
-        <f>AVERAGE(B602,D602,F602)</f>
+        <f t="shared" si="9"/>
         <v>3681.5890181999998</v>
       </c>
     </row>
@@ -29074,7 +29074,7 @@
         <v>2661</v>
       </c>
       <c r="H603">
-        <f>AVERAGE(B603,D603,F603)</f>
+        <f t="shared" si="9"/>
         <v>3682.9091841933332</v>
       </c>
     </row>
@@ -29101,7 +29101,7 @@
         <v>2332</v>
       </c>
       <c r="H604">
-        <f>AVERAGE(B604,D604,F604)</f>
+        <f t="shared" si="9"/>
         <v>3693.9031470033333</v>
       </c>
     </row>
@@ -29128,7 +29128,7 @@
         <v>2600</v>
       </c>
       <c r="H605">
-        <f>AVERAGE(B605,D605,F605)</f>
+        <f t="shared" si="9"/>
         <v>3698.9628375233333</v>
       </c>
     </row>
@@ -29155,7 +29155,7 @@
         <v>2173</v>
       </c>
       <c r="H606">
-        <f>AVERAGE(B606,D606,F606)</f>
+        <f t="shared" si="9"/>
         <v>3715.5527590899997</v>
       </c>
     </row>
@@ -29182,7 +29182,7 @@
         <v>2400</v>
       </c>
       <c r="H607">
-        <f>AVERAGE(B607,D607,F607)</f>
+        <f t="shared" si="9"/>
         <v>3723.3298729300004</v>
       </c>
     </row>
@@ -29209,7 +29209,7 @@
         <v>2626</v>
       </c>
       <c r="H608">
-        <f>AVERAGE(B608,D608,F608)</f>
+        <f t="shared" si="9"/>
         <v>3745.7881446699998</v>
       </c>
     </row>
@@ -29236,7 +29236,7 @@
         <v>2340</v>
       </c>
       <c r="H609">
-        <f>AVERAGE(B609,D609,F609)</f>
+        <f t="shared" si="9"/>
         <v>3747.5733510200002</v>
       </c>
     </row>
@@ -29263,7 +29263,7 @@
         <v>2615</v>
       </c>
       <c r="H610">
-        <f>AVERAGE(B610,D610,F610)</f>
+        <f t="shared" si="9"/>
         <v>3773.1612363733329</v>
       </c>
     </row>
@@ -29290,7 +29290,7 @@
         <v>2832</v>
       </c>
       <c r="H611">
-        <f>AVERAGE(B611,D611,F611)</f>
+        <f t="shared" si="9"/>
         <v>3811.8351287550004</v>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
         <v>2152</v>
       </c>
       <c r="H612">
-        <f>AVERAGE(B612,D612,F612)</f>
+        <f t="shared" si="9"/>
         <v>3813.2412149766665</v>
       </c>
     </row>
@@ -29344,7 +29344,7 @@
         <v>2679</v>
       </c>
       <c r="H613">
-        <f>AVERAGE(B613,D613,F613)</f>
+        <f t="shared" si="9"/>
         <v>3813.713130983333</v>
       </c>
     </row>
@@ -29371,7 +29371,7 @@
         <v>2642</v>
       </c>
       <c r="H614">
-        <f>AVERAGE(B614,D614,F614)</f>
+        <f t="shared" si="9"/>
         <v>3829.349239943333</v>
       </c>
     </row>
@@ -29398,7 +29398,7 @@
         <v>2161</v>
       </c>
       <c r="H615">
-        <f>AVERAGE(B615,D615,F615)</f>
+        <f t="shared" si="9"/>
         <v>3830.1516563433338</v>
       </c>
     </row>
@@ -29425,7 +29425,7 @@
         <v>2409</v>
       </c>
       <c r="H616">
-        <f>AVERAGE(B616,D616,F616)</f>
+        <f t="shared" si="9"/>
         <v>3833.8274607633334</v>
       </c>
     </row>
@@ -29452,7 +29452,7 @@
         <v>2598</v>
       </c>
       <c r="H617">
-        <f>AVERAGE(B617,D617,F617)</f>
+        <f t="shared" si="9"/>
         <v>3847.9786575233338</v>
       </c>
     </row>
@@ -29479,7 +29479,7 @@
         <v>2412</v>
       </c>
       <c r="H618">
-        <f>AVERAGE(B618,D618,F618)</f>
+        <f t="shared" si="9"/>
         <v>3848.9636308833337</v>
       </c>
     </row>
@@ -29506,7 +29506,7 @@
         <v>2891</v>
       </c>
       <c r="H619">
-        <f>AVERAGE(B619,D619,F619)</f>
+        <f t="shared" si="9"/>
         <v>3851.9919103100001</v>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
         <v>2094</v>
       </c>
       <c r="H620">
-        <f>AVERAGE(B620,D620,F620)</f>
+        <f t="shared" si="9"/>
         <v>3855.2858837666668</v>
       </c>
     </row>
@@ -29560,7 +29560,7 @@
         <v>2062</v>
       </c>
       <c r="H621">
-        <f>AVERAGE(B621,D621,F621)</f>
+        <f t="shared" si="9"/>
         <v>3858.9524799766664</v>
       </c>
     </row>
@@ -29587,7 +29587,7 @@
         <v>2382</v>
       </c>
       <c r="H622">
-        <f>AVERAGE(B622,D622,F622)</f>
+        <f t="shared" si="9"/>
         <v>3862.9168467300001</v>
       </c>
     </row>
@@ -29614,7 +29614,7 @@
         <v>2117</v>
       </c>
       <c r="H623">
-        <f>AVERAGE(B623,D623,F623)</f>
+        <f t="shared" si="9"/>
         <v>3865.8108814000002</v>
       </c>
     </row>
@@ -29641,7 +29641,7 @@
         <v>2316</v>
       </c>
       <c r="H624">
-        <f>AVERAGE(B624,D624,F624)</f>
+        <f t="shared" si="9"/>
         <v>3873.1761154933333</v>
       </c>
     </row>
@@ -29668,7 +29668,7 @@
         <v>2362</v>
       </c>
       <c r="H625">
-        <f>AVERAGE(B625,D625,F625)</f>
+        <f t="shared" si="9"/>
         <v>3876.2978710499997</v>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
         <v>2088</v>
       </c>
       <c r="H626">
-        <f>AVERAGE(B626,D626,F626)</f>
+        <f t="shared" si="9"/>
         <v>3878.2722860033332</v>
       </c>
     </row>
@@ -29722,7 +29722,7 @@
         <v>2886</v>
       </c>
       <c r="H627">
-        <f>AVERAGE(B627,D627,F627)</f>
+        <f t="shared" si="9"/>
         <v>3904.3187915000003</v>
       </c>
     </row>
@@ -29749,7 +29749,7 @@
         <v>2839</v>
       </c>
       <c r="H628">
-        <f>AVERAGE(B628,D628,F628)</f>
+        <f t="shared" si="9"/>
         <v>3908.2928031000001</v>
       </c>
     </row>
@@ -29776,7 +29776,7 @@
         <v>2684</v>
       </c>
       <c r="H629">
-        <f>AVERAGE(B629,D629,F629)</f>
+        <f t="shared" si="9"/>
         <v>3915.9300705733331</v>
       </c>
     </row>
@@ -29803,7 +29803,7 @@
         <v>2656</v>
       </c>
       <c r="H630">
-        <f>AVERAGE(B630,D630,F630)</f>
+        <f t="shared" si="9"/>
         <v>3932.5074410000002</v>
       </c>
     </row>
@@ -29830,7 +29830,7 @@
         <v>2629</v>
       </c>
       <c r="H631">
-        <f>AVERAGE(B631,D631,F631)</f>
+        <f t="shared" si="9"/>
         <v>3944.5852809199996</v>
       </c>
     </row>
@@ -29857,7 +29857,7 @@
         <v>2817</v>
       </c>
       <c r="H632">
-        <f>AVERAGE(B632,D632,F632)</f>
+        <f t="shared" si="9"/>
         <v>3949.5800743833329</v>
       </c>
     </row>
@@ -29884,7 +29884,7 @@
         <v>2344</v>
       </c>
       <c r="H633">
-        <f>AVERAGE(B633,D633,F633)</f>
+        <f t="shared" si="9"/>
         <v>3978.0771030266665</v>
       </c>
     </row>
@@ -29911,7 +29911,7 @@
         <v>2591</v>
       </c>
       <c r="H634">
-        <f>AVERAGE(B634,D634,F634)</f>
+        <f t="shared" si="9"/>
         <v>3980.6545003199994</v>
       </c>
     </row>
@@ -29938,7 +29938,7 @@
         <v>2660</v>
       </c>
       <c r="H635">
-        <f>AVERAGE(B635,D635,F635)</f>
+        <f t="shared" si="9"/>
         <v>3982.0531402399997</v>
       </c>
     </row>
@@ -29965,7 +29965,7 @@
         <v>2670</v>
       </c>
       <c r="H636">
-        <f>AVERAGE(B636,D636,F636)</f>
+        <f t="shared" si="9"/>
         <v>3987.4474694799997</v>
       </c>
     </row>
@@ -29992,7 +29992,7 @@
         <v>2625</v>
       </c>
       <c r="H637">
-        <f>AVERAGE(B637,D637,F637)</f>
+        <f t="shared" si="9"/>
         <v>3995.4350416466659</v>
       </c>
     </row>
@@ -30019,7 +30019,7 @@
         <v>2634</v>
       </c>
       <c r="H638">
-        <f>AVERAGE(B638,D638,F638)</f>
+        <f t="shared" si="9"/>
         <v>4003.1577744833335</v>
       </c>
     </row>
@@ -30046,7 +30046,7 @@
         <v>2414</v>
       </c>
       <c r="H639">
-        <f>AVERAGE(B639,D639,F639)</f>
+        <f t="shared" si="9"/>
         <v>4010.7115897166664</v>
       </c>
     </row>
@@ -30073,7 +30073,7 @@
         <v>2903</v>
       </c>
       <c r="H640">
-        <f>AVERAGE(B640,D640,F640)</f>
+        <f t="shared" si="9"/>
         <v>4012.4764595749998</v>
       </c>
     </row>
@@ -30100,7 +30100,7 @@
         <v>2890</v>
       </c>
       <c r="H641">
-        <f>AVERAGE(B641,D641,F641)</f>
+        <f t="shared" si="9"/>
         <v>4027.0489568699995</v>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
         <v>2096</v>
       </c>
       <c r="H642">
-        <f>AVERAGE(B642,D642,F642)</f>
+        <f t="shared" si="9"/>
         <v>4027.8641380433328</v>
       </c>
     </row>
@@ -30154,7 +30154,7 @@
         <v>2069</v>
       </c>
       <c r="H643">
-        <f>AVERAGE(B643,D643,F643)</f>
+        <f t="shared" ref="H643:H706" si="10">AVERAGE(B643,D643,F643)</f>
         <v>4033.4094744500003</v>
       </c>
     </row>
@@ -30181,7 +30181,7 @@
         <v>2588</v>
       </c>
       <c r="H644">
-        <f>AVERAGE(B644,D644,F644)</f>
+        <f t="shared" si="10"/>
         <v>4038.5920100450003</v>
       </c>
     </row>
@@ -30208,7 +30208,7 @@
         <v>2083</v>
       </c>
       <c r="H645">
-        <f>AVERAGE(B645,D645,F645)</f>
+        <f t="shared" si="10"/>
         <v>4045.1719341600001</v>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
         <v>2913</v>
       </c>
       <c r="H646">
-        <f>AVERAGE(B646,D646,F646)</f>
+        <f t="shared" si="10"/>
         <v>4056.6659555966667</v>
       </c>
     </row>
@@ -30262,7 +30262,7 @@
         <v>2093</v>
       </c>
       <c r="H647">
-        <f>AVERAGE(B647,D647,F647)</f>
+        <f t="shared" si="10"/>
         <v>4073.3596586533331</v>
       </c>
     </row>
@@ -30289,7 +30289,7 @@
         <v>2908</v>
       </c>
       <c r="H648">
-        <f>AVERAGE(B648,D648,F648)</f>
+        <f t="shared" si="10"/>
         <v>4074.3255196250002</v>
       </c>
     </row>
@@ -30316,7 +30316,7 @@
         <v>2829</v>
       </c>
       <c r="H649">
-        <f>AVERAGE(B649,D649,F649)</f>
+        <f t="shared" si="10"/>
         <v>4076.95856306</v>
       </c>
     </row>
@@ -30343,7 +30343,7 @@
         <v>2126</v>
       </c>
       <c r="H650">
-        <f>AVERAGE(B650,D650,F650)</f>
+        <f t="shared" si="10"/>
         <v>4095.8670929050004</v>
       </c>
     </row>
@@ -30370,7 +30370,7 @@
         <v>2596</v>
       </c>
       <c r="H651">
-        <f>AVERAGE(B651,D651,F651)</f>
+        <f t="shared" si="10"/>
         <v>4096.6360996666663</v>
       </c>
     </row>
@@ -30397,7 +30397,7 @@
         <v>2641</v>
       </c>
       <c r="H652">
-        <f>AVERAGE(B652,D652,F652)</f>
+        <f t="shared" si="10"/>
         <v>4104.95508144</v>
       </c>
     </row>
@@ -30424,7 +30424,7 @@
         <v>2309</v>
       </c>
       <c r="H653">
-        <f>AVERAGE(B653,D653,F653)</f>
+        <f t="shared" si="10"/>
         <v>4109.4907416249998</v>
       </c>
     </row>
@@ -30451,7 +30451,7 @@
         <v>2360</v>
       </c>
       <c r="H654">
-        <f>AVERAGE(B654,D654,F654)</f>
+        <f t="shared" si="10"/>
         <v>4113.7405965233329</v>
       </c>
     </row>
@@ -30478,7 +30478,7 @@
         <v>2063</v>
       </c>
       <c r="H655">
-        <f>AVERAGE(B655,D655,F655)</f>
+        <f t="shared" si="10"/>
         <v>4117.2301360533338</v>
       </c>
     </row>
@@ -30505,7 +30505,7 @@
         <v>2633</v>
       </c>
       <c r="H656">
-        <f>AVERAGE(B656,D656,F656)</f>
+        <f t="shared" si="10"/>
         <v>4121.2467374199996</v>
       </c>
     </row>
@@ -30532,7 +30532,7 @@
         <v>2892</v>
       </c>
       <c r="H657">
-        <f>AVERAGE(B657,D657,F657)</f>
+        <f t="shared" si="10"/>
         <v>4123.0769175866672</v>
       </c>
     </row>
@@ -30559,7 +30559,7 @@
         <v>2310</v>
       </c>
       <c r="H658">
-        <f>AVERAGE(B658,D658,F658)</f>
+        <f t="shared" si="10"/>
         <v>4123.2081745249998</v>
       </c>
     </row>
@@ -30586,7 +30586,7 @@
         <v>2665</v>
       </c>
       <c r="H659">
-        <f>AVERAGE(B659,D659,F659)</f>
+        <f t="shared" si="10"/>
         <v>4125.3008975499997</v>
       </c>
     </row>
@@ -30613,7 +30613,7 @@
         <v>2072</v>
       </c>
       <c r="H660">
-        <f>AVERAGE(B660,D660,F660)</f>
+        <f t="shared" si="10"/>
         <v>4125.5494852849997</v>
       </c>
     </row>
@@ -30640,7 +30640,7 @@
         <v>2130</v>
       </c>
       <c r="H661">
-        <f>AVERAGE(B661,D661,F661)</f>
+        <f t="shared" si="10"/>
         <v>4134.5205905600005</v>
       </c>
     </row>
@@ -30667,7 +30667,7 @@
         <v>2911</v>
       </c>
       <c r="H662">
-        <f>AVERAGE(B662,D662,F662)</f>
+        <f t="shared" si="10"/>
         <v>4135.6669556066663</v>
       </c>
     </row>
@@ -30694,7 +30694,7 @@
         <v>2577</v>
       </c>
       <c r="H663">
-        <f>AVERAGE(B663,D663,F663)</f>
+        <f t="shared" si="10"/>
         <v>4138.99823079</v>
       </c>
     </row>
@@ -30721,7 +30721,7 @@
         <v>2097</v>
       </c>
       <c r="H664">
-        <f>AVERAGE(B664,D664,F664)</f>
+        <f t="shared" si="10"/>
         <v>4148.0013854166673</v>
       </c>
     </row>
@@ -30748,7 +30748,7 @@
         <v>2333</v>
       </c>
       <c r="H665">
-        <f>AVERAGE(B665,D665,F665)</f>
+        <f t="shared" si="10"/>
         <v>4149.3514392099996</v>
       </c>
     </row>
@@ -30775,7 +30775,7 @@
         <v>2883</v>
       </c>
       <c r="H666">
-        <f>AVERAGE(B666,D666,F666)</f>
+        <f t="shared" si="10"/>
         <v>4161.0056888050003</v>
       </c>
     </row>
@@ -30802,7 +30802,7 @@
         <v>2574</v>
       </c>
       <c r="H667">
-        <f>AVERAGE(B667,D667,F667)</f>
+        <f t="shared" si="10"/>
         <v>4161.23592242</v>
       </c>
     </row>
@@ -30829,7 +30829,7 @@
         <v>2605</v>
       </c>
       <c r="H668">
-        <f>AVERAGE(B668,D668,F668)</f>
+        <f t="shared" si="10"/>
         <v>4165.1557413533337</v>
       </c>
     </row>
@@ -30856,7 +30856,7 @@
         <v>2137</v>
       </c>
       <c r="H669">
-        <f>AVERAGE(B669,D669,F669)</f>
+        <f t="shared" si="10"/>
         <v>4168.4814191366668</v>
       </c>
     </row>
@@ -30883,7 +30883,7 @@
         <v>2381</v>
       </c>
       <c r="H670">
-        <f>AVERAGE(B670,D670,F670)</f>
+        <f t="shared" si="10"/>
         <v>4170.2183698066665</v>
       </c>
     </row>
@@ -30910,7 +30910,7 @@
         <v>2052</v>
       </c>
       <c r="H671">
-        <f>AVERAGE(B671,D671,F671)</f>
+        <f t="shared" si="10"/>
         <v>4170.4456531366668</v>
       </c>
     </row>
@@ -30937,7 +30937,7 @@
         <v>2123</v>
       </c>
       <c r="H672">
-        <f>AVERAGE(B672,D672,F672)</f>
+        <f t="shared" si="10"/>
         <v>4195.0705556233333</v>
       </c>
     </row>
@@ -30964,7 +30964,7 @@
         <v>2053</v>
       </c>
       <c r="H673">
-        <f>AVERAGE(B673,D673,F673)</f>
+        <f t="shared" si="10"/>
         <v>4215.9497677700001</v>
       </c>
     </row>
@@ -30991,7 +30991,7 @@
         <v>2644</v>
       </c>
       <c r="H674">
-        <f>AVERAGE(B674,D674,F674)</f>
+        <f t="shared" si="10"/>
         <v>4225.6799883466674</v>
       </c>
     </row>
@@ -31018,7 +31018,7 @@
         <v>2415</v>
       </c>
       <c r="H675">
-        <f>AVERAGE(B675,D675,F675)</f>
+        <f t="shared" si="10"/>
         <v>4226.1972260733337</v>
       </c>
     </row>
@@ -31045,7 +31045,7 @@
         <v>2319</v>
       </c>
       <c r="H676">
-        <f>AVERAGE(B676,D676,F676)</f>
+        <f t="shared" si="10"/>
         <v>4241.0283203933332</v>
       </c>
     </row>
@@ -31072,7 +31072,7 @@
         <v>2056</v>
       </c>
       <c r="H677">
-        <f>AVERAGE(B677,D677,F677)</f>
+        <f t="shared" si="10"/>
         <v>4287.6502509800002</v>
       </c>
     </row>
@@ -31099,7 +31099,7 @@
         <v>2090</v>
       </c>
       <c r="H678">
-        <f>AVERAGE(B678,D678,F678)</f>
+        <f t="shared" si="10"/>
         <v>4291.6246325933325</v>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
         <v>2350</v>
       </c>
       <c r="H679">
-        <f>AVERAGE(B679,D679,F679)</f>
+        <f t="shared" si="10"/>
         <v>4292.4407979466669</v>
       </c>
     </row>
@@ -31153,7 +31153,7 @@
         <v>2405</v>
       </c>
       <c r="H680">
-        <f>AVERAGE(B680,D680,F680)</f>
+        <f t="shared" si="10"/>
         <v>4292.6287318000004</v>
       </c>
     </row>
@@ -31180,7 +31180,7 @@
         <v>2125</v>
       </c>
       <c r="H681">
-        <f>AVERAGE(B681,D681,F681)</f>
+        <f t="shared" si="10"/>
         <v>4306.8663522066663</v>
       </c>
     </row>
@@ -31207,7 +31207,7 @@
         <v>2375</v>
       </c>
       <c r="H682">
-        <f>AVERAGE(B682,D682,F682)</f>
+        <f t="shared" si="10"/>
         <v>4325.9619599400003</v>
       </c>
     </row>
@@ -31234,7 +31234,7 @@
         <v>2581</v>
       </c>
       <c r="H683">
-        <f>AVERAGE(B683,D683,F683)</f>
+        <f t="shared" si="10"/>
         <v>4331.3433654766659</v>
       </c>
     </row>
@@ -31261,7 +31261,7 @@
         <v>2070</v>
       </c>
       <c r="H684">
-        <f>AVERAGE(B684,D684,F684)</f>
+        <f t="shared" si="10"/>
         <v>4336.6824007500009</v>
       </c>
     </row>
@@ -31288,7 +31288,7 @@
         <v>2050</v>
       </c>
       <c r="H685">
-        <f>AVERAGE(B685,D685,F685)</f>
+        <f t="shared" si="10"/>
         <v>4345.364474</v>
       </c>
     </row>
@@ -31315,7 +31315,7 @@
         <v>2162</v>
       </c>
       <c r="H686">
-        <f>AVERAGE(B686,D686,F686)</f>
+        <f t="shared" si="10"/>
         <v>4347.2298511700001</v>
       </c>
     </row>
@@ -31342,7 +31342,7 @@
         <v>2676</v>
       </c>
       <c r="H687">
-        <f>AVERAGE(B687,D687,F687)</f>
+        <f t="shared" si="10"/>
         <v>4349.0707463766666</v>
       </c>
     </row>
@@ -31369,7 +31369,7 @@
         <v>2119</v>
       </c>
       <c r="H688">
-        <f>AVERAGE(B688,D688,F688)</f>
+        <f t="shared" si="10"/>
         <v>4350.0247733433334</v>
       </c>
     </row>
@@ -31396,7 +31396,7 @@
         <v>2311</v>
       </c>
       <c r="H689">
-        <f>AVERAGE(B689,D689,F689)</f>
+        <f t="shared" si="10"/>
         <v>4351.3822825066673</v>
       </c>
     </row>
@@ -31423,7 +31423,7 @@
         <v>2318</v>
       </c>
       <c r="H690">
-        <f>AVERAGE(B690,D690,F690)</f>
+        <f t="shared" si="10"/>
         <v>4373.0121652333337</v>
       </c>
     </row>
@@ -31450,7 +31450,7 @@
         <v>2370</v>
       </c>
       <c r="H691">
-        <f>AVERAGE(B691,D691,F691)</f>
+        <f t="shared" si="10"/>
         <v>4375.177174096666</v>
       </c>
     </row>
@@ -31477,7 +31477,7 @@
         <v>2663</v>
       </c>
       <c r="H692">
-        <f>AVERAGE(B692,D692,F692)</f>
+        <f t="shared" si="10"/>
         <v>4381.0225311866661</v>
       </c>
     </row>
@@ -31504,7 +31504,7 @@
         <v>2885</v>
       </c>
       <c r="H693">
-        <f>AVERAGE(B693,D693,F693)</f>
+        <f t="shared" si="10"/>
         <v>4395.8253163099998</v>
       </c>
     </row>
@@ -31531,7 +31531,7 @@
         <v>2355</v>
       </c>
       <c r="H694">
-        <f>AVERAGE(B694,D694,F694)</f>
+        <f t="shared" si="10"/>
         <v>4402.2068591100006</v>
       </c>
     </row>
@@ -31558,7 +31558,7 @@
         <v>2321</v>
       </c>
       <c r="H695">
-        <f>AVERAGE(B695,D695,F695)</f>
+        <f t="shared" si="10"/>
         <v>4402.217482203333</v>
       </c>
     </row>
@@ -31585,7 +31585,7 @@
         <v>2882</v>
       </c>
       <c r="H696">
-        <f>AVERAGE(B696,D696,F696)</f>
+        <f t="shared" si="10"/>
         <v>4404.6134646466662</v>
       </c>
     </row>
@@ -31612,7 +31612,7 @@
         <v>2142</v>
       </c>
       <c r="H697">
-        <f>AVERAGE(B697,D697,F697)</f>
+        <f t="shared" si="10"/>
         <v>4428.3072924600001</v>
       </c>
     </row>
@@ -31639,7 +31639,7 @@
         <v>2569</v>
       </c>
       <c r="H698">
-        <f>AVERAGE(B698,D698,F698)</f>
+        <f t="shared" si="10"/>
         <v>4433.8026836850004</v>
       </c>
     </row>
@@ -31666,7 +31666,7 @@
         <v>2155</v>
       </c>
       <c r="H699">
-        <f>AVERAGE(B699,D699,F699)</f>
+        <f t="shared" si="10"/>
         <v>4436.0823506766674</v>
       </c>
     </row>
@@ -31693,7 +31693,7 @@
         <v>2905</v>
       </c>
       <c r="H700">
-        <f>AVERAGE(B700,D700,F700)</f>
+        <f t="shared" si="10"/>
         <v>4438.9689193550003</v>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
         <v>2912</v>
       </c>
       <c r="H701">
-        <f>AVERAGE(B701,D701,F701)</f>
+        <f t="shared" si="10"/>
         <v>4440.4573376799999</v>
       </c>
     </row>
@@ -31747,7 +31747,7 @@
         <v>2902</v>
       </c>
       <c r="H702">
-        <f>AVERAGE(B702,D702,F702)</f>
+        <f t="shared" si="10"/>
         <v>4440.6980214866662</v>
       </c>
     </row>
@@ -31774,7 +31774,7 @@
         <v>2143</v>
       </c>
       <c r="H703">
-        <f>AVERAGE(B703,D703,F703)</f>
+        <f t="shared" si="10"/>
         <v>4456.0911612199998</v>
       </c>
     </row>
@@ -31801,7 +31801,7 @@
         <v>2403</v>
       </c>
       <c r="H704">
-        <f>AVERAGE(B704,D704,F704)</f>
+        <f t="shared" si="10"/>
         <v>4459.3301879999999</v>
       </c>
     </row>
@@ -31828,7 +31828,7 @@
         <v>2079</v>
       </c>
       <c r="H705">
-        <f>AVERAGE(B705,D705,F705)</f>
+        <f t="shared" si="10"/>
         <v>4459.5127701966667</v>
       </c>
     </row>
@@ -31855,7 +31855,7 @@
         <v>2329</v>
       </c>
       <c r="H706">
-        <f>AVERAGE(B706,D706,F706)</f>
+        <f t="shared" si="10"/>
         <v>4467.0580139233334</v>
       </c>
     </row>
@@ -31882,7 +31882,7 @@
         <v>2900</v>
       </c>
       <c r="H707">
-        <f>AVERAGE(B707,D707,F707)</f>
+        <f t="shared" ref="H707:H770" si="11">AVERAGE(B707,D707,F707)</f>
         <v>4471.80848513</v>
       </c>
     </row>
@@ -31909,7 +31909,7 @@
         <v>2868</v>
       </c>
       <c r="H708">
-        <f>AVERAGE(B708,D708,F708)</f>
+        <f t="shared" si="11"/>
         <v>4475.3084464166668</v>
       </c>
     </row>
@@ -31936,7 +31936,7 @@
         <v>2895</v>
       </c>
       <c r="H709">
-        <f>AVERAGE(B709,D709,F709)</f>
+        <f t="shared" si="11"/>
         <v>4477.3749849999995</v>
       </c>
     </row>
@@ -31963,7 +31963,7 @@
         <v>2645</v>
       </c>
       <c r="H710">
-        <f>AVERAGE(B710,D710,F710)</f>
+        <f t="shared" si="11"/>
         <v>4487.5392640266664</v>
       </c>
     </row>
@@ -31990,7 +31990,7 @@
         <v>2417</v>
       </c>
       <c r="H711">
-        <f>AVERAGE(B711,D711,F711)</f>
+        <f t="shared" si="11"/>
         <v>4495.0544040300001</v>
       </c>
     </row>
@@ -32017,7 +32017,7 @@
         <v>2149</v>
       </c>
       <c r="H712">
-        <f>AVERAGE(B712,D712,F712)</f>
+        <f t="shared" si="11"/>
         <v>4499.9225598166668</v>
       </c>
     </row>
@@ -32044,7 +32044,7 @@
         <v>2376</v>
       </c>
       <c r="H713">
-        <f>AVERAGE(B713,D713,F713)</f>
+        <f t="shared" si="11"/>
         <v>4506.8667651700007</v>
       </c>
     </row>
@@ -32071,7 +32071,7 @@
         <v>2862</v>
       </c>
       <c r="H714">
-        <f>AVERAGE(B714,D714,F714)</f>
+        <f t="shared" si="11"/>
         <v>4509.4471087933334</v>
       </c>
     </row>
@@ -32098,7 +32098,7 @@
         <v>2378</v>
       </c>
       <c r="H715">
-        <f>AVERAGE(B715,D715,F715)</f>
+        <f t="shared" si="11"/>
         <v>4520.8275550666667</v>
       </c>
     </row>
@@ -32125,7 +32125,7 @@
         <v>2367</v>
       </c>
       <c r="H716">
-        <f>AVERAGE(B716,D716,F716)</f>
+        <f t="shared" si="11"/>
         <v>4527.1889573933331</v>
       </c>
     </row>
@@ -32152,7 +32152,7 @@
         <v>2939</v>
       </c>
       <c r="H717">
-        <f>AVERAGE(B717,D717,F717)</f>
+        <f t="shared" si="11"/>
         <v>4536.9173772799995</v>
       </c>
     </row>
@@ -32179,7 +32179,7 @@
         <v>2654</v>
       </c>
       <c r="H718">
-        <f>AVERAGE(B718,D718,F718)</f>
+        <f t="shared" si="11"/>
         <v>4545.1911370999997</v>
       </c>
     </row>
@@ -32206,7 +32206,7 @@
         <v>2561</v>
       </c>
       <c r="H719">
-        <f>AVERAGE(B719,D719,F719)</f>
+        <f t="shared" si="11"/>
         <v>4545.9076024566666</v>
       </c>
     </row>
@@ -32233,7 +32233,7 @@
         <v>2168</v>
       </c>
       <c r="H720">
-        <f>AVERAGE(B720,D720,F720)</f>
+        <f t="shared" si="11"/>
         <v>4551.1863030899995</v>
       </c>
     </row>
@@ -32260,7 +32260,7 @@
         <v>2922</v>
       </c>
       <c r="H721">
-        <f>AVERAGE(B721,D721,F721)</f>
+        <f t="shared" si="11"/>
         <v>4556.6000695366665</v>
       </c>
     </row>
@@ -32287,7 +32287,7 @@
         <v>2084</v>
       </c>
       <c r="H722">
-        <f>AVERAGE(B722,D722,F722)</f>
+        <f t="shared" si="11"/>
         <v>4556.7551775133334</v>
       </c>
     </row>
@@ -32314,7 +32314,7 @@
         <v>2869</v>
       </c>
       <c r="H723">
-        <f>AVERAGE(B723,D723,F723)</f>
+        <f t="shared" si="11"/>
         <v>4558.9385415199995</v>
       </c>
     </row>
@@ -32341,7 +32341,7 @@
         <v>2145</v>
       </c>
       <c r="H724">
-        <f>AVERAGE(B724,D724,F724)</f>
+        <f t="shared" si="11"/>
         <v>4566.000211739999</v>
       </c>
     </row>
@@ -32368,7 +32368,7 @@
         <v>2875</v>
       </c>
       <c r="H725">
-        <f>AVERAGE(B725,D725,F725)</f>
+        <f t="shared" si="11"/>
         <v>4575.7940206233334</v>
       </c>
     </row>
@@ -32395,7 +32395,7 @@
         <v>2910</v>
       </c>
       <c r="H726">
-        <f>AVERAGE(B726,D726,F726)</f>
+        <f t="shared" si="11"/>
         <v>4579.0698499499995</v>
       </c>
     </row>
@@ -32422,7 +32422,7 @@
         <v>2650</v>
       </c>
       <c r="H727">
-        <f>AVERAGE(B727,D727,F727)</f>
+        <f t="shared" si="11"/>
         <v>4580.6101387433337</v>
       </c>
     </row>
@@ -32449,7 +32449,7 @@
         <v>2848</v>
       </c>
       <c r="H728">
-        <f>AVERAGE(B728,D728,F728)</f>
+        <f t="shared" si="11"/>
         <v>4581.4604901166667</v>
       </c>
     </row>
@@ -32476,7 +32476,7 @@
         <v>2156</v>
       </c>
       <c r="H729">
-        <f>AVERAGE(B729,D729,F729)</f>
+        <f t="shared" si="11"/>
         <v>4586.4977782933338</v>
       </c>
     </row>
@@ -32503,7 +32503,7 @@
         <v>2148</v>
       </c>
       <c r="H730">
-        <f>AVERAGE(B730,D730,F730)</f>
+        <f t="shared" si="11"/>
         <v>4587.2949395166661</v>
       </c>
     </row>
@@ -32530,7 +32530,7 @@
         <v>2918</v>
       </c>
       <c r="H731">
-        <f>AVERAGE(B731,D731,F731)</f>
+        <f t="shared" si="11"/>
         <v>4587.8358746866661</v>
       </c>
     </row>
@@ -32557,7 +32557,7 @@
         <v>2427</v>
       </c>
       <c r="H732">
-        <f>AVERAGE(B732,D732,F732)</f>
+        <f t="shared" si="11"/>
         <v>4591.5495630933337</v>
       </c>
     </row>
@@ -32584,7 +32584,7 @@
         <v>2430</v>
       </c>
       <c r="H733">
-        <f>AVERAGE(B733,D733,F733)</f>
+        <f t="shared" si="11"/>
         <v>4599.7686068433331</v>
       </c>
     </row>
@@ -32611,7 +32611,7 @@
         <v>2647</v>
       </c>
       <c r="H734">
-        <f>AVERAGE(B734,D734,F734)</f>
+        <f t="shared" si="11"/>
         <v>4601.2967222749994</v>
       </c>
     </row>
@@ -32638,7 +32638,7 @@
         <v>2603</v>
       </c>
       <c r="H735">
-        <f>AVERAGE(B735,D735,F735)</f>
+        <f t="shared" si="11"/>
         <v>4604.3250893900004</v>
       </c>
     </row>
@@ -32665,7 +32665,7 @@
         <v>2648</v>
       </c>
       <c r="H736">
-        <f>AVERAGE(B736,D736,F736)</f>
+        <f t="shared" si="11"/>
         <v>4612.2275413099997</v>
       </c>
     </row>
@@ -32692,7 +32692,7 @@
         <v>2164</v>
       </c>
       <c r="H737">
-        <f>AVERAGE(B737,D737,F737)</f>
+        <f t="shared" si="11"/>
         <v>4632.0297727133329</v>
       </c>
     </row>
@@ -32719,7 +32719,7 @@
         <v>2115</v>
       </c>
       <c r="H738">
-        <f>AVERAGE(B738,D738,F738)</f>
+        <f t="shared" si="11"/>
         <v>4635.31432356</v>
       </c>
     </row>
@@ -32746,7 +32746,7 @@
         <v>2865</v>
       </c>
       <c r="H739">
-        <f>AVERAGE(B739,D739,F739)</f>
+        <f t="shared" si="11"/>
         <v>4636.266106146667</v>
       </c>
     </row>
@@ -32773,7 +32773,7 @@
         <v>2411</v>
       </c>
       <c r="H740">
-        <f>AVERAGE(B740,D740,F740)</f>
+        <f t="shared" si="11"/>
         <v>4646.3857423199997</v>
       </c>
     </row>
@@ -32800,7 +32800,7 @@
         <v>2372</v>
       </c>
       <c r="H741">
-        <f>AVERAGE(B741,D741,F741)</f>
+        <f t="shared" si="11"/>
         <v>4649.3748605950004</v>
       </c>
     </row>
@@ -32827,7 +32827,7 @@
         <v>2585</v>
       </c>
       <c r="H742">
-        <f>AVERAGE(B742,D742,F742)</f>
+        <f t="shared" si="11"/>
         <v>4658.1794024366664</v>
       </c>
     </row>
@@ -32854,7 +32854,7 @@
         <v>2623</v>
       </c>
       <c r="H743">
-        <f>AVERAGE(B743,D743,F743)</f>
+        <f t="shared" si="11"/>
         <v>4658.4483092999999</v>
       </c>
     </row>
@@ -32881,7 +32881,7 @@
         <v>2167</v>
       </c>
       <c r="H744">
-        <f>AVERAGE(B744,D744,F744)</f>
+        <f t="shared" si="11"/>
         <v>4664.3349783100011</v>
       </c>
     </row>
@@ -32908,7 +32908,7 @@
         <v>2176</v>
       </c>
       <c r="H745">
-        <f>AVERAGE(B745,D745,F745)</f>
+        <f t="shared" si="11"/>
         <v>4671.9266161599999</v>
       </c>
     </row>
@@ -32935,7 +32935,7 @@
         <v>2140</v>
       </c>
       <c r="H746">
-        <f>AVERAGE(B746,D746,F746)</f>
+        <f t="shared" si="11"/>
         <v>4675.7410224433333</v>
       </c>
     </row>
@@ -32962,7 +32962,7 @@
         <v>2166</v>
       </c>
       <c r="H747">
-        <f>AVERAGE(B747,D747,F747)</f>
+        <f t="shared" si="11"/>
         <v>4680.4135064433331</v>
       </c>
     </row>
@@ -32989,7 +32989,7 @@
         <v>2163</v>
       </c>
       <c r="H748">
-        <f>AVERAGE(B748,D748,F748)</f>
+        <f t="shared" si="11"/>
         <v>4689.6763411466663</v>
       </c>
     </row>
@@ -33016,7 +33016,7 @@
         <v>2121</v>
       </c>
       <c r="H749">
-        <f>AVERAGE(B749,D749,F749)</f>
+        <f t="shared" si="11"/>
         <v>4689.93722196</v>
       </c>
     </row>
@@ -33043,7 +33043,7 @@
         <v>2622</v>
       </c>
       <c r="H750">
-        <f>AVERAGE(B750,D750,F750)</f>
+        <f t="shared" si="11"/>
         <v>4696.6080419299997</v>
       </c>
     </row>
@@ -33070,7 +33070,7 @@
         <v>2089</v>
       </c>
       <c r="H751">
-        <f>AVERAGE(B751,D751,F751)</f>
+        <f t="shared" si="11"/>
         <v>4698.6494799499997</v>
       </c>
     </row>
@@ -33097,7 +33097,7 @@
         <v>2067</v>
       </c>
       <c r="H752">
-        <f>AVERAGE(B752,D752,F752)</f>
+        <f t="shared" si="11"/>
         <v>4704.0192131099993</v>
       </c>
     </row>
@@ -33124,7 +33124,7 @@
         <v>2169</v>
       </c>
       <c r="H753">
-        <f>AVERAGE(B753,D753,F753)</f>
+        <f t="shared" si="11"/>
         <v>4705.414949486666</v>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
         <v>2334</v>
       </c>
       <c r="H754">
-        <f>AVERAGE(B754,D754,F754)</f>
+        <f t="shared" si="11"/>
         <v>4707.2476932600002</v>
       </c>
     </row>
@@ -33178,7 +33178,7 @@
         <v>2828</v>
       </c>
       <c r="H755">
-        <f>AVERAGE(B755,D755,F755)</f>
+        <f t="shared" si="11"/>
         <v>4708.9249254400002</v>
       </c>
     </row>
@@ -33205,7 +33205,7 @@
         <v>2818</v>
       </c>
       <c r="H756">
-        <f>AVERAGE(B756,D756,F756)</f>
+        <f t="shared" si="11"/>
         <v>4714.8776765700004</v>
       </c>
     </row>
@@ -33232,7 +33232,7 @@
         <v>2327</v>
       </c>
       <c r="H757">
-        <f>AVERAGE(B757,D757,F757)</f>
+        <f t="shared" si="11"/>
         <v>4715.3950389700003</v>
       </c>
     </row>
@@ -33259,7 +33259,7 @@
         <v>2926</v>
       </c>
       <c r="H758">
-        <f>AVERAGE(B758,D758,F758)</f>
+        <f t="shared" si="11"/>
         <v>4717.3398491400003</v>
       </c>
     </row>
@@ -33286,7 +33286,7 @@
         <v>2099</v>
       </c>
       <c r="H759">
-        <f>AVERAGE(B759,D759,F759)</f>
+        <f t="shared" si="11"/>
         <v>4723.5787412533336</v>
       </c>
     </row>
@@ -33313,7 +33313,7 @@
         <v>2060</v>
       </c>
       <c r="H760">
-        <f>AVERAGE(B760,D760,F760)</f>
+        <f t="shared" si="11"/>
         <v>4724.5135691750002</v>
       </c>
     </row>
@@ -33340,7 +33340,7 @@
         <v>2066</v>
       </c>
       <c r="H761">
-        <f>AVERAGE(B761,D761,F761)</f>
+        <f t="shared" si="11"/>
         <v>4724.6720658500008</v>
       </c>
     </row>
@@ -33367,7 +33367,7 @@
         <v>2907</v>
       </c>
       <c r="H762">
-        <f>AVERAGE(B762,D762,F762)</f>
+        <f t="shared" si="11"/>
         <v>4727.0363357900005</v>
       </c>
     </row>
@@ -33394,7 +33394,7 @@
         <v>2134</v>
       </c>
       <c r="H763">
-        <f>AVERAGE(B763,D763,F763)</f>
+        <f t="shared" si="11"/>
         <v>4732.7637458399995</v>
       </c>
     </row>
@@ -33421,7 +33421,7 @@
         <v>2857</v>
       </c>
       <c r="H764">
-        <f>AVERAGE(B764,D764,F764)</f>
+        <f t="shared" si="11"/>
         <v>4734.0587699033331</v>
       </c>
     </row>
@@ -33448,7 +33448,7 @@
         <v>2105</v>
       </c>
       <c r="H765">
-        <f>AVERAGE(B765,D765,F765)</f>
+        <f t="shared" si="11"/>
         <v>4739.5112203200006</v>
       </c>
     </row>
@@ -33475,7 +33475,7 @@
         <v>2305</v>
       </c>
       <c r="H766">
-        <f>AVERAGE(B766,D766,F766)</f>
+        <f t="shared" si="11"/>
         <v>4752.0302989599995</v>
       </c>
     </row>
@@ -33502,7 +33502,7 @@
         <v>2916</v>
       </c>
       <c r="H767">
-        <f>AVERAGE(B767,D767,F767)</f>
+        <f t="shared" si="11"/>
         <v>4754.8060068133336</v>
       </c>
     </row>
@@ -33529,7 +33529,7 @@
         <v>2628</v>
       </c>
       <c r="H768">
-        <f>AVERAGE(B768,D768,F768)</f>
+        <f t="shared" si="11"/>
         <v>4764.5435685033335</v>
       </c>
     </row>
@@ -33556,7 +33556,7 @@
         <v>2854</v>
       </c>
       <c r="H769">
-        <f>AVERAGE(B769,D769,F769)</f>
+        <f t="shared" si="11"/>
         <v>4764.6140738733329</v>
       </c>
     </row>
@@ -33583,7 +33583,7 @@
         <v>2930</v>
       </c>
       <c r="H770">
-        <f>AVERAGE(B770,D770,F770)</f>
+        <f t="shared" si="11"/>
         <v>4766.8314230566657</v>
       </c>
       <c r="I770" t="s">
@@ -33613,7 +33613,7 @@
         <v>2363</v>
       </c>
       <c r="H771">
-        <f>AVERAGE(B771,D771,F771)</f>
+        <f t="shared" ref="H771:H834" si="12">AVERAGE(B771,D771,F771)</f>
         <v>4767.0817438000004</v>
       </c>
     </row>
@@ -33640,7 +33640,7 @@
         <v>2153</v>
       </c>
       <c r="H772">
-        <f>AVERAGE(B772,D772,F772)</f>
+        <f t="shared" si="12"/>
         <v>4769.5555605999989</v>
       </c>
     </row>
@@ -33667,7 +33667,7 @@
         <v>2118</v>
       </c>
       <c r="H773">
-        <f>AVERAGE(B773,D773,F773)</f>
+        <f t="shared" si="12"/>
         <v>4770.1190878999996</v>
       </c>
     </row>
@@ -33694,7 +33694,7 @@
         <v>2678</v>
       </c>
       <c r="H774">
-        <f>AVERAGE(B774,D774,F774)</f>
+        <f t="shared" si="12"/>
         <v>4774.7202670766665</v>
       </c>
     </row>
@@ -33721,7 +33721,7 @@
         <v>2928</v>
       </c>
       <c r="H775">
-        <f>AVERAGE(B775,D775,F775)</f>
+        <f t="shared" si="12"/>
         <v>4775.253393973333</v>
       </c>
     </row>
@@ -33748,7 +33748,7 @@
         <v>2114</v>
       </c>
       <c r="H776">
-        <f>AVERAGE(B776,D776,F776)</f>
+        <f t="shared" si="12"/>
         <v>4781.9467705999996</v>
       </c>
     </row>
@@ -33775,7 +33775,7 @@
         <v>2135</v>
       </c>
       <c r="H777">
-        <f>AVERAGE(B777,D777,F777)</f>
+        <f t="shared" si="12"/>
         <v>4792.4306862599997</v>
       </c>
     </row>
@@ -33802,7 +33802,7 @@
         <v>2816</v>
       </c>
       <c r="H778">
-        <f>AVERAGE(B778,D778,F778)</f>
+        <f t="shared" si="12"/>
         <v>4799.9618779466664</v>
       </c>
     </row>
@@ -33829,7 +33829,7 @@
         <v>2313</v>
       </c>
       <c r="H779">
-        <f>AVERAGE(B779,D779,F779)</f>
+        <f t="shared" si="12"/>
         <v>4806.3814592799999</v>
       </c>
     </row>
@@ -33856,7 +33856,7 @@
         <v>2337</v>
       </c>
       <c r="H780">
-        <f>AVERAGE(B780,D780,F780)</f>
+        <f t="shared" si="12"/>
         <v>4809.864992466667</v>
       </c>
     </row>
@@ -33883,7 +33883,7 @@
         <v>2607</v>
       </c>
       <c r="H781">
-        <f>AVERAGE(B781,D781,F781)</f>
+        <f t="shared" si="12"/>
         <v>4810.907849043334</v>
       </c>
     </row>
@@ -33910,7 +33910,7 @@
         <v>2624</v>
       </c>
       <c r="H782">
-        <f>AVERAGE(B782,D782,F782)</f>
+        <f t="shared" si="12"/>
         <v>4814.00373502</v>
       </c>
     </row>
@@ -33937,7 +33937,7 @@
         <v>2685</v>
       </c>
       <c r="H783">
-        <f>AVERAGE(B783,D783,F783)</f>
+        <f t="shared" si="12"/>
         <v>4817.6772355033336</v>
       </c>
     </row>
@@ -33964,7 +33964,7 @@
         <v>2172</v>
       </c>
       <c r="H784">
-        <f>AVERAGE(B784,D784,F784)</f>
+        <f t="shared" si="12"/>
         <v>4819.7730980533333</v>
       </c>
     </row>
@@ -33991,7 +33991,7 @@
         <v>2051</v>
       </c>
       <c r="H785">
-        <f>AVERAGE(B785,D785,F785)</f>
+        <f t="shared" si="12"/>
         <v>4822.5326629250003</v>
       </c>
     </row>
@@ -34018,7 +34018,7 @@
         <v>2073</v>
       </c>
       <c r="H786">
-        <f>AVERAGE(B786,D786,F786)</f>
+        <f t="shared" si="12"/>
         <v>4828.8487332099994</v>
       </c>
     </row>
@@ -34045,7 +34045,7 @@
         <v>2681</v>
       </c>
       <c r="H787">
-        <f>AVERAGE(B787,D787,F787)</f>
+        <f t="shared" si="12"/>
         <v>4830.1945822566668</v>
       </c>
     </row>
@@ -34072,7 +34072,7 @@
         <v>2880</v>
       </c>
       <c r="H788">
-        <f>AVERAGE(B788,D788,F788)</f>
+        <f t="shared" si="12"/>
         <v>4834.1480998733332</v>
       </c>
     </row>
@@ -34099,7 +34099,7 @@
         <v>2612</v>
       </c>
       <c r="H789">
-        <f>AVERAGE(B789,D789,F789)</f>
+        <f t="shared" si="12"/>
         <v>4850.6125332833335</v>
       </c>
     </row>
@@ -34126,7 +34126,7 @@
         <v>2873</v>
       </c>
       <c r="H790">
-        <f>AVERAGE(B790,D790,F790)</f>
+        <f t="shared" si="12"/>
         <v>4851.5460165166669</v>
       </c>
     </row>
@@ -34153,7 +34153,7 @@
         <v>2323</v>
       </c>
       <c r="H791">
-        <f>AVERAGE(B791,D791,F791)</f>
+        <f t="shared" si="12"/>
         <v>4854.8663703900002</v>
       </c>
     </row>
@@ -34180,7 +34180,7 @@
         <v>2124</v>
       </c>
       <c r="H792">
-        <f>AVERAGE(B792,D792,F792)</f>
+        <f t="shared" si="12"/>
         <v>4854.9515158000004</v>
       </c>
     </row>
@@ -34207,7 +34207,7 @@
         <v>2421</v>
       </c>
       <c r="H793">
-        <f>AVERAGE(B793,D793,F793)</f>
+        <f t="shared" si="12"/>
         <v>4856.716949546666</v>
       </c>
     </row>
@@ -34234,7 +34234,7 @@
         <v>2359</v>
       </c>
       <c r="H794">
-        <f>AVERAGE(B794,D794,F794)</f>
+        <f t="shared" si="12"/>
         <v>4860.6122910866661</v>
       </c>
     </row>
@@ -34261,7 +34261,7 @@
         <v>2851</v>
       </c>
       <c r="H795">
-        <f>AVERAGE(B795,D795,F795)</f>
+        <f t="shared" si="12"/>
         <v>4868.9156037299999</v>
       </c>
     </row>
@@ -34288,7 +34288,7 @@
         <v>2338</v>
       </c>
       <c r="H796">
-        <f>AVERAGE(B796,D796,F796)</f>
+        <f t="shared" si="12"/>
         <v>4876.4921569166663</v>
       </c>
     </row>
@@ -34315,7 +34315,7 @@
         <v>2175</v>
       </c>
       <c r="H797">
-        <f>AVERAGE(B797,D797,F797)</f>
+        <f t="shared" si="12"/>
         <v>4877.6142852900002</v>
       </c>
     </row>
@@ -34342,7 +34342,7 @@
         <v>2347</v>
       </c>
       <c r="H798">
-        <f>AVERAGE(B798,D798,F798)</f>
+        <f t="shared" si="12"/>
         <v>4881.4396080466668</v>
       </c>
     </row>
@@ -34369,7 +34369,7 @@
         <v>2091</v>
       </c>
       <c r="H799">
-        <f>AVERAGE(B799,D799,F799)</f>
+        <f t="shared" si="12"/>
         <v>4889.6797574366674</v>
       </c>
     </row>
@@ -34396,7 +34396,7 @@
         <v>2418</v>
       </c>
       <c r="H800">
-        <f>AVERAGE(B800,D800,F800)</f>
+        <f t="shared" si="12"/>
         <v>4894.8357697299998</v>
       </c>
     </row>
@@ -34423,7 +34423,7 @@
         <v>2687</v>
       </c>
       <c r="H801">
-        <f>AVERAGE(B801,D801,F801)</f>
+        <f t="shared" si="12"/>
         <v>4898.0129800599998</v>
       </c>
     </row>
@@ -34450,7 +34450,7 @@
         <v>2617</v>
       </c>
       <c r="H802">
-        <f>AVERAGE(B802,D802,F802)</f>
+        <f t="shared" si="12"/>
         <v>4929.8667781033337</v>
       </c>
     </row>
@@ -34477,7 +34477,7 @@
         <v>2856</v>
       </c>
       <c r="H803">
-        <f>AVERAGE(B803,D803,F803)</f>
+        <f t="shared" si="12"/>
         <v>4932.654231673333</v>
       </c>
     </row>
@@ -34504,7 +34504,7 @@
         <v>2407</v>
       </c>
       <c r="H804">
-        <f>AVERAGE(B804,D804,F804)</f>
+        <f t="shared" si="12"/>
         <v>4938.3984264366663</v>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
         <v>2428</v>
       </c>
       <c r="H805">
-        <f>AVERAGE(B805,D805,F805)</f>
+        <f t="shared" si="12"/>
         <v>4941.7115683999991</v>
       </c>
     </row>
@@ -34558,7 +34558,7 @@
         <v>2361</v>
       </c>
       <c r="H806">
-        <f>AVERAGE(B806,D806,F806)</f>
+        <f t="shared" si="12"/>
         <v>4952.7714954433332</v>
       </c>
     </row>
@@ -34585,7 +34585,7 @@
         <v>2614</v>
       </c>
       <c r="H807">
-        <f>AVERAGE(B807,D807,F807)</f>
+        <f t="shared" si="12"/>
         <v>4961.1851644800008</v>
       </c>
     </row>
@@ -34612,7 +34612,7 @@
         <v>2610</v>
       </c>
       <c r="H808">
-        <f>AVERAGE(B808,D808,F808)</f>
+        <f t="shared" si="12"/>
         <v>4965.3536240799995</v>
       </c>
     </row>
@@ -34639,7 +34639,7 @@
         <v>2646</v>
       </c>
       <c r="H809">
-        <f>AVERAGE(B809,D809,F809)</f>
+        <f t="shared" si="12"/>
         <v>4970.7961787849999</v>
       </c>
     </row>
@@ -34666,7 +34666,7 @@
         <v>2159</v>
       </c>
       <c r="H810">
-        <f>AVERAGE(B810,D810,F810)</f>
+        <f t="shared" si="12"/>
         <v>4972.9300595666655</v>
       </c>
     </row>
@@ -34693,7 +34693,7 @@
         <v>2879</v>
       </c>
       <c r="H811">
-        <f>AVERAGE(B811,D811,F811)</f>
+        <f t="shared" si="12"/>
         <v>4976.9304581466668</v>
       </c>
     </row>
@@ -34720,7 +34720,7 @@
         <v>2157</v>
       </c>
       <c r="H812">
-        <f>AVERAGE(B812,D812,F812)</f>
+        <f t="shared" si="12"/>
         <v>4978.4108424366668</v>
       </c>
     </row>
@@ -34747,7 +34747,7 @@
         <v>2100</v>
       </c>
       <c r="H813">
-        <f>AVERAGE(B813,D813,F813)</f>
+        <f t="shared" si="12"/>
         <v>4981.7201431700005</v>
       </c>
     </row>
@@ -34774,7 +34774,7 @@
         <v>2827</v>
       </c>
       <c r="H814">
-        <f>AVERAGE(B814,D814,F814)</f>
+        <f t="shared" si="12"/>
         <v>4984.519552705</v>
       </c>
     </row>
@@ -34801,7 +34801,7 @@
         <v>2836</v>
       </c>
       <c r="H815">
-        <f>AVERAGE(B815,D815,F815)</f>
+        <f t="shared" si="12"/>
         <v>4986.6478490866657</v>
       </c>
     </row>
@@ -34828,7 +34828,7 @@
         <v>2671</v>
       </c>
       <c r="H816">
-        <f>AVERAGE(B816,D816,F816)</f>
+        <f t="shared" si="12"/>
         <v>4987.6479583133341</v>
       </c>
     </row>
@@ -34855,7 +34855,7 @@
         <v>2606</v>
       </c>
       <c r="H817">
-        <f>AVERAGE(B817,D817,F817)</f>
+        <f t="shared" si="12"/>
         <v>5005.4934987799998</v>
       </c>
     </row>
@@ -34882,7 +34882,7 @@
         <v>2566</v>
       </c>
       <c r="H818">
-        <f>AVERAGE(B818,D818,F818)</f>
+        <f t="shared" si="12"/>
         <v>5005.8298227799996</v>
       </c>
     </row>
@@ -34909,7 +34909,7 @@
         <v>2420</v>
       </c>
       <c r="H819">
-        <f>AVERAGE(B819,D819,F819)</f>
+        <f t="shared" si="12"/>
         <v>5007.9497182366676</v>
       </c>
     </row>
@@ -34936,7 +34936,7 @@
         <v>2584</v>
       </c>
       <c r="H820">
-        <f>AVERAGE(B820,D820,F820)</f>
+        <f t="shared" si="12"/>
         <v>5009.9872587866666</v>
       </c>
     </row>
@@ -34963,7 +34963,7 @@
         <v>2391</v>
       </c>
       <c r="H821">
-        <f>AVERAGE(B821,D821,F821)</f>
+        <f t="shared" si="12"/>
         <v>5019.3279629533326</v>
       </c>
     </row>
@@ -34990,7 +34990,7 @@
         <v>2395</v>
       </c>
       <c r="H822">
-        <f>AVERAGE(B822,D822,F822)</f>
+        <f t="shared" si="12"/>
         <v>5020.7359055099996</v>
       </c>
     </row>
@@ -35017,7 +35017,7 @@
         <v>2677</v>
       </c>
       <c r="H823">
-        <f>AVERAGE(B823,D823,F823)</f>
+        <f t="shared" si="12"/>
         <v>5028.1898285466668</v>
       </c>
     </row>
@@ -35044,7 +35044,7 @@
         <v>2326</v>
       </c>
       <c r="H824">
-        <f>AVERAGE(B824,D824,F824)</f>
+        <f t="shared" si="12"/>
         <v>5048.3123294400002</v>
       </c>
     </row>
@@ -35071,7 +35071,7 @@
         <v>2102</v>
       </c>
       <c r="H825">
-        <f>AVERAGE(B825,D825,F825)</f>
+        <f t="shared" si="12"/>
         <v>5053.180500606667</v>
       </c>
     </row>
@@ -35098,7 +35098,7 @@
         <v>2346</v>
       </c>
       <c r="H826">
-        <f>AVERAGE(B826,D826,F826)</f>
+        <f t="shared" si="12"/>
         <v>5055.8148389366661</v>
       </c>
     </row>
@@ -35125,7 +35125,7 @@
         <v>2354</v>
       </c>
       <c r="H827">
-        <f>AVERAGE(B827,D827,F827)</f>
+        <f t="shared" si="12"/>
         <v>5059.2496826866673</v>
       </c>
     </row>
@@ -35152,7 +35152,7 @@
         <v>2111</v>
       </c>
       <c r="H828">
-        <f>AVERAGE(B828,D828,F828)</f>
+        <f t="shared" si="12"/>
         <v>5068.8967059900006</v>
       </c>
     </row>
@@ -35179,7 +35179,7 @@
         <v>2138</v>
       </c>
       <c r="H829">
-        <f>AVERAGE(B829,D829,F829)</f>
+        <f t="shared" si="12"/>
         <v>5087.8334714933335</v>
       </c>
     </row>
@@ -35206,7 +35206,7 @@
         <v>2940</v>
       </c>
       <c r="H830">
-        <f>AVERAGE(B830,D830,F830)</f>
+        <f t="shared" si="12"/>
         <v>5090.5616101233336</v>
       </c>
     </row>
@@ -35233,7 +35233,7 @@
         <v>2608</v>
       </c>
       <c r="H831">
-        <f>AVERAGE(B831,D831,F831)</f>
+        <f t="shared" si="12"/>
         <v>5095.0053737366661</v>
       </c>
     </row>
@@ -35260,7 +35260,7 @@
         <v>2587</v>
       </c>
       <c r="H832">
-        <f>AVERAGE(B832,D832,F832)</f>
+        <f t="shared" si="12"/>
         <v>5104.4219901050001</v>
       </c>
     </row>
@@ -35287,7 +35287,7 @@
         <v>2160</v>
       </c>
       <c r="H833">
-        <f>AVERAGE(B833,D833,F833)</f>
+        <f t="shared" si="12"/>
         <v>5104.9286500433327</v>
       </c>
     </row>
@@ -35314,7 +35314,7 @@
         <v>2620</v>
       </c>
       <c r="H834">
-        <f>AVERAGE(B834,D834,F834)</f>
+        <f t="shared" si="12"/>
         <v>5109.0484243199999</v>
       </c>
     </row>
@@ -35341,7 +35341,7 @@
         <v>2877</v>
       </c>
       <c r="H835">
-        <f>AVERAGE(B835,D835,F835)</f>
+        <f t="shared" ref="H835:H898" si="13">AVERAGE(B835,D835,F835)</f>
         <v>5114.4203725533334</v>
       </c>
     </row>
@@ -35368,7 +35368,7 @@
         <v>2867</v>
       </c>
       <c r="H836">
-        <f>AVERAGE(B836,D836,F836)</f>
+        <f t="shared" si="13"/>
         <v>5120.0431120499998</v>
       </c>
     </row>
@@ -35395,7 +35395,7 @@
         <v>2855</v>
       </c>
       <c r="H837">
-        <f>AVERAGE(B837,D837,F837)</f>
+        <f t="shared" si="13"/>
         <v>5121.0822853633335</v>
       </c>
     </row>
@@ -35422,7 +35422,7 @@
         <v>2426</v>
       </c>
       <c r="H838">
-        <f>AVERAGE(B838,D838,F838)</f>
+        <f t="shared" si="13"/>
         <v>5123.5073534833327</v>
       </c>
     </row>
@@ -35449,7 +35449,7 @@
         <v>2909</v>
       </c>
       <c r="H839">
-        <f>AVERAGE(B839,D839,F839)</f>
+        <f t="shared" si="13"/>
         <v>5124.582294195</v>
       </c>
     </row>
@@ -35476,7 +35476,7 @@
         <v>2369</v>
       </c>
       <c r="H840">
-        <f>AVERAGE(B840,D840,F840)</f>
+        <f t="shared" si="13"/>
         <v>5153.4124364899999</v>
       </c>
     </row>
@@ -35503,7 +35503,7 @@
         <v>2174</v>
       </c>
       <c r="H841">
-        <f>AVERAGE(B841,D841,F841)</f>
+        <f t="shared" si="13"/>
         <v>5154.7279337933332</v>
       </c>
     </row>
@@ -35530,7 +35530,7 @@
         <v>2915</v>
       </c>
       <c r="H842">
-        <f>AVERAGE(B842,D842,F842)</f>
+        <f t="shared" si="13"/>
         <v>5155.6599401133335</v>
       </c>
     </row>
@@ -35557,7 +35557,7 @@
         <v>2055</v>
       </c>
       <c r="H843">
-        <f>AVERAGE(B843,D843,F843)</f>
+        <f t="shared" si="13"/>
         <v>5157.2688978899996</v>
       </c>
     </row>
@@ -35584,7 +35584,7 @@
         <v>2054</v>
       </c>
       <c r="H844">
-        <f>AVERAGE(B844,D844,F844)</f>
+        <f t="shared" si="13"/>
         <v>5168.3751568300004</v>
       </c>
     </row>
@@ -35611,7 +35611,7 @@
         <v>2841</v>
       </c>
       <c r="H845">
-        <f>AVERAGE(B845,D845,F845)</f>
+        <f t="shared" si="13"/>
         <v>5178.3005997</v>
       </c>
     </row>
@@ -35638,7 +35638,7 @@
         <v>2116</v>
       </c>
       <c r="H846">
-        <f>AVERAGE(B846,D846,F846)</f>
+        <f t="shared" si="13"/>
         <v>5189.4498962899997</v>
       </c>
     </row>
@@ -35665,7 +35665,7 @@
         <v>2071</v>
       </c>
       <c r="H847">
-        <f>AVERAGE(B847,D847,F847)</f>
+        <f t="shared" si="13"/>
         <v>5191.736501686667</v>
       </c>
     </row>
@@ -35692,7 +35692,7 @@
         <v>2941</v>
       </c>
       <c r="H848">
-        <f>AVERAGE(B848,D848,F848)</f>
+        <f t="shared" si="13"/>
         <v>5197.0214826599995</v>
       </c>
     </row>
@@ -35719,7 +35719,7 @@
         <v>2870</v>
       </c>
       <c r="H849">
-        <f>AVERAGE(B849,D849,F849)</f>
+        <f t="shared" si="13"/>
         <v>5197.9489562766666</v>
       </c>
     </row>
@@ -35746,7 +35746,7 @@
         <v>2396</v>
       </c>
       <c r="H850">
-        <f>AVERAGE(B850,D850,F850)</f>
+        <f t="shared" si="13"/>
         <v>5198.1798329833337</v>
       </c>
     </row>
@@ -35773,7 +35773,7 @@
         <v>2357</v>
       </c>
       <c r="H851">
-        <f>AVERAGE(B851,D851,F851)</f>
+        <f t="shared" si="13"/>
         <v>5199.7145867733334</v>
       </c>
     </row>
@@ -35800,7 +35800,7 @@
         <v>2351</v>
       </c>
       <c r="H852">
-        <f>AVERAGE(B852,D852,F852)</f>
+        <f t="shared" si="13"/>
         <v>5217.4599487033338</v>
       </c>
     </row>
@@ -35827,7 +35827,7 @@
         <v>2129</v>
       </c>
       <c r="H853">
-        <f>AVERAGE(B853,D853,F853)</f>
+        <f t="shared" si="13"/>
         <v>5224.231004856666</v>
       </c>
     </row>
@@ -35854,7 +35854,7 @@
         <v>2896</v>
       </c>
       <c r="H854">
-        <f>AVERAGE(B854,D854,F854)</f>
+        <f t="shared" si="13"/>
         <v>5224.9269616299998</v>
       </c>
     </row>
@@ -35881,7 +35881,7 @@
         <v>2866</v>
       </c>
       <c r="H855">
-        <f>AVERAGE(B855,D855,F855)</f>
+        <f t="shared" si="13"/>
         <v>5228.0723684866671</v>
       </c>
     </row>
@@ -35908,7 +35908,7 @@
         <v>2667</v>
       </c>
       <c r="H856">
-        <f>AVERAGE(B856,D856,F856)</f>
+        <f t="shared" si="13"/>
         <v>5232.6529998800006</v>
       </c>
     </row>
@@ -35935,7 +35935,7 @@
         <v>2423</v>
       </c>
       <c r="H857">
-        <f>AVERAGE(B857,D857,F857)</f>
+        <f t="shared" si="13"/>
         <v>5245.3420690066669</v>
       </c>
     </row>
@@ -35962,7 +35962,7 @@
         <v>2171</v>
       </c>
       <c r="H858">
-        <f>AVERAGE(B858,D858,F858)</f>
+        <f t="shared" si="13"/>
         <v>5248.8399270633336</v>
       </c>
     </row>
@@ -35989,7 +35989,7 @@
         <v>2356</v>
       </c>
       <c r="H859">
-        <f>AVERAGE(B859,D859,F859)</f>
+        <f t="shared" si="13"/>
         <v>5255.20001796</v>
       </c>
     </row>
@@ -36016,7 +36016,7 @@
         <v>2082</v>
       </c>
       <c r="H860">
-        <f>AVERAGE(B860,D860,F860)</f>
+        <f t="shared" si="13"/>
         <v>5258.4167816066665</v>
       </c>
     </row>
@@ -36043,7 +36043,7 @@
         <v>2590</v>
       </c>
       <c r="H861">
-        <f>AVERAGE(B861,D861,F861)</f>
+        <f t="shared" si="13"/>
         <v>5263.1066198166664</v>
       </c>
     </row>
@@ -36070,7 +36070,7 @@
         <v>2872</v>
       </c>
       <c r="H862">
-        <f>AVERAGE(B862,D862,F862)</f>
+        <f t="shared" si="13"/>
         <v>5267.82884371</v>
       </c>
     </row>
@@ -36097,7 +36097,7 @@
         <v>2613</v>
       </c>
       <c r="H863">
-        <f>AVERAGE(B863,D863,F863)</f>
+        <f t="shared" si="13"/>
         <v>5274.7729883066668</v>
       </c>
     </row>
@@ -36124,7 +36124,7 @@
         <v>2906</v>
       </c>
       <c r="H864">
-        <f>AVERAGE(B864,D864,F864)</f>
+        <f t="shared" si="13"/>
         <v>5278.3298246100003</v>
       </c>
     </row>
@@ -36151,7 +36151,7 @@
         <v>2931</v>
       </c>
       <c r="H865">
-        <f>AVERAGE(B865,D865,F865)</f>
+        <f t="shared" si="13"/>
         <v>5278.7525413199992</v>
       </c>
     </row>
@@ -36178,7 +36178,7 @@
         <v>2934</v>
       </c>
       <c r="H866">
-        <f>AVERAGE(B866,D866,F866)</f>
+        <f t="shared" si="13"/>
         <v>5279.7269754766667</v>
       </c>
     </row>
@@ -36205,7 +36205,7 @@
         <v>2878</v>
       </c>
       <c r="H867">
-        <f>AVERAGE(B867,D867,F867)</f>
+        <f t="shared" si="13"/>
         <v>5281.441482733333</v>
       </c>
     </row>
@@ -36232,7 +36232,7 @@
         <v>2336</v>
       </c>
       <c r="H868">
-        <f>AVERAGE(B868,D868,F868)</f>
+        <f t="shared" si="13"/>
         <v>5282.8180368800004</v>
       </c>
     </row>
@@ -36259,7 +36259,7 @@
         <v>2165</v>
       </c>
       <c r="H869">
-        <f>AVERAGE(B869,D869,F869)</f>
+        <f t="shared" si="13"/>
         <v>5287.30462799</v>
       </c>
     </row>
@@ -36286,7 +36286,7 @@
         <v>2923</v>
       </c>
       <c r="H870">
-        <f>AVERAGE(B870,D870,F870)</f>
+        <f t="shared" si="13"/>
         <v>5290.82660932</v>
       </c>
     </row>
@@ -36313,7 +36313,7 @@
         <v>2673</v>
       </c>
       <c r="H871">
-        <f>AVERAGE(B871,D871,F871)</f>
+        <f t="shared" si="13"/>
         <v>5292.5308486833337</v>
       </c>
     </row>
@@ -36340,7 +36340,7 @@
         <v>2850</v>
       </c>
       <c r="H872">
-        <f>AVERAGE(B872,D872,F872)</f>
+        <f t="shared" si="13"/>
         <v>5298.297363083333</v>
       </c>
     </row>
@@ -36367,7 +36367,7 @@
         <v>2392</v>
       </c>
       <c r="H873">
-        <f>AVERAGE(B873,D873,F873)</f>
+        <f t="shared" si="13"/>
         <v>5305.6818778349998</v>
       </c>
     </row>
@@ -36394,7 +36394,7 @@
         <v>2422</v>
       </c>
       <c r="H874">
-        <f>AVERAGE(B874,D874,F874)</f>
+        <f t="shared" si="13"/>
         <v>5310.2460183433332</v>
       </c>
     </row>
@@ -36421,7 +36421,7 @@
         <v>2432</v>
       </c>
       <c r="H875">
-        <f>AVERAGE(B875,D875,F875)</f>
+        <f t="shared" si="13"/>
         <v>5317.2458005433336</v>
       </c>
     </row>
@@ -36448,7 +36448,7 @@
         <v>2682</v>
       </c>
       <c r="H876">
-        <f>AVERAGE(B876,D876,F876)</f>
+        <f t="shared" si="13"/>
         <v>5320.3905633633331</v>
       </c>
     </row>
@@ -36475,7 +36475,7 @@
         <v>2618</v>
       </c>
       <c r="H877">
-        <f>AVERAGE(B877,D877,F877)</f>
+        <f t="shared" si="13"/>
         <v>5323.580929546667</v>
       </c>
     </row>
@@ -36502,7 +36502,7 @@
         <v>2630</v>
       </c>
       <c r="H878">
-        <f>AVERAGE(B878,D878,F878)</f>
+        <f t="shared" si="13"/>
         <v>5334.5232638466669</v>
       </c>
     </row>
@@ -36529,7 +36529,7 @@
         <v>2104</v>
       </c>
       <c r="H879">
-        <f>AVERAGE(B879,D879,F879)</f>
+        <f t="shared" si="13"/>
         <v>5336.3624672633332</v>
       </c>
     </row>
@@ -36556,7 +36556,7 @@
         <v>2601</v>
       </c>
       <c r="H880">
-        <f>AVERAGE(B880,D880,F880)</f>
+        <f t="shared" si="13"/>
         <v>5336.6553076766659</v>
       </c>
     </row>
@@ -36583,7 +36583,7 @@
         <v>2429</v>
       </c>
       <c r="H881">
-        <f>AVERAGE(B881,D881,F881)</f>
+        <f t="shared" si="13"/>
         <v>5342.4159784333324</v>
       </c>
     </row>
@@ -36610,7 +36610,7 @@
         <v>2075</v>
       </c>
       <c r="H882">
-        <f>AVERAGE(B882,D882,F882)</f>
+        <f t="shared" si="13"/>
         <v>5348.0962242700007</v>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
         <v>2425</v>
       </c>
       <c r="H883">
-        <f>AVERAGE(B883,D883,F883)</f>
+        <f t="shared" si="13"/>
         <v>5371.8081166399998</v>
       </c>
     </row>
@@ -36664,7 +36664,7 @@
         <v>2929</v>
       </c>
       <c r="H884">
-        <f>AVERAGE(B884,D884,F884)</f>
+        <f t="shared" si="13"/>
         <v>5381.0487551966662</v>
       </c>
     </row>
@@ -36691,7 +36691,7 @@
         <v>2582</v>
       </c>
       <c r="H885">
-        <f>AVERAGE(B885,D885,F885)</f>
+        <f t="shared" si="13"/>
         <v>5385.1515850199994</v>
       </c>
     </row>
@@ -36718,7 +36718,7 @@
         <v>2672</v>
       </c>
       <c r="H886">
-        <f>AVERAGE(B886,D886,F886)</f>
+        <f t="shared" si="13"/>
         <v>5395.2649894300002</v>
       </c>
     </row>
@@ -36745,7 +36745,7 @@
         <v>2604</v>
       </c>
       <c r="H887">
-        <f>AVERAGE(B887,D887,F887)</f>
+        <f t="shared" si="13"/>
         <v>5398.088203856666</v>
       </c>
     </row>
@@ -36772,7 +36772,7 @@
         <v>2609</v>
       </c>
       <c r="H888">
-        <f>AVERAGE(B888,D888,F888)</f>
+        <f t="shared" si="13"/>
         <v>5404.4353736666662</v>
       </c>
     </row>
@@ -36799,7 +36799,7 @@
         <v>2632</v>
       </c>
       <c r="H889">
-        <f>AVERAGE(B889,D889,F889)</f>
+        <f t="shared" si="13"/>
         <v>5412.3275065966673</v>
       </c>
     </row>
@@ -36826,7 +36826,7 @@
         <v>2921</v>
       </c>
       <c r="H890">
-        <f>AVERAGE(B890,D890,F890)</f>
+        <f t="shared" si="13"/>
         <v>5416.2317593033331</v>
       </c>
     </row>
@@ -36853,7 +36853,7 @@
         <v>2853</v>
       </c>
       <c r="H891">
-        <f>AVERAGE(B891,D891,F891)</f>
+        <f t="shared" si="13"/>
         <v>5419.1768696899999</v>
       </c>
     </row>
@@ -36880,7 +36880,7 @@
         <v>2935</v>
       </c>
       <c r="H892">
-        <f>AVERAGE(B892,D892,F892)</f>
+        <f t="shared" si="13"/>
         <v>5426.1709480533327</v>
       </c>
     </row>
@@ -36907,7 +36907,7 @@
         <v>2668</v>
       </c>
       <c r="H893">
-        <f>AVERAGE(B893,D893,F893)</f>
+        <f t="shared" si="13"/>
         <v>5428.8888103500003</v>
       </c>
     </row>
@@ -36934,7 +36934,7 @@
         <v>2110</v>
       </c>
       <c r="H894">
-        <f>AVERAGE(B894,D894,F894)</f>
+        <f t="shared" si="13"/>
         <v>5430.2056505500004</v>
       </c>
     </row>
@@ -36961,7 +36961,7 @@
         <v>2388</v>
       </c>
       <c r="H895">
-        <f>AVERAGE(B895,D895,F895)</f>
+        <f t="shared" si="13"/>
         <v>5449.857530946666</v>
       </c>
     </row>
@@ -36988,7 +36988,7 @@
         <v>2680</v>
       </c>
       <c r="H896">
-        <f>AVERAGE(B896,D896,F896)</f>
+        <f t="shared" si="13"/>
         <v>5451.827355686667</v>
       </c>
     </row>
@@ -37015,7 +37015,7 @@
         <v>2864</v>
       </c>
       <c r="H897">
-        <f>AVERAGE(B897,D897,F897)</f>
+        <f t="shared" si="13"/>
         <v>5452.3024645033329</v>
       </c>
     </row>
@@ -37042,7 +37042,7 @@
         <v>2424</v>
       </c>
       <c r="H898">
-        <f>AVERAGE(B898,D898,F898)</f>
+        <f t="shared" si="13"/>
         <v>5457.793073533333</v>
       </c>
     </row>
@@ -37069,7 +37069,7 @@
         <v>2103</v>
       </c>
       <c r="H899">
-        <f>AVERAGE(B899,D899,F899)</f>
+        <f t="shared" ref="H899:H962" si="14">AVERAGE(B899,D899,F899)</f>
         <v>5499.1345286866672</v>
       </c>
     </row>
@@ -37096,7 +37096,7 @@
         <v>2842</v>
       </c>
       <c r="H900">
-        <f>AVERAGE(B900,D900,F900)</f>
+        <f t="shared" si="14"/>
         <v>5508.0394533449999</v>
       </c>
     </row>
@@ -37123,7 +37123,7 @@
         <v>2933</v>
       </c>
       <c r="H901">
-        <f>AVERAGE(B901,D901,F901)</f>
+        <f t="shared" si="14"/>
         <v>5523.7776107933341</v>
       </c>
     </row>
@@ -37150,7 +37150,7 @@
         <v>2127</v>
       </c>
       <c r="H902">
-        <f>AVERAGE(B902,D902,F902)</f>
+        <f t="shared" si="14"/>
         <v>5535.6240813033328</v>
       </c>
     </row>
@@ -37177,7 +37177,7 @@
         <v>2101</v>
       </c>
       <c r="H903">
-        <f>AVERAGE(B903,D903,F903)</f>
+        <f t="shared" si="14"/>
         <v>5537.1854848433331</v>
       </c>
     </row>
@@ -37204,7 +37204,7 @@
         <v>2936</v>
       </c>
       <c r="H904">
-        <f>AVERAGE(B904,D904,F904)</f>
+        <f t="shared" si="14"/>
         <v>5540.1716162500006</v>
       </c>
     </row>
@@ -37231,7 +37231,7 @@
         <v>2938</v>
       </c>
       <c r="H905">
-        <f>AVERAGE(B905,D905,F905)</f>
+        <f t="shared" si="14"/>
         <v>5540.3194385200004</v>
       </c>
     </row>
@@ -37258,7 +37258,7 @@
         <v>2389</v>
       </c>
       <c r="H906">
-        <f>AVERAGE(B906,D906,F906)</f>
+        <f t="shared" si="14"/>
         <v>5557.3950389366664</v>
       </c>
     </row>
@@ -37285,7 +37285,7 @@
         <v>2113</v>
       </c>
       <c r="H907">
-        <f>AVERAGE(B907,D907,F907)</f>
+        <f t="shared" si="14"/>
         <v>5575.8156954466658</v>
       </c>
     </row>
@@ -37312,7 +37312,7 @@
         <v>2576</v>
       </c>
       <c r="H908">
-        <f>AVERAGE(B908,D908,F908)</f>
+        <f t="shared" si="14"/>
         <v>5585.1779782000003</v>
       </c>
     </row>
@@ -37339,7 +37339,7 @@
         <v>2675</v>
       </c>
       <c r="H909">
-        <f>AVERAGE(B909,D909,F909)</f>
+        <f t="shared" si="14"/>
         <v>5588.2641669766672</v>
       </c>
     </row>
@@ -37366,7 +37366,7 @@
         <v>2863</v>
       </c>
       <c r="H910">
-        <f>AVERAGE(B910,D910,F910)</f>
+        <f t="shared" si="14"/>
         <v>5590.9063598566672</v>
       </c>
     </row>
@@ -37393,7 +37393,7 @@
         <v>2122</v>
       </c>
       <c r="H911">
-        <f>AVERAGE(B911,D911,F911)</f>
+        <f t="shared" si="14"/>
         <v>5597.2007869499994</v>
       </c>
     </row>
@@ -37420,7 +37420,7 @@
         <v>2688</v>
       </c>
       <c r="H912">
-        <f>AVERAGE(B912,D912,F912)</f>
+        <f t="shared" si="14"/>
         <v>5597.2245690966665</v>
       </c>
     </row>
@@ -37447,7 +37447,7 @@
         <v>2065</v>
       </c>
       <c r="H913">
-        <f>AVERAGE(B913,D913,F913)</f>
+        <f t="shared" si="14"/>
         <v>5601.505989755</v>
       </c>
     </row>
@@ -37474,7 +37474,7 @@
         <v>2874</v>
       </c>
       <c r="H914">
-        <f>AVERAGE(B914,D914,F914)</f>
+        <f t="shared" si="14"/>
         <v>5608.8687309333327</v>
       </c>
     </row>
@@ -37501,7 +37501,7 @@
         <v>2937</v>
       </c>
       <c r="H915">
-        <f>AVERAGE(B915,D915,F915)</f>
+        <f t="shared" si="14"/>
         <v>5614.0000715233327</v>
       </c>
     </row>
@@ -37528,7 +37528,7 @@
         <v>2686</v>
       </c>
       <c r="H916">
-        <f>AVERAGE(B916,D916,F916)</f>
+        <f t="shared" si="14"/>
         <v>5620.8708134199996</v>
       </c>
     </row>
@@ -37555,7 +37555,7 @@
         <v>2858</v>
       </c>
       <c r="H917">
-        <f>AVERAGE(B917,D917,F917)</f>
+        <f t="shared" si="14"/>
         <v>5624.5489844666663</v>
       </c>
     </row>
@@ -37582,7 +37582,7 @@
         <v>2098</v>
       </c>
       <c r="H918">
-        <f>AVERAGE(B918,D918,F918)</f>
+        <f t="shared" si="14"/>
         <v>5634.411184196666</v>
       </c>
     </row>
@@ -37609,7 +37609,7 @@
         <v>2401</v>
       </c>
       <c r="H919">
-        <f>AVERAGE(B919,D919,F919)</f>
+        <f t="shared" si="14"/>
         <v>5638.0997978266669</v>
       </c>
     </row>
@@ -37636,7 +37636,7 @@
         <v>2353</v>
       </c>
       <c r="H920">
-        <f>AVERAGE(B920,D920,F920)</f>
+        <f t="shared" si="14"/>
         <v>5647.672051763333</v>
       </c>
     </row>
@@ -37663,7 +37663,7 @@
         <v>2112</v>
       </c>
       <c r="H921">
-        <f>AVERAGE(B921,D921,F921)</f>
+        <f t="shared" si="14"/>
         <v>5665.7355348833335</v>
       </c>
     </row>
@@ -37690,7 +37690,7 @@
         <v>2616</v>
       </c>
       <c r="H922">
-        <f>AVERAGE(B922,D922,F922)</f>
+        <f t="shared" si="14"/>
         <v>5666.6701717700007</v>
       </c>
     </row>
@@ -37717,7 +37717,7 @@
         <v>2859</v>
       </c>
       <c r="H923">
-        <f>AVERAGE(B923,D923,F923)</f>
+        <f t="shared" si="14"/>
         <v>5671.9670349166663</v>
       </c>
     </row>
@@ -37744,7 +37744,7 @@
         <v>2431</v>
       </c>
       <c r="H924">
-        <f>AVERAGE(B924,D924,F924)</f>
+        <f t="shared" si="14"/>
         <v>5682.7716761800002</v>
       </c>
     </row>
@@ -37771,7 +37771,7 @@
         <v>2831</v>
       </c>
       <c r="H925">
-        <f>AVERAGE(B925,D925,F925)</f>
+        <f t="shared" si="14"/>
         <v>5683.7524063066667</v>
       </c>
     </row>
@@ -37798,7 +37798,7 @@
         <v>2942</v>
       </c>
       <c r="H926">
-        <f>AVERAGE(B926,D926,F926)</f>
+        <f t="shared" si="14"/>
         <v>5684.9730682233321</v>
       </c>
     </row>
@@ -37825,7 +37825,7 @@
         <v>2419</v>
       </c>
       <c r="H927">
-        <f>AVERAGE(B927,D927,F927)</f>
+        <f t="shared" si="14"/>
         <v>5706.4843698733339</v>
       </c>
     </row>
@@ -37852,7 +37852,7 @@
         <v>2876</v>
       </c>
       <c r="H928">
-        <f>AVERAGE(B928,D928,F928)</f>
+        <f t="shared" si="14"/>
         <v>5708.3747807766658</v>
       </c>
     </row>
@@ -37879,7 +37879,7 @@
         <v>2131</v>
       </c>
       <c r="H929">
-        <f>AVERAGE(B929,D929,F929)</f>
+        <f t="shared" si="14"/>
         <v>5715.8883412200003</v>
       </c>
     </row>
@@ -37906,7 +37906,7 @@
         <v>2943</v>
       </c>
       <c r="H930">
-        <f>AVERAGE(B930,D930,F930)</f>
+        <f t="shared" si="14"/>
         <v>5732.7881420266667</v>
       </c>
     </row>
@@ -37933,7 +37933,7 @@
         <v>2325</v>
       </c>
       <c r="H931">
-        <f>AVERAGE(B931,D931,F931)</f>
+        <f t="shared" si="14"/>
         <v>5733.482147105</v>
       </c>
     </row>
@@ -37960,7 +37960,7 @@
         <v>2177</v>
       </c>
       <c r="H932">
-        <f>AVERAGE(B932,D932,F932)</f>
+        <f t="shared" si="14"/>
         <v>5746.6941891933338</v>
       </c>
     </row>
@@ -37987,7 +37987,7 @@
         <v>2844</v>
       </c>
       <c r="H933">
-        <f>AVERAGE(B933,D933,F933)</f>
+        <f t="shared" si="14"/>
         <v>5765.2629484400004</v>
       </c>
     </row>
@@ -38014,7 +38014,7 @@
         <v>2669</v>
       </c>
       <c r="H934">
-        <f>AVERAGE(B934,D934,F934)</f>
+        <f t="shared" si="14"/>
         <v>5770.5317669866672</v>
       </c>
     </row>
@@ -38041,7 +38041,7 @@
         <v>2059</v>
       </c>
       <c r="H935">
-        <f>AVERAGE(B935,D935,F935)</f>
+        <f t="shared" si="14"/>
         <v>5785.4944108299997</v>
       </c>
     </row>
@@ -38068,7 +38068,7 @@
         <v>2894</v>
       </c>
       <c r="H936">
-        <f>AVERAGE(B936,D936,F936)</f>
+        <f t="shared" si="14"/>
         <v>5790.2988824000004</v>
       </c>
     </row>
@@ -38095,7 +38095,7 @@
         <v>2146</v>
       </c>
       <c r="H937">
-        <f>AVERAGE(B937,D937,F937)</f>
+        <f t="shared" si="14"/>
         <v>5791.1581894000001</v>
       </c>
     </row>
@@ -38122,7 +38122,7 @@
         <v>2390</v>
       </c>
       <c r="H938">
-        <f>AVERAGE(B938,D938,F938)</f>
+        <f t="shared" si="14"/>
         <v>5845.5098299200008</v>
       </c>
     </row>
@@ -38149,7 +38149,7 @@
         <v>2826</v>
       </c>
       <c r="H939">
-        <f>AVERAGE(B939,D939,F939)</f>
+        <f t="shared" si="14"/>
         <v>5891.0697304249998</v>
       </c>
     </row>
@@ -38176,7 +38176,7 @@
         <v>2932</v>
       </c>
       <c r="H940">
-        <f>AVERAGE(B940,D940,F940)</f>
+        <f t="shared" si="14"/>
         <v>5892.8417059200001</v>
       </c>
     </row>
@@ -38203,7 +38203,7 @@
         <v>2399</v>
       </c>
       <c r="H941">
-        <f>AVERAGE(B941,D941,F941)</f>
+        <f t="shared" si="14"/>
         <v>5908.914429299999</v>
       </c>
     </row>
@@ -38230,7 +38230,7 @@
         <v>2170</v>
       </c>
       <c r="H942">
-        <f>AVERAGE(B942,D942,F942)</f>
+        <f t="shared" si="14"/>
         <v>5929.5559495266671</v>
       </c>
     </row>
@@ -38257,7 +38257,7 @@
         <v>2349</v>
       </c>
       <c r="H943">
-        <f>AVERAGE(B943,D943,F943)</f>
+        <f t="shared" si="14"/>
         <v>5961.6568134633335</v>
       </c>
     </row>
@@ -38284,7 +38284,7 @@
         <v>2823</v>
       </c>
       <c r="H944">
-        <f>AVERAGE(B944,D944,F944)</f>
+        <f t="shared" si="14"/>
         <v>5967.7919129949996</v>
       </c>
     </row>
@@ -38311,7 +38311,7 @@
         <v>2840</v>
       </c>
       <c r="H945">
-        <f>AVERAGE(B945,D945,F945)</f>
+        <f t="shared" si="14"/>
         <v>5979.735220005</v>
       </c>
     </row>
@@ -38338,7 +38338,7 @@
         <v>2887</v>
       </c>
       <c r="H946">
-        <f>AVERAGE(B946,D946,F946)</f>
+        <f t="shared" si="14"/>
         <v>6002.4724016250002</v>
       </c>
     </row>
@@ -38365,7 +38365,7 @@
         <v>2843</v>
       </c>
       <c r="H947">
-        <f>AVERAGE(B947,D947,F947)</f>
+        <f t="shared" si="14"/>
         <v>6006.2344817033336</v>
       </c>
     </row>
@@ -38392,7 +38392,7 @@
         <v>2652</v>
       </c>
       <c r="H948">
-        <f>AVERAGE(B948,D948,F948)</f>
+        <f t="shared" si="14"/>
         <v>6007.8419962199996</v>
       </c>
     </row>
@@ -38419,7 +38419,7 @@
         <v>2592</v>
       </c>
       <c r="H949">
-        <f>AVERAGE(B949,D949,F949)</f>
+        <f t="shared" si="14"/>
         <v>6049.4700406649999</v>
       </c>
     </row>
@@ -38446,7 +38446,7 @@
         <v>2889</v>
       </c>
       <c r="H950">
-        <f>AVERAGE(B950,D950,F950)</f>
+        <f t="shared" si="14"/>
         <v>6075.8385095900003</v>
       </c>
     </row>
@@ -38473,7 +38473,7 @@
         <v>2371</v>
       </c>
       <c r="H951">
-        <f>AVERAGE(B951,D951,F951)</f>
+        <f t="shared" si="14"/>
         <v>6082.2499697399999</v>
       </c>
     </row>
@@ -38500,7 +38500,7 @@
         <v>2315</v>
       </c>
       <c r="H952">
-        <f>AVERAGE(B952,D952,F952)</f>
+        <f t="shared" si="14"/>
         <v>6138.1450563300004</v>
       </c>
     </row>
@@ -38527,7 +38527,7 @@
         <v>2888</v>
       </c>
       <c r="H953">
-        <f>AVERAGE(B953,D953,F953)</f>
+        <f t="shared" si="14"/>
         <v>6138.4321842600002</v>
       </c>
     </row>
@@ -38554,7 +38554,7 @@
         <v>2893</v>
       </c>
       <c r="H954">
-        <f>AVERAGE(B954,D954,F954)</f>
+        <f t="shared" si="14"/>
         <v>6145.4413366549998</v>
       </c>
     </row>
@@ -38581,7 +38581,7 @@
         <v>2567</v>
       </c>
       <c r="H955">
-        <f>AVERAGE(B955,D955,F955)</f>
+        <f t="shared" si="14"/>
         <v>6296.4137978099998</v>
       </c>
     </row>
@@ -38608,7 +38608,7 @@
         <v>2833</v>
       </c>
       <c r="H956">
-        <f>AVERAGE(B956,D956,F956)</f>
+        <f t="shared" si="14"/>
         <v>6298.7181231666664</v>
       </c>
     </row>
@@ -38635,7 +38635,7 @@
         <v>2076</v>
       </c>
       <c r="H957">
-        <f>AVERAGE(B957,D957,F957)</f>
+        <f t="shared" si="14"/>
         <v>6345.4487958649997</v>
       </c>
     </row>
@@ -38662,7 +38662,7 @@
         <v>2640</v>
       </c>
       <c r="H958">
-        <f>AVERAGE(B958,D958,F958)</f>
+        <f t="shared" si="14"/>
         <v>6385.9487605499999</v>
       </c>
     </row>
@@ -38689,7 +38689,7 @@
         <v>2128</v>
       </c>
       <c r="H959">
-        <f>AVERAGE(B959,D959,F959)</f>
+        <f t="shared" si="14"/>
         <v>6528.1196513600007</v>
       </c>
     </row>
@@ -38716,7 +38716,7 @@
         <v>2385</v>
       </c>
       <c r="H960">
-        <f>AVERAGE(B960,D960,F960)</f>
+        <f t="shared" si="14"/>
         <v>6588.3540504600005</v>
       </c>
     </row>
@@ -38743,7 +38743,7 @@
         <v>2057</v>
       </c>
       <c r="H961">
-        <f>AVERAGE(B961,D961,F961)</f>
+        <f t="shared" si="14"/>
         <v>6658.6898899500002</v>
       </c>
     </row>
@@ -38770,7 +38770,7 @@
         <v>2058</v>
       </c>
       <c r="H962">
-        <f>AVERAGE(B962,D962,F962)</f>
+        <f t="shared" si="14"/>
         <v>6864.5735056600006</v>
       </c>
     </row>
@@ -38797,7 +38797,7 @@
         <v>2120</v>
       </c>
       <c r="H963">
-        <f>AVERAGE(B963,D963,F963)</f>
+        <f t="shared" ref="H963:H1026" si="15">AVERAGE(B963,D963,F963)</f>
         <v>6996.2921816600001</v>
       </c>
     </row>
@@ -38824,7 +38824,7 @@
         <v>2579</v>
       </c>
       <c r="H964">
-        <f>AVERAGE(B964,D964,F964)</f>
+        <f t="shared" si="15"/>
         <v>7781.2641111433331</v>
       </c>
     </row>
@@ -38851,7 +38851,7 @@
         <v>2078</v>
       </c>
       <c r="H965">
-        <f>AVERAGE(B965,D965,F965)</f>
+        <f t="shared" si="15"/>
         <v>9113.521772656668</v>
       </c>
     </row>
@@ -38878,7 +38878,7 @@
         <v>2914</v>
       </c>
       <c r="H966">
-        <f>AVERAGE(B966,D966,F966)</f>
+        <f t="shared" si="15"/>
         <v>9776.2141497833345</v>
       </c>
     </row>
@@ -38905,7 +38905,7 @@
         <v>2655</v>
       </c>
       <c r="H967">
-        <f>AVERAGE(B967,D967,F967)</f>
+        <f t="shared" si="15"/>
         <v>12316.693024116665</v>
       </c>
     </row>
@@ -38932,7 +38932,7 @@
         <v>2649</v>
       </c>
       <c r="H968">
-        <f>AVERAGE(B968,D968,F968)</f>
+        <f t="shared" si="15"/>
         <v>16283.436390344999</v>
       </c>
     </row>
@@ -38959,7 +38959,7 @@
         <v>2132</v>
       </c>
       <c r="H969">
-        <f>AVERAGE(B969,D969,F969)</f>
+        <f t="shared" si="15"/>
         <v>20301.575122030001</v>
       </c>
     </row>
@@ -38986,7 +38986,7 @@
         <v>2563</v>
       </c>
       <c r="H970">
-        <f>AVERAGE(B970,D970,F970)</f>
+        <f t="shared" si="15"/>
         <v>32059.116646959999</v>
       </c>
     </row>
@@ -39013,7 +39013,7 @@
         <v>2387</v>
       </c>
       <c r="H971">
-        <f>AVERAGE(B971,D971,F971)</f>
+        <f t="shared" si="15"/>
         <v>49602.772384066666</v>
       </c>
     </row>
@@ -39040,7 +39040,7 @@
         <v>2825</v>
       </c>
       <c r="H972">
-        <f>AVERAGE(B972,D972,F972)</f>
+        <f t="shared" si="15"/>
         <v>83245.216217499998</v>
       </c>
     </row>
@@ -39067,7 +39067,7 @@
         <v>2504</v>
       </c>
       <c r="H973">
-        <f>AVERAGE(B973,D973,F973)</f>
+        <f t="shared" si="15"/>
         <v>84871.626239853329</v>
       </c>
     </row>
@@ -39094,7 +39094,7 @@
         <v>2643</v>
       </c>
       <c r="H974">
-        <f>AVERAGE(B974,D974,F974)</f>
+        <f t="shared" si="15"/>
         <v>156107.63792874001</v>
       </c>
     </row>
@@ -39121,7 +39121,7 @@
         <v>2331</v>
       </c>
       <c r="H975">
-        <f>AVERAGE(B975,D975,F975)</f>
+        <f t="shared" si="15"/>
         <v>812889.4683321066</v>
       </c>
     </row>
@@ -39148,7 +39148,7 @@
         <v>2330</v>
       </c>
       <c r="H976">
-        <f>AVERAGE(B976,D976,F976)</f>
+        <f t="shared" si="15"/>
         <v>1305037.2675214151</v>
       </c>
     </row>
@@ -39175,7 +39175,7 @@
         <v>2659</v>
       </c>
       <c r="H977">
-        <f>AVERAGE(B977,D977,F977)</f>
+        <f t="shared" si="15"/>
         <v>1450431.7281345467</v>
       </c>
     </row>
@@ -39202,7 +39202,7 @@
         <v>2068</v>
       </c>
       <c r="H978">
-        <f>AVERAGE(B978,D978,F978)</f>
+        <f t="shared" si="15"/>
         <v>1868475.6259135467</v>
       </c>
     </row>
@@ -39229,7 +39229,7 @@
         <v>2263</v>
       </c>
       <c r="H979">
-        <f>AVERAGE(B979,D979,F979)</f>
+        <f t="shared" si="15"/>
         <v>4936395.1849177834</v>
       </c>
     </row>
@@ -39256,7 +39256,7 @@
         <v>2074</v>
       </c>
       <c r="H980">
-        <f>AVERAGE(B980,D980,F980)</f>
+        <f t="shared" si="15"/>
         <v>6650601.2186399801</v>
       </c>
     </row>
@@ -39283,7 +39283,7 @@
         <v>2835</v>
       </c>
       <c r="H981">
-        <f>AVERAGE(B981,D981,F981)</f>
+        <f t="shared" si="15"/>
         <v>7605302.284055504</v>
       </c>
     </row>
@@ -39310,7 +39310,7 @@
         <v>2919</v>
       </c>
       <c r="H982">
-        <f>AVERAGE(B982,D982,F982)</f>
+        <f t="shared" si="15"/>
         <v>11886685.012451554</v>
       </c>
     </row>
@@ -39337,7 +39337,7 @@
         <v>2133</v>
       </c>
       <c r="H983">
-        <f>AVERAGE(B983,D983,F983)</f>
+        <f t="shared" si="15"/>
         <v>58828503.002228163</v>
       </c>
     </row>
@@ -39364,7 +39364,7 @@
         <v>2657</v>
       </c>
       <c r="H984">
-        <f>AVERAGE(B984,D984,F984)</f>
+        <f t="shared" si="15"/>
         <v>109723115.8581115</v>
       </c>
     </row>
@@ -39391,7 +39391,7 @@
         <v>2904</v>
       </c>
       <c r="H985">
-        <f>AVERAGE(B985,D985,F985)</f>
+        <f t="shared" si="15"/>
         <v>151795199.48789138</v>
       </c>
     </row>
@@ -39418,7 +39418,7 @@
         <v>2981</v>
       </c>
       <c r="H986">
-        <f>AVERAGE(B986,D986,F986)</f>
+        <f t="shared" si="15"/>
         <v>199535083.79229903</v>
       </c>
     </row>
@@ -39445,7 +39445,7 @@
         <v>2328</v>
       </c>
       <c r="H987">
-        <f>AVERAGE(B987,D987,F987)</f>
+        <f t="shared" si="15"/>
         <v>281135803.99160767</v>
       </c>
     </row>
@@ -39472,7 +39472,7 @@
         <v>2583</v>
       </c>
       <c r="H988">
-        <f>AVERAGE(B988,D988,F988)</f>
+        <f t="shared" si="15"/>
         <v>617185011.36860788</v>
       </c>
     </row>
@@ -39499,7 +39499,7 @@
         <v>2571</v>
       </c>
       <c r="H989">
-        <f>AVERAGE(B989,D989,F989)</f>
+        <f t="shared" si="15"/>
         <v>5539343120.4603386</v>
       </c>
     </row>
@@ -39526,7 +39526,7 @@
         <v>2658</v>
       </c>
       <c r="H990">
-        <f>AVERAGE(B990,D990,F990)</f>
+        <f t="shared" si="15"/>
         <v>6735207781.4061899</v>
       </c>
     </row>
@@ -39553,7 +39553,7 @@
         <v>2743</v>
       </c>
       <c r="H991">
-        <f>AVERAGE(B991,D991,F991)</f>
+        <f t="shared" si="15"/>
         <v>15502271537.171762</v>
       </c>
     </row>
@@ -39580,7 +39580,7 @@
         <v>2087</v>
       </c>
       <c r="H992">
-        <f>AVERAGE(B992,D992,F992)</f>
+        <f t="shared" si="15"/>
         <v>21862125317.467136</v>
       </c>
     </row>
@@ -39607,7 +39607,7 @@
         <v>2621</v>
       </c>
       <c r="H993">
-        <f>AVERAGE(B993,D993,F993)</f>
+        <f t="shared" si="15"/>
         <v>56480635068.458427</v>
       </c>
     </row>
@@ -39634,7 +39634,7 @@
         <v>2260</v>
       </c>
       <c r="H994">
-        <f>AVERAGE(B994,D994,F994)</f>
+        <f t="shared" si="15"/>
         <v>122686434555.07268</v>
       </c>
     </row>
@@ -39661,7 +39661,7 @@
         <v>2664</v>
       </c>
       <c r="H995">
-        <f>AVERAGE(B995,D995,F995)</f>
+        <f t="shared" si="15"/>
         <v>173459917587.94345</v>
       </c>
     </row>
@@ -39688,7 +39688,7 @@
         <v>2366</v>
       </c>
       <c r="H996">
-        <f>AVERAGE(B996,D996,F996)</f>
+        <f t="shared" si="15"/>
         <v>1147790935855.906</v>
       </c>
     </row>
@@ -39715,7 +39715,7 @@
         <v>2248</v>
       </c>
       <c r="H997">
-        <f>AVERAGE(B997,D997,F997)</f>
+        <f t="shared" si="15"/>
         <v>3216178982498.0376</v>
       </c>
     </row>
@@ -39742,7 +39742,7 @@
         <v>2466</v>
       </c>
       <c r="H998">
-        <f>AVERAGE(B998,D998,F998)</f>
+        <f t="shared" si="15"/>
         <v>9685704078334.7227</v>
       </c>
     </row>
@@ -39769,7 +39769,7 @@
         <v>3049</v>
       </c>
       <c r="H999">
-        <f>AVERAGE(B999,D999,F999)</f>
+        <f t="shared" si="15"/>
         <v>11704618666398.266</v>
       </c>
     </row>
@@ -39796,7 +39796,7 @@
         <v>2144</v>
       </c>
       <c r="H1000">
-        <f>AVERAGE(B1000,D1000,F1000)</f>
+        <f t="shared" si="15"/>
         <v>11812325823263.08</v>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
         <v>2674</v>
       </c>
       <c r="H1001">
-        <f>AVERAGE(B1001,D1001,F1001)</f>
+        <f t="shared" si="15"/>
         <v>24249178863953.363</v>
       </c>
     </row>
@@ -39850,7 +39850,7 @@
         <v>2580</v>
       </c>
       <c r="H1002">
-        <f>AVERAGE(B1002,D1002,F1002)</f>
+        <f t="shared" si="15"/>
         <v>29863942263964.746</v>
       </c>
     </row>
@@ -39877,7 +39877,7 @@
         <v>2822</v>
       </c>
       <c r="H1003">
-        <f>AVERAGE(B1003,D1003,F1003)</f>
+        <f t="shared" si="15"/>
         <v>38308432930010.336</v>
       </c>
     </row>
@@ -39904,7 +39904,7 @@
         <v>2845</v>
       </c>
       <c r="H1004">
-        <f>AVERAGE(B1004,D1004,F1004)</f>
+        <f t="shared" si="15"/>
         <v>39110693680027.344</v>
       </c>
     </row>
@@ -39931,7 +39931,7 @@
         <v>2530</v>
       </c>
       <c r="H1005">
-        <f>AVERAGE(B1005,D1005,F1005)</f>
+        <f t="shared" si="15"/>
         <v>43711597660652.008</v>
       </c>
     </row>
@@ -39958,7 +39958,7 @@
         <v>2398</v>
       </c>
       <c r="H1006">
-        <f>AVERAGE(B1006,D1006,F1006)</f>
+        <f t="shared" si="15"/>
         <v>84838982332870.953</v>
       </c>
     </row>
@@ -39985,7 +39985,7 @@
         <v>2925</v>
       </c>
       <c r="H1007">
-        <f>AVERAGE(B1007,D1007,F1007)</f>
+        <f t="shared" si="15"/>
         <v>98281645237924.922</v>
       </c>
     </row>
@@ -40012,7 +40012,7 @@
         <v>2223</v>
       </c>
       <c r="H1008">
-        <f>AVERAGE(B1008,D1008,F1008)</f>
+        <f t="shared" si="15"/>
         <v>238938498875737.5</v>
       </c>
     </row>
@@ -40039,7 +40039,7 @@
         <v>2871</v>
       </c>
       <c r="H1009">
-        <f>AVERAGE(B1009,D1009,F1009)</f>
+        <f t="shared" si="15"/>
         <v>314507027971709.56</v>
       </c>
     </row>
@@ -40066,7 +40066,7 @@
         <v>2224</v>
       </c>
       <c r="H1010">
-        <f>AVERAGE(B1010,D1010,F1010)</f>
+        <f t="shared" si="15"/>
         <v>3008577154374090</v>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
         <v>2927</v>
       </c>
       <c r="H1011">
-        <f>AVERAGE(B1011,D1011,F1011)</f>
+        <f t="shared" si="15"/>
         <v>5117528527569899</v>
       </c>
     </row>
@@ -40120,7 +40120,7 @@
         <v>2154</v>
       </c>
       <c r="H1012">
-        <f>AVERAGE(B1012,D1012,F1012)</f>
+        <f t="shared" si="15"/>
         <v>1.2603705732537054E+16</v>
       </c>
     </row>
@@ -40147,7 +40147,7 @@
         <v>2662</v>
       </c>
       <c r="H1013">
-        <f>AVERAGE(B1013,D1013,F1013)</f>
+        <f t="shared" si="15"/>
         <v>2.6572979666570208E+16</v>
       </c>
     </row>
@@ -40174,7 +40174,7 @@
         <v>2393</v>
       </c>
       <c r="H1014">
-        <f>AVERAGE(B1014,D1014,F1014)</f>
+        <f t="shared" si="15"/>
         <v>1.4485025754333693E+17</v>
       </c>
     </row>
@@ -40201,7 +40201,7 @@
         <v>2109</v>
       </c>
       <c r="H1015">
-        <f>AVERAGE(B1015,D1015,F1015)</f>
+        <f t="shared" si="15"/>
         <v>1.4952795531933371E+18</v>
       </c>
     </row>
@@ -40228,7 +40228,7 @@
         <v>2397</v>
       </c>
       <c r="H1016">
-        <f>AVERAGE(B1016,D1016,F1016)</f>
+        <f t="shared" si="15"/>
         <v>5.2871584239000001E+20</v>
       </c>
     </row>
@@ -40255,7 +40255,7 @@
         <v>2077</v>
       </c>
       <c r="H1017">
-        <f>AVERAGE(B1017,D1017,F1017)</f>
+        <f t="shared" si="15"/>
         <v>1.08082317224E+21</v>
       </c>
     </row>
@@ -40282,7 +40282,7 @@
         <v>2920</v>
       </c>
       <c r="H1018">
-        <f>AVERAGE(B1018,D1018,F1018)</f>
+        <f t="shared" si="15"/>
         <v>1.9525826421700002E+22</v>
       </c>
     </row>
@@ -40309,7 +40309,7 @@
         <v>2846</v>
       </c>
       <c r="H1019">
-        <f>AVERAGE(B1019,D1019,F1019)</f>
+        <f t="shared" si="15"/>
         <v>1.9837783080449999E+29</v>
       </c>
     </row>
@@ -40336,7 +40336,7 @@
         <v>2158</v>
       </c>
       <c r="H1020">
-        <f>AVERAGE(B1020,D1020,F1020)</f>
+        <f t="shared" si="15"/>
         <v>7.1847434050999997E+31</v>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
         <v>2899</v>
       </c>
       <c r="H1021">
-        <f>AVERAGE(B1021,D1021,F1021)</f>
+        <f t="shared" si="15"/>
         <v>6.188443225366666E+32</v>
       </c>
     </row>
@@ -40390,7 +40390,7 @@
         <v>2568</v>
       </c>
       <c r="H1022">
-        <f>AVERAGE(B1022,D1022,F1022)</f>
+        <f t="shared" si="15"/>
         <v>2.05550948005E+33</v>
       </c>
     </row>
@@ -40417,7 +40417,7 @@
         <v>2306</v>
       </c>
       <c r="H1023" t="e">
-        <f>AVERAGE(B1023,D1023,F1023)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40444,7 +40444,7 @@
         <v>2320</v>
       </c>
       <c r="H1024" t="e">
-        <f>AVERAGE(B1024,D1024,F1024)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40471,7 +40471,7 @@
         <v>2575</v>
       </c>
       <c r="H1025" t="e">
-        <f>AVERAGE(B1025,D1025,F1025)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40498,7 +40498,7 @@
         <v>2820</v>
       </c>
       <c r="H1026" t="e">
-        <f>AVERAGE(B1026,D1026,F1026)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40527,46 +40527,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>4126</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>4125</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>4123</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>4124</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -40607,7 +40607,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>3086</v>
       </c>
       <c r="B5">
@@ -40648,7 +40648,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>3</v>
       </c>
@@ -40687,7 +40687,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -40726,7 +40726,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>2</v>
       </c>
@@ -40765,7 +40765,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -40804,7 +40804,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="13"/>
       <c r="B10">
         <v>2</v>
       </c>
@@ -40843,7 +40843,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="13"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -40882,7 +40882,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="13"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -40921,7 +40921,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="13"/>
       <c r="B13">
         <v>1</v>
       </c>
@@ -40960,7 +40960,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="13" t="s">
         <v>3087</v>
       </c>
       <c r="B15">
@@ -41001,7 +41001,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="13"/>
       <c r="B16">
         <v>3</v>
       </c>
@@ -41040,7 +41040,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="13"/>
       <c r="B17">
         <v>3</v>
       </c>
@@ -41079,7 +41079,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="13"/>
       <c r="B18">
         <v>2</v>
       </c>
@@ -41118,7 +41118,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="13"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -41157,7 +41157,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="13"/>
       <c r="B20">
         <v>2</v>
       </c>
@@ -41196,7 +41196,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="13"/>
       <c r="B21">
         <v>1</v>
       </c>
@@ -41235,7 +41235,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="13"/>
       <c r="B22">
         <v>1</v>
       </c>
@@ -41274,7 +41274,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="13"/>
       <c r="B23">
         <v>1</v>
       </c>
@@ -41313,10 +41313,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25">
         <v>0.25</v>
       </c>
@@ -41325,7 +41325,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="13" t="s">
         <v>3088</v>
       </c>
       <c r="B27">
@@ -41376,7 +41376,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="13"/>
       <c r="B28">
         <v>3</v>
       </c>
@@ -41425,7 +41425,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="13"/>
       <c r="B29">
         <v>3</v>
       </c>
@@ -41474,7 +41474,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="13"/>
       <c r="B30">
         <v>2</v>
       </c>
@@ -41523,7 +41523,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="13"/>
       <c r="B31">
         <v>2</v>
       </c>
@@ -41572,7 +41572,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="13"/>
       <c r="B32">
         <v>2</v>
       </c>
@@ -41621,7 +41621,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="13"/>
       <c r="B33">
         <v>1</v>
       </c>
@@ -41670,7 +41670,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+      <c r="A34" s="13"/>
       <c r="B34">
         <v>1</v>
       </c>
@@ -41719,7 +41719,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+      <c r="A35" s="13"/>
       <c r="B35">
         <v>1</v>
       </c>
@@ -41768,12 +41768,12 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>4122</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="13" t="s">
         <v>3089</v>
       </c>
       <c r="B37">
@@ -41782,61 +41782,61 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>9.6249999999999999E-3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>2.35E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>1.5300000000000001E-2</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>5.3749999999999996E-3</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>0.65842499999999993</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>1.578975</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>1.1724999999999999E-2</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>0.78839999999999999</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>1.23065</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="13"/>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>9.725000000000001E-3</v>
       </c>
       <c r="E38" s="3">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>1.5399999999999999E-2</v>
       </c>
       <c r="G38" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>3.9750000000000002E-3</v>
       </c>
       <c r="I38" s="3">
@@ -41848,18 +41848,18 @@
       <c r="K38" s="3">
         <v>1.2375000000000001E-2</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>0.78152500000000003</v>
       </c>
       <c r="M38" s="3">
         <v>1.49515</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="13"/>
       <c r="B39">
         <v>3</v>
       </c>
@@ -41896,10 +41896,10 @@
       <c r="M39" s="3">
         <v>3.0048499999999998</v>
       </c>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="13"/>
       <c r="B40">
         <v>2</v>
       </c>
@@ -41936,10 +41936,10 @@
       <c r="M40" s="3">
         <v>3.0047250000000001</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="13"/>
       <c r="B41">
         <v>2</v>
       </c>
@@ -41976,10 +41976,10 @@
       <c r="M41" s="3">
         <v>1.6901249999999999</v>
       </c>
-      <c r="N41" s="9"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="13"/>
       <c r="B42">
         <v>2</v>
       </c>
@@ -41989,39 +41989,39 @@
       <c r="D42" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>2.3850000000000003E-2</v>
       </c>
       <c r="F42" s="3">
         <v>1.5724999999999999E-2</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="H42" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>0.66284999999999994</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>1.5727499999999999</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>1.2074999999999999E-2</v>
       </c>
       <c r="L42" s="3">
         <v>0.78249999999999997</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <v>1.2286250000000001</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+      <c r="A43" s="13"/>
       <c r="B43">
         <v>1</v>
       </c>
@@ -42060,7 +42060,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="A44" s="13"/>
       <c r="B44">
         <v>1</v>
       </c>
@@ -42099,7 +42099,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="13"/>
       <c r="B45">
         <v>1</v>
       </c>
@@ -42139,14 +42139,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D13">
     <cfRule type="colorScale" priority="30">
